--- a/Code/Results/Cases/Case_4_27/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_4_27/res_line/pl_mw.xlsx
@@ -412,16 +412,16 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.71399368158913</v>
+        <v>1.71399368158896</v>
       </c>
       <c r="C2">
-        <v>1.428858485219109</v>
+        <v>1.428858485219735</v>
       </c>
       <c r="D2">
-        <v>0.2019836871272673</v>
+        <v>0.2019836871269689</v>
       </c>
       <c r="E2">
-        <v>0.02816237820624323</v>
+        <v>0.02816237820636225</v>
       </c>
       <c r="F2">
         <v>0</v>
@@ -430,19 +430,19 @@
         <v>0</v>
       </c>
       <c r="H2">
-        <v>9.559712336145509</v>
+        <v>9.559712336145168</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.7108105143834962</v>
+        <v>0.7108105143834536</v>
       </c>
       <c r="K2">
-        <v>0.2262054429021489</v>
+        <v>0.2262054429021134</v>
       </c>
       <c r="L2">
-        <v>0.6210089350530552</v>
+        <v>0.6210089350530765</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -450,16 +450,16 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.450199431992814</v>
+        <v>1.450199431992786</v>
       </c>
       <c r="C3">
-        <v>1.224322477674548</v>
+        <v>1.224322477673581</v>
       </c>
       <c r="D3">
-        <v>0.172939799461119</v>
+        <v>0.1729397994605932</v>
       </c>
       <c r="E3">
-        <v>0.02523619439607039</v>
+        <v>0.02523619439613078</v>
       </c>
       <c r="F3">
         <v>0</v>
@@ -468,19 +468,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>8.355400543863226</v>
+        <v>8.355400543863254</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.6051017770928837</v>
+        <v>0.6051017770928411</v>
       </c>
       <c r="K3">
-        <v>0.1958313783624632</v>
+        <v>0.195831378362449</v>
       </c>
       <c r="L3">
-        <v>0.5319279221287943</v>
+        <v>0.53192792212878</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -488,16 +488,16 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.295876574891622</v>
+        <v>1.29587657489148</v>
       </c>
       <c r="C4">
-        <v>1.102570714400883</v>
+        <v>1.102570714401338</v>
       </c>
       <c r="D4">
-        <v>0.1556550493193356</v>
+        <v>0.1556550493191651</v>
       </c>
       <c r="E4">
-        <v>0.02349142181076402</v>
+        <v>0.02349142181078712</v>
       </c>
       <c r="F4">
         <v>0</v>
@@ -506,19 +506,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>7.634855089616195</v>
+        <v>7.634855089616167</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.5427717709258104</v>
+        <v>0.5427717709258317</v>
       </c>
       <c r="K4">
-        <v>0.1777278157767626</v>
+        <v>0.1777278157767235</v>
       </c>
       <c r="L4">
-        <v>0.4792903886248112</v>
+        <v>0.4792903886248254</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -526,16 +526,16 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.234613514259905</v>
+        <v>1.234613514259962</v>
       </c>
       <c r="C5">
-        <v>1.053760740892471</v>
+        <v>1.053760740892073</v>
       </c>
       <c r="D5">
-        <v>0.1487267611582865</v>
+        <v>0.1487267611583576</v>
       </c>
       <c r="E5">
-        <v>0.02279153946588863</v>
+        <v>0.0227915394659739</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -544,19 +544,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>7.345140974834379</v>
+        <v>7.345140974834294</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.5179169937409398</v>
+        <v>0.5179169937409043</v>
       </c>
       <c r="K5">
-        <v>0.1704662913927777</v>
+        <v>0.1704662913927386</v>
       </c>
       <c r="L5">
-        <v>0.4582782515176689</v>
+        <v>0.4582782515176831</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -564,16 +564,16 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.224531033884034</v>
+        <v>1.224531033883892</v>
       </c>
       <c r="C6">
-        <v>1.045700245802095</v>
+        <v>1.045700245801527</v>
       </c>
       <c r="D6">
-        <v>0.1475826930094257</v>
+        <v>0.1475826930095252</v>
       </c>
       <c r="E6">
-        <v>0.02267594489170044</v>
+        <v>0.02267594489176261</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -582,19 +582,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>7.297248077885143</v>
+        <v>7.297248077885286</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.5138200808682498</v>
+        <v>0.5138200808682569</v>
       </c>
       <c r="K6">
-        <v>0.1692669402877414</v>
+        <v>0.1692669402877343</v>
       </c>
       <c r="L6">
-        <v>0.4548135411500809</v>
+        <v>0.4548135411500738</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -602,16 +602,16 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.295044144826505</v>
+        <v>1.295044144826392</v>
       </c>
       <c r="C7">
         <v>1.101909381898395</v>
       </c>
       <c r="D7">
-        <v>0.1555611723159416</v>
+        <v>0.1555611723162258</v>
       </c>
       <c r="E7">
-        <v>0.02348194026796868</v>
+        <v>0.02348194026786921</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -620,19 +620,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>7.630933086293936</v>
+        <v>7.630933086293879</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.5424344881555427</v>
+        <v>0.5424344881555854</v>
       </c>
       <c r="K7">
-        <v>0.1776294417431465</v>
+        <v>0.177629441743143</v>
       </c>
       <c r="L7">
-        <v>0.4790053350067254</v>
+        <v>0.479005335006697</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -640,16 +640,16 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.621256235492552</v>
+        <v>1.621256235492012</v>
       </c>
       <c r="C8">
-        <v>1.357435478616082</v>
+        <v>1.357435478616651</v>
       </c>
       <c r="D8">
-        <v>0.1918409889170647</v>
+        <v>0.1918409889167094</v>
       </c>
       <c r="E8">
-        <v>0.02714141001305492</v>
+        <v>0.02714141001309045</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -658,19 +658,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>9.139998446503313</v>
+        <v>9.139998446503427</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.6737610712030957</v>
+        <v>0.6737610712031241</v>
       </c>
       <c r="K8">
         <v>0.2156051761433346</v>
       </c>
       <c r="L8">
-        <v>0.5898149692634291</v>
+        <v>0.5898149692634362</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -678,16 +678,16 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>2.337919074176284</v>
+        <v>2.337919074176341</v>
       </c>
       <c r="C9">
         <v>1.897575132965926</v>
       </c>
       <c r="D9">
-        <v>0.2685526616822642</v>
+        <v>0.2685526616823495</v>
       </c>
       <c r="E9">
-        <v>0.03483306558165289</v>
+        <v>0.03483306558163335</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -696,7 +696,7 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>12.29451422335592</v>
+        <v>12.2945142233558</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -705,10 +705,10 @@
         <v>0.9573056553756345</v>
       </c>
       <c r="K9">
-        <v>0.2955690294115385</v>
+        <v>0.2955690294116025</v>
       </c>
       <c r="L9">
-        <v>0.8277617279849636</v>
+        <v>0.8277617279849068</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -716,16 +716,16 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>2.939988075520318</v>
+        <v>2.939988075520091</v>
       </c>
       <c r="C10">
-        <v>2.333268796034929</v>
+        <v>2.333268796034645</v>
       </c>
       <c r="D10">
-        <v>0.330421490195917</v>
+        <v>0.3304214901957181</v>
       </c>
       <c r="E10">
-        <v>0.04097667162336371</v>
+        <v>0.04097667162332996</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -734,19 +734,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>14.80931606423178</v>
+        <v>14.80931606423221</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>1.191262525613197</v>
+        <v>1.191262525613126</v>
       </c>
       <c r="K10">
-        <v>0.3596718841381161</v>
+        <v>0.3596718841380735</v>
       </c>
       <c r="L10">
-        <v>1.022700099772862</v>
+        <v>1.02270009977282</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -754,16 +754,16 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>3.239078143721088</v>
+        <v>3.239078143721429</v>
       </c>
       <c r="C11">
-        <v>2.544482321385999</v>
+        <v>2.544482321385715</v>
       </c>
       <c r="D11">
-        <v>0.3604033449455102</v>
+        <v>0.3604033449455528</v>
       </c>
       <c r="E11">
-        <v>0.04393179204431341</v>
+        <v>0.04393179204418907</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -772,19 +772,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>16.01963465966622</v>
+        <v>16.01963465966611</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>1.306254860305827</v>
+        <v>1.306254860305728</v>
       </c>
       <c r="K11">
-        <v>0.3905981298947552</v>
+        <v>0.3905981298947339</v>
       </c>
       <c r="L11">
-        <v>1.118041107128562</v>
+        <v>1.118041107128526</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -792,16 +792,16 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>3.356962557597001</v>
+        <v>3.356962557597058</v>
       </c>
       <c r="C12">
-        <v>2.626850683364296</v>
+        <v>2.626850683364978</v>
       </c>
       <c r="D12">
-        <v>0.3720929369363546</v>
+        <v>0.3720929369367383</v>
       </c>
       <c r="E12">
-        <v>0.0450798130717498</v>
+        <v>0.04507981307170184</v>
       </c>
       <c r="F12">
         <v>0</v>
@@ -816,13 +816,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>1.351371092137271</v>
+        <v>1.351371092137242</v>
       </c>
       <c r="K12">
-        <v>0.4026302411084473</v>
+        <v>0.4026302411084615</v>
       </c>
       <c r="L12">
-        <v>1.155361135700971</v>
+        <v>1.155361135700957</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -830,16 +830,16 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>3.331349180749555</v>
+        <v>3.331349180749726</v>
       </c>
       <c r="C13">
-        <v>2.608995244838979</v>
+        <v>2.608995244838695</v>
       </c>
       <c r="D13">
-        <v>0.3695590591521807</v>
+        <v>0.3695590591525786</v>
       </c>
       <c r="E13">
-        <v>0.04483116532318121</v>
+        <v>0.04483116532329845</v>
       </c>
       <c r="F13">
         <v>0</v>
@@ -848,19 +848,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>16.38819399662691</v>
+        <v>16.38819399662685</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>1.341578143078081</v>
+        <v>1.34157814307811</v>
       </c>
       <c r="K13">
-        <v>0.4000233623235587</v>
+        <v>0.4000233623235516</v>
       </c>
       <c r="L13">
-        <v>1.147264577749631</v>
+        <v>1.14726457774966</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -868,16 +868,16 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>3.248677079253753</v>
+        <v>3.248677079254207</v>
       </c>
       <c r="C14">
-        <v>2.551207513264217</v>
+        <v>2.551207513264501</v>
       </c>
       <c r="D14">
-        <v>0.3613578339444956</v>
+        <v>0.3613578339441403</v>
       </c>
       <c r="E14">
-        <v>0.04402561988541009</v>
+        <v>0.04402561988537279</v>
       </c>
       <c r="F14">
         <v>0</v>
@@ -898,7 +898,7 @@
         <v>0.3915811343733395</v>
       </c>
       <c r="L14">
-        <v>1.121085324161157</v>
+        <v>1.121085324161193</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -906,16 +906,16 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>3.198675070201773</v>
+        <v>3.198675070201602</v>
       </c>
       <c r="C15">
         <v>2.516139403911211</v>
       </c>
       <c r="D15">
-        <v>0.3563805956227952</v>
+        <v>0.3563805956230368</v>
       </c>
       <c r="E15">
-        <v>0.04353617734039261</v>
+        <v>0.04353617734057558</v>
       </c>
       <c r="F15">
         <v>0</v>
@@ -924,19 +924,19 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>15.8575477666584</v>
+        <v>15.85754776665857</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>1.290765490029258</v>
+        <v>1.290765490029287</v>
       </c>
       <c r="K15">
-        <v>0.3864541373367558</v>
+        <v>0.3864541373367487</v>
       </c>
       <c r="L15">
-        <v>1.105217110810415</v>
+        <v>1.105217110810486</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -944,16 +944,16 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>2.921028308052485</v>
+        <v>2.921028308052257</v>
       </c>
       <c r="C16">
-        <v>2.319768238611346</v>
+        <v>2.319768238611232</v>
       </c>
       <c r="D16">
-        <v>0.3285047887150796</v>
+        <v>0.3285047887152359</v>
       </c>
       <c r="E16">
-        <v>0.04078724579640003</v>
+        <v>0.0407872457963272</v>
       </c>
       <c r="F16">
         <v>0</v>
@@ -962,19 +962,19 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>14.73176157075997</v>
+        <v>14.73176157076034</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>1.183946751018013</v>
+        <v>1.183946751017999</v>
       </c>
       <c r="K16">
-        <v>0.3576916480869841</v>
+        <v>0.3576916480869983</v>
       </c>
       <c r="L16">
-        <v>1.016623910626933</v>
+        <v>1.01662391062694</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -982,16 +982,16 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>2.757785181664246</v>
+        <v>2.757785181664644</v>
       </c>
       <c r="C17">
-        <v>2.202958507853282</v>
+        <v>2.202958507852884</v>
       </c>
       <c r="D17">
-        <v>0.3119198343091796</v>
+        <v>0.311919834308739</v>
       </c>
       <c r="E17">
-        <v>0.03914568689507725</v>
+        <v>0.03914568689520159</v>
       </c>
       <c r="F17">
         <v>0</v>
@@ -1000,19 +1000,19 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>14.05976932420256</v>
+        <v>14.05976932420259</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>1.120823826134909</v>
+        <v>1.120823826134924</v>
       </c>
       <c r="K17">
-        <v>0.3405414372275786</v>
+        <v>0.3405414372275573</v>
       </c>
       <c r="L17">
-        <v>0.9641440182598018</v>
+        <v>0.9641440182598089</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -1020,16 +1020,16 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>2.666190995246154</v>
+        <v>2.666190995246495</v>
       </c>
       <c r="C18">
-        <v>2.136959928424972</v>
+        <v>2.13695992842429</v>
       </c>
       <c r="D18">
-        <v>0.3025483009437409</v>
+        <v>0.3025483009434851</v>
       </c>
       <c r="E18">
-        <v>0.03821616936530425</v>
+        <v>0.03821616936528827</v>
       </c>
       <c r="F18">
         <v>0</v>
@@ -1038,19 +1038,19 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>13.67930929088797</v>
+        <v>13.67930929088789</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>1.085298367945882</v>
+        <v>1.085298367945924</v>
       </c>
       <c r="K18">
-        <v>0.3308383817767719</v>
+        <v>0.3308383817767506</v>
       </c>
       <c r="L18">
-        <v>0.9345671719816977</v>
+        <v>0.9345671719816266</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -1058,16 +1058,16 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>2.635547497979928</v>
+        <v>2.635547497979815</v>
       </c>
       <c r="C19">
-        <v>2.114804364143026</v>
+        <v>2.114804364141321</v>
       </c>
       <c r="D19">
-        <v>0.2994021747593791</v>
+        <v>0.2994021747597344</v>
       </c>
       <c r="E19">
-        <v>0.03790381300833978</v>
+        <v>0.03790381300856538</v>
       </c>
       <c r="F19">
         <v>0</v>
@@ -1076,16 +1076,16 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>13.55146260838842</v>
+        <v>13.55146260838833</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>1.07339535051085</v>
+        <v>1.073395350510765</v>
       </c>
       <c r="K19">
-        <v>0.3275790278098043</v>
+        <v>0.3275790278098114</v>
       </c>
       <c r="L19">
         <v>0.924650647691017</v>
@@ -1096,16 +1096,16 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>2.774918389869867</v>
+        <v>2.774918389870095</v>
       </c>
       <c r="C20">
-        <v>2.215266934813826</v>
+        <v>2.215266934814508</v>
       </c>
       <c r="D20">
-        <v>0.3136675155773503</v>
+        <v>0.3136675155776629</v>
       </c>
       <c r="E20">
-        <v>0.03931887798366951</v>
+        <v>0.03931887798384182</v>
       </c>
       <c r="F20">
         <v>0</v>
@@ -1120,13 +1120,13 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>1.127460356683017</v>
+        <v>1.127460356682988</v>
       </c>
       <c r="K20">
         <v>0.342349982840453</v>
       </c>
       <c r="L20">
-        <v>0.969665996201698</v>
+        <v>0.9696659962016838</v>
       </c>
     </row>
     <row r="21" spans="1:12">
@@ -1134,16 +1134,16 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>3.272824902151513</v>
+        <v>3.272824902151058</v>
       </c>
       <c r="C21">
-        <v>2.568111566800042</v>
+        <v>2.568111566799359</v>
       </c>
       <c r="D21">
-        <v>0.3637569361406605</v>
+        <v>0.3637569361409305</v>
       </c>
       <c r="E21">
-        <v>0.04426138629083454</v>
+        <v>0.04426138629088427</v>
       </c>
       <c r="F21">
         <v>0</v>
@@ -1152,7 +1152,7 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>16.15468801214598</v>
+        <v>16.15468801214627</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1164,7 +1164,7 @@
         <v>0.3940514814841407</v>
       </c>
       <c r="L21">
-        <v>1.12873936309019</v>
+        <v>1.128739363090183</v>
       </c>
     </row>
     <row r="22" spans="1:12">
@@ -1172,7 +1172,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>3.625897288739964</v>
+        <v>3.625897288739907</v>
       </c>
       <c r="C22">
         <v>2.812982798740336</v>
@@ -1181,7 +1181,7 @@
         <v>0.3985020772233128</v>
       </c>
       <c r="E22">
-        <v>0.04766457207329466</v>
+        <v>0.04766457207328756</v>
       </c>
       <c r="F22">
         <v>0</v>
@@ -1190,19 +1190,19 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>17.55013777876343</v>
+        <v>17.55013777876349</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>1.453877969612392</v>
+        <v>1.453877969612421</v>
       </c>
       <c r="K22">
-        <v>0.4297585489761033</v>
+        <v>0.4297585489762312</v>
       </c>
       <c r="L22">
-        <v>1.239972733746491</v>
+        <v>1.239972733746463</v>
       </c>
     </row>
     <row r="23" spans="1:12">
@@ -1210,16 +1210,16 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>3.434511259926126</v>
+        <v>3.434511259926524</v>
       </c>
       <c r="C23">
-        <v>2.680773359682917</v>
+        <v>2.680773359682462</v>
       </c>
       <c r="D23">
-        <v>0.3797446534919118</v>
+        <v>0.3797446534918549</v>
       </c>
       <c r="E23">
-        <v>0.04582998822353801</v>
+        <v>0.04582998822358419</v>
       </c>
       <c r="F23">
         <v>0</v>
@@ -1228,19 +1228,19 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>16.79764635488993</v>
+        <v>16.79764635488988</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>1.380988455039258</v>
+        <v>1.380988455039358</v>
       </c>
       <c r="K23">
-        <v>0.4104981872653468</v>
+        <v>0.4104981872653042</v>
       </c>
       <c r="L23">
-        <v>1.179833997622552</v>
+        <v>1.179833997622573</v>
       </c>
     </row>
     <row r="24" spans="1:12">
@@ -1248,13 +1248,13 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>2.767165509436325</v>
+        <v>2.767165509436154</v>
       </c>
       <c r="C24">
-        <v>2.209698728309149</v>
+        <v>2.209698728308297</v>
       </c>
       <c r="D24">
-        <v>0.3128768851293984</v>
+        <v>0.3128768851295121</v>
       </c>
       <c r="E24">
         <v>0.03924053437303066</v>
@@ -1266,19 +1266,19 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>14.09859269759869</v>
+        <v>14.09859269759855</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>1.124457623418493</v>
+        <v>1.124457623418479</v>
       </c>
       <c r="K24">
-        <v>0.3415318556857088</v>
+        <v>0.3415318556857585</v>
       </c>
       <c r="L24">
-        <v>0.9671676765605852</v>
+        <v>0.9671676765605568</v>
       </c>
     </row>
     <row r="25" spans="1:12">
@@ -1286,16 +1286,16 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>2.133226867958655</v>
+        <v>2.133226867957916</v>
       </c>
       <c r="C25">
-        <v>1.745910569216335</v>
+        <v>1.745910569216278</v>
       </c>
       <c r="D25">
-        <v>0.2470124559969378</v>
+        <v>0.2470124559966678</v>
       </c>
       <c r="E25">
-        <v>0.03268083785335563</v>
+        <v>0.03268083785337339</v>
       </c>
       <c r="F25">
         <v>0</v>
@@ -1310,13 +1310,13 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.8769325804735928</v>
+        <v>0.876932580473607</v>
       </c>
       <c r="K25">
-        <v>0.2731663022781703</v>
+        <v>0.2731663022781561</v>
       </c>
       <c r="L25">
-        <v>0.7604991709287674</v>
+        <v>0.7604991709287745</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_27/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_4_27/res_line/pl_mw.xlsx
@@ -412,16 +412,16 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.71399368158896</v>
+        <v>1.71399368158913</v>
       </c>
       <c r="C2">
-        <v>1.428858485219735</v>
+        <v>1.428858485219109</v>
       </c>
       <c r="D2">
-        <v>0.2019836871269689</v>
+        <v>0.2019836871272673</v>
       </c>
       <c r="E2">
-        <v>0.02816237820636225</v>
+        <v>0.02816237820624323</v>
       </c>
       <c r="F2">
         <v>0</v>
@@ -430,19 +430,19 @@
         <v>0</v>
       </c>
       <c r="H2">
-        <v>9.559712336145168</v>
+        <v>9.559712336145509</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.7108105143834536</v>
+        <v>0.7108105143834962</v>
       </c>
       <c r="K2">
-        <v>0.2262054429021134</v>
+        <v>0.2262054429021489</v>
       </c>
       <c r="L2">
-        <v>0.6210089350530765</v>
+        <v>0.6210089350530552</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -450,16 +450,16 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.450199431992786</v>
+        <v>1.450199431992814</v>
       </c>
       <c r="C3">
-        <v>1.224322477673581</v>
+        <v>1.224322477674548</v>
       </c>
       <c r="D3">
-        <v>0.1729397994605932</v>
+        <v>0.172939799461119</v>
       </c>
       <c r="E3">
-        <v>0.02523619439613078</v>
+        <v>0.02523619439607039</v>
       </c>
       <c r="F3">
         <v>0</v>
@@ -468,19 +468,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>8.355400543863254</v>
+        <v>8.355400543863226</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.6051017770928411</v>
+        <v>0.6051017770928837</v>
       </c>
       <c r="K3">
-        <v>0.195831378362449</v>
+        <v>0.1958313783624632</v>
       </c>
       <c r="L3">
-        <v>0.53192792212878</v>
+        <v>0.5319279221287943</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -488,16 +488,16 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.29587657489148</v>
+        <v>1.295876574891622</v>
       </c>
       <c r="C4">
-        <v>1.102570714401338</v>
+        <v>1.102570714400883</v>
       </c>
       <c r="D4">
-        <v>0.1556550493191651</v>
+        <v>0.1556550493193356</v>
       </c>
       <c r="E4">
-        <v>0.02349142181078712</v>
+        <v>0.02349142181076402</v>
       </c>
       <c r="F4">
         <v>0</v>
@@ -506,19 +506,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>7.634855089616167</v>
+        <v>7.634855089616195</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.5427717709258317</v>
+        <v>0.5427717709258104</v>
       </c>
       <c r="K4">
-        <v>0.1777278157767235</v>
+        <v>0.1777278157767626</v>
       </c>
       <c r="L4">
-        <v>0.4792903886248254</v>
+        <v>0.4792903886248112</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -526,16 +526,16 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.234613514259962</v>
+        <v>1.234613514259905</v>
       </c>
       <c r="C5">
-        <v>1.053760740892073</v>
+        <v>1.053760740892471</v>
       </c>
       <c r="D5">
-        <v>0.1487267611583576</v>
+        <v>0.1487267611582865</v>
       </c>
       <c r="E5">
-        <v>0.0227915394659739</v>
+        <v>0.02279153946588863</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -544,19 +544,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>7.345140974834294</v>
+        <v>7.345140974834379</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.5179169937409043</v>
+        <v>0.5179169937409398</v>
       </c>
       <c r="K5">
-        <v>0.1704662913927386</v>
+        <v>0.1704662913927777</v>
       </c>
       <c r="L5">
-        <v>0.4582782515176831</v>
+        <v>0.4582782515176689</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -564,16 +564,16 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.224531033883892</v>
+        <v>1.224531033884034</v>
       </c>
       <c r="C6">
-        <v>1.045700245801527</v>
+        <v>1.045700245802095</v>
       </c>
       <c r="D6">
-        <v>0.1475826930095252</v>
+        <v>0.1475826930094257</v>
       </c>
       <c r="E6">
-        <v>0.02267594489176261</v>
+        <v>0.02267594489170044</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -582,19 +582,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>7.297248077885286</v>
+        <v>7.297248077885143</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.5138200808682569</v>
+        <v>0.5138200808682498</v>
       </c>
       <c r="K6">
-        <v>0.1692669402877343</v>
+        <v>0.1692669402877414</v>
       </c>
       <c r="L6">
-        <v>0.4548135411500738</v>
+        <v>0.4548135411500809</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -602,16 +602,16 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.295044144826392</v>
+        <v>1.295044144826505</v>
       </c>
       <c r="C7">
         <v>1.101909381898395</v>
       </c>
       <c r="D7">
-        <v>0.1555611723162258</v>
+        <v>0.1555611723159416</v>
       </c>
       <c r="E7">
-        <v>0.02348194026786921</v>
+        <v>0.02348194026796868</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -620,19 +620,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>7.630933086293879</v>
+        <v>7.630933086293936</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.5424344881555854</v>
+        <v>0.5424344881555427</v>
       </c>
       <c r="K7">
-        <v>0.177629441743143</v>
+        <v>0.1776294417431465</v>
       </c>
       <c r="L7">
-        <v>0.479005335006697</v>
+        <v>0.4790053350067254</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -640,16 +640,16 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.621256235492012</v>
+        <v>1.621256235492552</v>
       </c>
       <c r="C8">
-        <v>1.357435478616651</v>
+        <v>1.357435478616082</v>
       </c>
       <c r="D8">
-        <v>0.1918409889167094</v>
+        <v>0.1918409889170647</v>
       </c>
       <c r="E8">
-        <v>0.02714141001309045</v>
+        <v>0.02714141001305492</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -658,19 +658,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>9.139998446503427</v>
+        <v>9.139998446503313</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.6737610712031241</v>
+        <v>0.6737610712030957</v>
       </c>
       <c r="K8">
         <v>0.2156051761433346</v>
       </c>
       <c r="L8">
-        <v>0.5898149692634362</v>
+        <v>0.5898149692634291</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -678,16 +678,16 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>2.337919074176341</v>
+        <v>2.337919074176284</v>
       </c>
       <c r="C9">
         <v>1.897575132965926</v>
       </c>
       <c r="D9">
-        <v>0.2685526616823495</v>
+        <v>0.2685526616822642</v>
       </c>
       <c r="E9">
-        <v>0.03483306558163335</v>
+        <v>0.03483306558165289</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -696,7 +696,7 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>12.2945142233558</v>
+        <v>12.29451422335592</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -705,10 +705,10 @@
         <v>0.9573056553756345</v>
       </c>
       <c r="K9">
-        <v>0.2955690294116025</v>
+        <v>0.2955690294115385</v>
       </c>
       <c r="L9">
-        <v>0.8277617279849068</v>
+        <v>0.8277617279849636</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -716,16 +716,16 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>2.939988075520091</v>
+        <v>2.939988075520318</v>
       </c>
       <c r="C10">
-        <v>2.333268796034645</v>
+        <v>2.333268796034929</v>
       </c>
       <c r="D10">
-        <v>0.3304214901957181</v>
+        <v>0.330421490195917</v>
       </c>
       <c r="E10">
-        <v>0.04097667162332996</v>
+        <v>0.04097667162336371</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -734,19 +734,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>14.80931606423221</v>
+        <v>14.80931606423178</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>1.191262525613126</v>
+        <v>1.191262525613197</v>
       </c>
       <c r="K10">
-        <v>0.3596718841380735</v>
+        <v>0.3596718841381161</v>
       </c>
       <c r="L10">
-        <v>1.02270009977282</v>
+        <v>1.022700099772862</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -754,16 +754,16 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>3.239078143721429</v>
+        <v>3.239078143721088</v>
       </c>
       <c r="C11">
-        <v>2.544482321385715</v>
+        <v>2.544482321385999</v>
       </c>
       <c r="D11">
-        <v>0.3604033449455528</v>
+        <v>0.3604033449455102</v>
       </c>
       <c r="E11">
-        <v>0.04393179204418907</v>
+        <v>0.04393179204431341</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -772,19 +772,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>16.01963465966611</v>
+        <v>16.01963465966622</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>1.306254860305728</v>
+        <v>1.306254860305827</v>
       </c>
       <c r="K11">
-        <v>0.3905981298947339</v>
+        <v>0.3905981298947552</v>
       </c>
       <c r="L11">
-        <v>1.118041107128526</v>
+        <v>1.118041107128562</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -792,16 +792,16 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>3.356962557597058</v>
+        <v>3.356962557597001</v>
       </c>
       <c r="C12">
-        <v>2.626850683364978</v>
+        <v>2.626850683364296</v>
       </c>
       <c r="D12">
-        <v>0.3720929369367383</v>
+        <v>0.3720929369363546</v>
       </c>
       <c r="E12">
-        <v>0.04507981307170184</v>
+        <v>0.0450798130717498</v>
       </c>
       <c r="F12">
         <v>0</v>
@@ -816,13 +816,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>1.351371092137242</v>
+        <v>1.351371092137271</v>
       </c>
       <c r="K12">
-        <v>0.4026302411084615</v>
+        <v>0.4026302411084473</v>
       </c>
       <c r="L12">
-        <v>1.155361135700957</v>
+        <v>1.155361135700971</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -830,16 +830,16 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>3.331349180749726</v>
+        <v>3.331349180749555</v>
       </c>
       <c r="C13">
-        <v>2.608995244838695</v>
+        <v>2.608995244838979</v>
       </c>
       <c r="D13">
-        <v>0.3695590591525786</v>
+        <v>0.3695590591521807</v>
       </c>
       <c r="E13">
-        <v>0.04483116532329845</v>
+        <v>0.04483116532318121</v>
       </c>
       <c r="F13">
         <v>0</v>
@@ -848,19 +848,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>16.38819399662685</v>
+        <v>16.38819399662691</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>1.34157814307811</v>
+        <v>1.341578143078081</v>
       </c>
       <c r="K13">
-        <v>0.4000233623235516</v>
+        <v>0.4000233623235587</v>
       </c>
       <c r="L13">
-        <v>1.14726457774966</v>
+        <v>1.147264577749631</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -868,16 +868,16 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>3.248677079254207</v>
+        <v>3.248677079253753</v>
       </c>
       <c r="C14">
-        <v>2.551207513264501</v>
+        <v>2.551207513264217</v>
       </c>
       <c r="D14">
-        <v>0.3613578339441403</v>
+        <v>0.3613578339444956</v>
       </c>
       <c r="E14">
-        <v>0.04402561988537279</v>
+        <v>0.04402561988541009</v>
       </c>
       <c r="F14">
         <v>0</v>
@@ -898,7 +898,7 @@
         <v>0.3915811343733395</v>
       </c>
       <c r="L14">
-        <v>1.121085324161193</v>
+        <v>1.121085324161157</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -906,16 +906,16 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>3.198675070201602</v>
+        <v>3.198675070201773</v>
       </c>
       <c r="C15">
         <v>2.516139403911211</v>
       </c>
       <c r="D15">
-        <v>0.3563805956230368</v>
+        <v>0.3563805956227952</v>
       </c>
       <c r="E15">
-        <v>0.04353617734057558</v>
+        <v>0.04353617734039261</v>
       </c>
       <c r="F15">
         <v>0</v>
@@ -924,19 +924,19 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>15.85754776665857</v>
+        <v>15.8575477666584</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>1.290765490029287</v>
+        <v>1.290765490029258</v>
       </c>
       <c r="K15">
-        <v>0.3864541373367487</v>
+        <v>0.3864541373367558</v>
       </c>
       <c r="L15">
-        <v>1.105217110810486</v>
+        <v>1.105217110810415</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -944,16 +944,16 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>2.921028308052257</v>
+        <v>2.921028308052485</v>
       </c>
       <c r="C16">
-        <v>2.319768238611232</v>
+        <v>2.319768238611346</v>
       </c>
       <c r="D16">
-        <v>0.3285047887152359</v>
+        <v>0.3285047887150796</v>
       </c>
       <c r="E16">
-        <v>0.0407872457963272</v>
+        <v>0.04078724579640003</v>
       </c>
       <c r="F16">
         <v>0</v>
@@ -962,19 +962,19 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>14.73176157076034</v>
+        <v>14.73176157075997</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>1.183946751017999</v>
+        <v>1.183946751018013</v>
       </c>
       <c r="K16">
-        <v>0.3576916480869983</v>
+        <v>0.3576916480869841</v>
       </c>
       <c r="L16">
-        <v>1.01662391062694</v>
+        <v>1.016623910626933</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -982,16 +982,16 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>2.757785181664644</v>
+        <v>2.757785181664246</v>
       </c>
       <c r="C17">
-        <v>2.202958507852884</v>
+        <v>2.202958507853282</v>
       </c>
       <c r="D17">
-        <v>0.311919834308739</v>
+        <v>0.3119198343091796</v>
       </c>
       <c r="E17">
-        <v>0.03914568689520159</v>
+        <v>0.03914568689507725</v>
       </c>
       <c r="F17">
         <v>0</v>
@@ -1000,19 +1000,19 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>14.05976932420259</v>
+        <v>14.05976932420256</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>1.120823826134924</v>
+        <v>1.120823826134909</v>
       </c>
       <c r="K17">
-        <v>0.3405414372275573</v>
+        <v>0.3405414372275786</v>
       </c>
       <c r="L17">
-        <v>0.9641440182598089</v>
+        <v>0.9641440182598018</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -1020,16 +1020,16 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>2.666190995246495</v>
+        <v>2.666190995246154</v>
       </c>
       <c r="C18">
-        <v>2.13695992842429</v>
+        <v>2.136959928424972</v>
       </c>
       <c r="D18">
-        <v>0.3025483009434851</v>
+        <v>0.3025483009437409</v>
       </c>
       <c r="E18">
-        <v>0.03821616936528827</v>
+        <v>0.03821616936530425</v>
       </c>
       <c r="F18">
         <v>0</v>
@@ -1038,19 +1038,19 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>13.67930929088789</v>
+        <v>13.67930929088797</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>1.085298367945924</v>
+        <v>1.085298367945882</v>
       </c>
       <c r="K18">
-        <v>0.3308383817767506</v>
+        <v>0.3308383817767719</v>
       </c>
       <c r="L18">
-        <v>0.9345671719816266</v>
+        <v>0.9345671719816977</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -1058,16 +1058,16 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>2.635547497979815</v>
+        <v>2.635547497979928</v>
       </c>
       <c r="C19">
-        <v>2.114804364141321</v>
+        <v>2.114804364143026</v>
       </c>
       <c r="D19">
-        <v>0.2994021747597344</v>
+        <v>0.2994021747593791</v>
       </c>
       <c r="E19">
-        <v>0.03790381300856538</v>
+        <v>0.03790381300833978</v>
       </c>
       <c r="F19">
         <v>0</v>
@@ -1076,16 +1076,16 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>13.55146260838833</v>
+        <v>13.55146260838842</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>1.073395350510765</v>
+        <v>1.07339535051085</v>
       </c>
       <c r="K19">
-        <v>0.3275790278098114</v>
+        <v>0.3275790278098043</v>
       </c>
       <c r="L19">
         <v>0.924650647691017</v>
@@ -1096,16 +1096,16 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>2.774918389870095</v>
+        <v>2.774918389869867</v>
       </c>
       <c r="C20">
-        <v>2.215266934814508</v>
+        <v>2.215266934813826</v>
       </c>
       <c r="D20">
-        <v>0.3136675155776629</v>
+        <v>0.3136675155773503</v>
       </c>
       <c r="E20">
-        <v>0.03931887798384182</v>
+        <v>0.03931887798366951</v>
       </c>
       <c r="F20">
         <v>0</v>
@@ -1120,13 +1120,13 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>1.127460356682988</v>
+        <v>1.127460356683017</v>
       </c>
       <c r="K20">
         <v>0.342349982840453</v>
       </c>
       <c r="L20">
-        <v>0.9696659962016838</v>
+        <v>0.969665996201698</v>
       </c>
     </row>
     <row r="21" spans="1:12">
@@ -1134,16 +1134,16 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>3.272824902151058</v>
+        <v>3.272824902151513</v>
       </c>
       <c r="C21">
-        <v>2.568111566799359</v>
+        <v>2.568111566800042</v>
       </c>
       <c r="D21">
-        <v>0.3637569361409305</v>
+        <v>0.3637569361406605</v>
       </c>
       <c r="E21">
-        <v>0.04426138629088427</v>
+        <v>0.04426138629083454</v>
       </c>
       <c r="F21">
         <v>0</v>
@@ -1152,7 +1152,7 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>16.15468801214627</v>
+        <v>16.15468801214598</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1164,7 +1164,7 @@
         <v>0.3940514814841407</v>
       </c>
       <c r="L21">
-        <v>1.128739363090183</v>
+        <v>1.12873936309019</v>
       </c>
     </row>
     <row r="22" spans="1:12">
@@ -1172,7 +1172,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>3.625897288739907</v>
+        <v>3.625897288739964</v>
       </c>
       <c r="C22">
         <v>2.812982798740336</v>
@@ -1181,7 +1181,7 @@
         <v>0.3985020772233128</v>
       </c>
       <c r="E22">
-        <v>0.04766457207328756</v>
+        <v>0.04766457207329466</v>
       </c>
       <c r="F22">
         <v>0</v>
@@ -1190,19 +1190,19 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>17.55013777876349</v>
+        <v>17.55013777876343</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>1.453877969612421</v>
+        <v>1.453877969612392</v>
       </c>
       <c r="K22">
-        <v>0.4297585489762312</v>
+        <v>0.4297585489761033</v>
       </c>
       <c r="L22">
-        <v>1.239972733746463</v>
+        <v>1.239972733746491</v>
       </c>
     </row>
     <row r="23" spans="1:12">
@@ -1210,16 +1210,16 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>3.434511259926524</v>
+        <v>3.434511259926126</v>
       </c>
       <c r="C23">
-        <v>2.680773359682462</v>
+        <v>2.680773359682917</v>
       </c>
       <c r="D23">
-        <v>0.3797446534918549</v>
+        <v>0.3797446534919118</v>
       </c>
       <c r="E23">
-        <v>0.04582998822358419</v>
+        <v>0.04582998822353801</v>
       </c>
       <c r="F23">
         <v>0</v>
@@ -1228,19 +1228,19 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>16.79764635488988</v>
+        <v>16.79764635488993</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>1.380988455039358</v>
+        <v>1.380988455039258</v>
       </c>
       <c r="K23">
-        <v>0.4104981872653042</v>
+        <v>0.4104981872653468</v>
       </c>
       <c r="L23">
-        <v>1.179833997622573</v>
+        <v>1.179833997622552</v>
       </c>
     </row>
     <row r="24" spans="1:12">
@@ -1248,13 +1248,13 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>2.767165509436154</v>
+        <v>2.767165509436325</v>
       </c>
       <c r="C24">
-        <v>2.209698728308297</v>
+        <v>2.209698728309149</v>
       </c>
       <c r="D24">
-        <v>0.3128768851295121</v>
+        <v>0.3128768851293984</v>
       </c>
       <c r="E24">
         <v>0.03924053437303066</v>
@@ -1266,19 +1266,19 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>14.09859269759855</v>
+        <v>14.09859269759869</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>1.124457623418479</v>
+        <v>1.124457623418493</v>
       </c>
       <c r="K24">
-        <v>0.3415318556857585</v>
+        <v>0.3415318556857088</v>
       </c>
       <c r="L24">
-        <v>0.9671676765605568</v>
+        <v>0.9671676765605852</v>
       </c>
     </row>
     <row r="25" spans="1:12">
@@ -1286,16 +1286,16 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>2.133226867957916</v>
+        <v>2.133226867958655</v>
       </c>
       <c r="C25">
-        <v>1.745910569216278</v>
+        <v>1.745910569216335</v>
       </c>
       <c r="D25">
-        <v>0.2470124559966678</v>
+        <v>0.2470124559969378</v>
       </c>
       <c r="E25">
-        <v>0.03268083785337339</v>
+        <v>0.03268083785335563</v>
       </c>
       <c r="F25">
         <v>0</v>
@@ -1310,13 +1310,13 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.876932580473607</v>
+        <v>0.8769325804735928</v>
       </c>
       <c r="K25">
-        <v>0.2731663022781561</v>
+        <v>0.2731663022781703</v>
       </c>
       <c r="L25">
-        <v>0.7604991709287745</v>
+        <v>0.7604991709287674</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_27/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_4_27/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L25"/>
+  <dimension ref="A1:M25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:13">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -406,917 +406,992 @@
       <c r="L1" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:12">
+      <c r="M1" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.71399368158913</v>
+        <v>1.691429393381014</v>
       </c>
       <c r="C2">
-        <v>1.428858485219109</v>
+        <v>1.41921292993851</v>
       </c>
       <c r="D2">
-        <v>0.2019836871272673</v>
+        <v>0.2007803175544325</v>
       </c>
       <c r="E2">
-        <v>0.02816237820624323</v>
+        <v>0.02713854355236656</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>0.0007919506320501798</v>
       </c>
       <c r="H2">
-        <v>9.559712336145509</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>9.572403444133982</v>
       </c>
       <c r="J2">
-        <v>0.7108105143834962</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>0.2262054429021489</v>
+        <v>0.7032013698460702</v>
       </c>
       <c r="L2">
-        <v>0.6210089350530552</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12">
+        <v>0.2252772554759872</v>
+      </c>
+      <c r="M2">
+        <v>0.6171224141902201</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.450199431992814</v>
+        <v>1.432690205821018</v>
       </c>
       <c r="C3">
-        <v>1.224322477674548</v>
+        <v>1.217474362969313</v>
       </c>
       <c r="D3">
-        <v>0.172939799461119</v>
+        <v>0.1719405250655655</v>
       </c>
       <c r="E3">
-        <v>0.02523619439607039</v>
+        <v>0.0242071916521347</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>0.0008058691525602024</v>
       </c>
       <c r="H3">
-        <v>8.355400543863226</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>8.375119244992248</v>
       </c>
       <c r="J3">
-        <v>0.6051017770928837</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>0.1958313783624632</v>
+        <v>0.5993169191280714</v>
       </c>
       <c r="L3">
-        <v>0.5319279221287943</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12">
+        <v>0.1951021189971698</v>
+      </c>
+      <c r="M3">
+        <v>0.5291180512281528</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.295876574891622</v>
+        <v>1.281415629130549</v>
       </c>
       <c r="C4">
-        <v>1.102570714400883</v>
+        <v>1.097404506857799</v>
       </c>
       <c r="D4">
-        <v>0.1556550493193356</v>
+        <v>0.1547738484285617</v>
       </c>
       <c r="E4">
-        <v>0.02349142181076402</v>
+        <v>0.0224579135322891</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>0.0008145162670328588</v>
       </c>
       <c r="H4">
-        <v>7.634855089616195</v>
+        <v>0</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>7.658625014426462</v>
       </c>
       <c r="J4">
-        <v>0.5427717709258104</v>
+        <v>0</v>
       </c>
       <c r="K4">
-        <v>0.1777278157767626</v>
+        <v>0.5380872924871767</v>
       </c>
       <c r="L4">
-        <v>0.4792903886248112</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12">
+        <v>0.1771144233822781</v>
+      </c>
+      <c r="M4">
+        <v>0.4771236675849693</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.234613514259905</v>
+        <v>1.221386744321961</v>
       </c>
       <c r="C5">
-        <v>1.053760740892471</v>
+        <v>1.04927413859366</v>
       </c>
       <c r="D5">
-        <v>0.1487267611582865</v>
+        <v>0.1478922238573261</v>
       </c>
       <c r="E5">
-        <v>0.02279153946588863</v>
+        <v>0.02175588876739809</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>0.0008180718195534613</v>
       </c>
       <c r="H5">
-        <v>7.345140974834379</v>
+        <v>0</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>7.370508678915797</v>
       </c>
       <c r="J5">
-        <v>0.5179169937409398</v>
+        <v>0</v>
       </c>
       <c r="K5">
-        <v>0.1704662913927777</v>
+        <v>0.5136780355447996</v>
       </c>
       <c r="L5">
-        <v>0.4582782515176689</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12">
+        <v>0.1698988694749985</v>
+      </c>
+      <c r="M5">
+        <v>0.4563705296462857</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.224531033884034</v>
+        <v>1.211508866543511</v>
       </c>
       <c r="C6">
-        <v>1.045700245802095</v>
+        <v>1.041326224772547</v>
       </c>
       <c r="D6">
-        <v>0.1475826930094257</v>
+        <v>0.1467558259251689</v>
       </c>
       <c r="E6">
-        <v>0.02267594489170044</v>
+        <v>0.02163992067414711</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>0</v>
+        <v>0.0008186643064684736</v>
       </c>
       <c r="H6">
-        <v>7.297248077885143</v>
+        <v>0</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>7.322878223158853</v>
       </c>
       <c r="J6">
-        <v>0.5138200808682498</v>
+        <v>0</v>
       </c>
       <c r="K6">
-        <v>0.1692669402877414</v>
+        <v>0.5096549796677721</v>
       </c>
       <c r="L6">
-        <v>0.4548135411500809</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12">
+        <v>0.1687070850068544</v>
+      </c>
+      <c r="M6">
+        <v>0.4529486757641052</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.295044144826505</v>
+        <v>1.280599869017891</v>
       </c>
       <c r="C7">
-        <v>1.101909381898395</v>
+        <v>1.096752359362995</v>
       </c>
       <c r="D7">
-        <v>0.1555611723159416</v>
+        <v>0.154680606190027</v>
       </c>
       <c r="E7">
-        <v>0.02348194026796868</v>
+        <v>0.0224484043028248</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>0</v>
+        <v>0.0008145640818074554</v>
       </c>
       <c r="H7">
-        <v>7.630933086293936</v>
+        <v>0</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>7.654724758763706</v>
       </c>
       <c r="J7">
-        <v>0.5424344881555427</v>
+        <v>0</v>
       </c>
       <c r="K7">
-        <v>0.1776294417431465</v>
+        <v>0.5377560274118736</v>
       </c>
       <c r="L7">
-        <v>0.4790053350067254</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12">
+        <v>0.1770166739749826</v>
+      </c>
+      <c r="M7">
+        <v>0.4768421177493352</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.621256235492552</v>
+        <v>1.600450417591816</v>
       </c>
       <c r="C8">
-        <v>1.357435478616082</v>
+        <v>1.348764020466319</v>
       </c>
       <c r="D8">
-        <v>0.1918409889170647</v>
+        <v>0.1907097401397237</v>
       </c>
       <c r="E8">
-        <v>0.02714141001305492</v>
+        <v>0.02611608908221541</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>0</v>
+        <v>0.0007967328713150665</v>
       </c>
       <c r="H8">
-        <v>9.139998446503313</v>
+        <v>0</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>9.155176191156983</v>
       </c>
       <c r="J8">
-        <v>0.6737610712030957</v>
+        <v>0</v>
       </c>
       <c r="K8">
-        <v>0.2156051761433346</v>
+        <v>0.666786413687646</v>
       </c>
       <c r="L8">
-        <v>0.5898149692634291</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12">
+        <v>0.2147471025468448</v>
+      </c>
+      <c r="M8">
+        <v>0.5863043385907503</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>2.337919074176284</v>
+        <v>2.303851225571009</v>
       </c>
       <c r="C9">
-        <v>1.897575132965926</v>
+        <v>1.881543319260629</v>
       </c>
       <c r="D9">
-        <v>0.2685526616822642</v>
+        <v>0.2668507947872172</v>
       </c>
       <c r="E9">
-        <v>0.03483306558165289</v>
+        <v>0.03381159273664736</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>0</v>
+        <v>0.0007622252082520608</v>
       </c>
       <c r="H9">
-        <v>12.29451422335592</v>
+        <v>0</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>12.2899384230314</v>
       </c>
       <c r="J9">
-        <v>0.9573056553756345</v>
+        <v>0</v>
       </c>
       <c r="K9">
-        <v>0.2955690294115385</v>
+        <v>0.9455513166244884</v>
       </c>
       <c r="L9">
-        <v>0.8277617279849636</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12">
+        <v>0.294160762963088</v>
+      </c>
+      <c r="M9">
+        <v>0.8213841092355167</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>2.939988075520318</v>
+        <v>2.895032846982986</v>
       </c>
       <c r="C10">
-        <v>2.333268796034929</v>
+        <v>2.311192041700224</v>
       </c>
       <c r="D10">
-        <v>0.330421490195917</v>
+        <v>0.328210660917847</v>
       </c>
       <c r="E10">
-        <v>0.04097667162336371</v>
+        <v>0.03994726741043131</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>0</v>
+        <v>0.0007365589436370001</v>
       </c>
       <c r="H10">
-        <v>14.80931606423178</v>
+        <v>0</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>14.78700821745593</v>
       </c>
       <c r="J10">
-        <v>1.191262525613197</v>
+        <v>0</v>
       </c>
       <c r="K10">
-        <v>0.3596718841381161</v>
+        <v>1.175598184766244</v>
       </c>
       <c r="L10">
-        <v>1.022700099772862</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12">
+        <v>0.3577800858359197</v>
+      </c>
+      <c r="M10">
+        <v>1.013920736234333</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>3.239078143721088</v>
+        <v>3.18869204591789</v>
       </c>
       <c r="C11">
-        <v>2.544482321385999</v>
+        <v>2.519396888948165</v>
       </c>
       <c r="D11">
-        <v>0.3604033449455102</v>
+        <v>0.3579270479583556</v>
       </c>
       <c r="E11">
-        <v>0.04393179204431341</v>
+        <v>0.04289529260047509</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0</v>
+        <v>0.0007246359156680392</v>
       </c>
       <c r="H11">
-        <v>16.01963465966622</v>
+        <v>0</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>15.9880511885226</v>
       </c>
       <c r="J11">
-        <v>1.306254860305827</v>
+        <v>0</v>
       </c>
       <c r="K11">
-        <v>0.3905981298947552</v>
+        <v>1.288646236963459</v>
       </c>
       <c r="L11">
-        <v>1.118041107128562</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12">
+        <v>0.3884562799633784</v>
+      </c>
+      <c r="M11">
+        <v>1.108050189221338</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>3.356962557597001</v>
+        <v>3.304422115141108</v>
       </c>
       <c r="C12">
-        <v>2.626850683364296</v>
+        <v>2.600573623227717</v>
       </c>
       <c r="D12">
-        <v>0.3720929369363546</v>
+        <v>0.3695093984286189</v>
       </c>
       <c r="E12">
-        <v>0.0450798130717498</v>
+        <v>0.04403997840487683</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0</v>
+        <v>0.0007200653726306688</v>
       </c>
       <c r="H12">
-        <v>16.49010913444579</v>
+        <v>0</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>16.4547748172028</v>
       </c>
       <c r="J12">
-        <v>1.351371092137271</v>
+        <v>0</v>
       </c>
       <c r="K12">
-        <v>0.4026302411084473</v>
+        <v>1.332992438394285</v>
       </c>
       <c r="L12">
-        <v>1.155361135700971</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12">
+        <v>0.4003877470331716</v>
+      </c>
+      <c r="M12">
+        <v>1.14488738254262</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>3.331349180749555</v>
+        <v>3.279277653321287</v>
       </c>
       <c r="C13">
-        <v>2.608995244838979</v>
+        <v>2.58297745427177</v>
       </c>
       <c r="D13">
-        <v>0.3695590591521807</v>
+        <v>0.3669989529392694</v>
       </c>
       <c r="E13">
-        <v>0.04483116532318121</v>
+        <v>0.04379208078597863</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0</v>
+        <v>0.0007210525707952253</v>
       </c>
       <c r="H13">
-        <v>16.38819399662691</v>
+        <v>0</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>16.353679400212</v>
       </c>
       <c r="J13">
-        <v>1.341578143078081</v>
+        <v>0</v>
       </c>
       <c r="K13">
-        <v>0.4000233623235587</v>
+        <v>1.323367032900379</v>
       </c>
       <c r="L13">
-        <v>1.147264577749631</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12">
+        <v>0.3978028416493444</v>
+      </c>
+      <c r="M13">
+        <v>1.136896021970223</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>3.248677079253753</v>
+        <v>3.19811590985546</v>
       </c>
       <c r="C14">
-        <v>2.551207513264217</v>
+        <v>2.526025200758852</v>
       </c>
       <c r="D14">
-        <v>0.3613578339444956</v>
+        <v>0.3588728618506707</v>
       </c>
       <c r="E14">
-        <v>0.04402561988541009</v>
+        <v>0.04298886010054481</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>0</v>
+        <v>0.0007242611419995271</v>
       </c>
       <c r="H14">
-        <v>16.05807974051572</v>
+        <v>0</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>16.02619292340995</v>
       </c>
       <c r="J14">
-        <v>1.309932813073743</v>
+        <v>0</v>
       </c>
       <c r="K14">
-        <v>0.3915811343733395</v>
+        <v>1.292261586863901</v>
       </c>
       <c r="L14">
-        <v>1.121085324161157</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12">
+        <v>0.3894311353847471</v>
+      </c>
+      <c r="M14">
+        <v>1.11105521465074</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>3.198675070201773</v>
+        <v>3.149025247022507</v>
       </c>
       <c r="C15">
-        <v>2.516139403911211</v>
+        <v>2.491461486909429</v>
       </c>
       <c r="D15">
-        <v>0.3563805956227952</v>
+        <v>0.3539407040682363</v>
       </c>
       <c r="E15">
-        <v>0.04353617734039261</v>
+        <v>0.04250075172977752</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>0</v>
+        <v>0.0007262185624775846</v>
       </c>
       <c r="H15">
-        <v>15.8575477666584</v>
+        <v>0</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>15.82723715279798</v>
       </c>
       <c r="J15">
-        <v>1.290765490029258</v>
+        <v>0</v>
       </c>
       <c r="K15">
-        <v>0.3864541373367558</v>
+        <v>1.273420198353975</v>
       </c>
       <c r="L15">
-        <v>1.105217110810415</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12">
+        <v>0.3843465001642699</v>
+      </c>
+      <c r="M15">
+        <v>1.095390925590735</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>2.921028308052485</v>
+        <v>2.876416140019671</v>
       </c>
       <c r="C16">
-        <v>2.319768238611346</v>
+        <v>2.297881735157034</v>
       </c>
       <c r="D16">
-        <v>0.3285047887150796</v>
+        <v>0.3263104841795581</v>
       </c>
       <c r="E16">
-        <v>0.04078724579640003</v>
+        <v>0.03975822379387139</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>0</v>
+        <v>0.0007373315766081101</v>
       </c>
       <c r="H16">
-        <v>14.73176157075997</v>
+        <v>0</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>14.71003060374036</v>
       </c>
       <c r="J16">
-        <v>1.183946751018013</v>
+        <v>0</v>
       </c>
       <c r="K16">
-        <v>0.3576916480869841</v>
+        <v>1.168405372945045</v>
       </c>
       <c r="L16">
-        <v>1.016623910626933</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12">
+        <v>0.3558154602716144</v>
+      </c>
+      <c r="M16">
+        <v>1.007920796122605</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>2.757785181664246</v>
+        <v>2.716123544088362</v>
       </c>
       <c r="C17">
-        <v>2.202958507853282</v>
+        <v>2.182709064747542</v>
       </c>
       <c r="D17">
-        <v>0.3119198343091796</v>
+        <v>0.3098663966174229</v>
       </c>
       <c r="E17">
-        <v>0.03914568689507725</v>
+        <v>0.03811961210768544</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>0</v>
+        <v>0.000744073087849922</v>
       </c>
       <c r="H17">
-        <v>14.05976932420256</v>
+        <v>0</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>14.04295322961877</v>
       </c>
       <c r="J17">
-        <v>1.120823826134909</v>
+        <v>0</v>
       </c>
       <c r="K17">
-        <v>0.3405414372275786</v>
+        <v>1.106340684406533</v>
       </c>
       <c r="L17">
-        <v>0.9641440182598018</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12">
+        <v>0.3387985513000942</v>
+      </c>
+      <c r="M17">
+        <v>0.9560952295448786</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>2.666190995246154</v>
+        <v>2.626183655202624</v>
       </c>
       <c r="C18">
-        <v>2.136959928424972</v>
+        <v>2.117628877326126</v>
       </c>
       <c r="D18">
-        <v>0.3025483009437409</v>
+        <v>0.3005728331772275</v>
       </c>
       <c r="E18">
-        <v>0.03821616936530425</v>
+        <v>0.03719147285817215</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>0</v>
+        <v>0.0007479288066078401</v>
       </c>
       <c r="H18">
-        <v>13.67930929088797</v>
+        <v>0</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>13.66521124682097</v>
       </c>
       <c r="J18">
-        <v>1.085298367945882</v>
+        <v>0</v>
       </c>
       <c r="K18">
-        <v>0.3308383817767719</v>
+        <v>1.071409074218977</v>
       </c>
       <c r="L18">
-        <v>0.9345671719816977</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12">
+        <v>0.3291694606906503</v>
+      </c>
+      <c r="M18">
+        <v>0.926884068519243</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>2.635547497979928</v>
+        <v>2.596093645742201</v>
       </c>
       <c r="C19">
-        <v>2.114804364143026</v>
+        <v>2.095780653959935</v>
       </c>
       <c r="D19">
-        <v>0.2994021747593791</v>
+        <v>0.2974526271258782</v>
       </c>
       <c r="E19">
-        <v>0.03790381300833978</v>
+        <v>0.03687953235366059</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>0</v>
+        <v>0.0007492310642294403</v>
       </c>
       <c r="H19">
-        <v>13.55146260838842</v>
+        <v>0</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>13.53826774625645</v>
       </c>
       <c r="J19">
-        <v>1.07339535051085</v>
+        <v>0</v>
       </c>
       <c r="K19">
-        <v>0.3275790278098043</v>
+        <v>1.059704824192451</v>
       </c>
       <c r="L19">
-        <v>0.924650647691017</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12">
+        <v>0.3259347252213374</v>
+      </c>
+      <c r="M19">
+        <v>0.9170896983200976</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>2.774918389869867</v>
+        <v>2.732947266006931</v>
       </c>
       <c r="C20">
-        <v>2.215266934813826</v>
+        <v>2.194845717052658</v>
       </c>
       <c r="D20">
-        <v>0.3136675155773503</v>
+        <v>0.3115994094562211</v>
       </c>
       <c r="E20">
-        <v>0.03931887798366951</v>
+        <v>0.03829252314533882</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>0</v>
+        <v>0.0007433578287290669</v>
       </c>
       <c r="H20">
-        <v>14.13066089657815</v>
+        <v>0</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>14.11333326294084</v>
       </c>
       <c r="J20">
-        <v>1.127460356683017</v>
+        <v>0</v>
       </c>
       <c r="K20">
-        <v>0.342349982840453</v>
+        <v>1.112866158401417</v>
       </c>
       <c r="L20">
-        <v>0.969665996201698</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12">
+        <v>0.3405931967307865</v>
+      </c>
+      <c r="M20">
+        <v>0.9615486993303293</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>3.272824902151513</v>
+        <v>3.221823047202747</v>
       </c>
       <c r="C21">
-        <v>2.568111566800042</v>
+        <v>2.542685423441526</v>
       </c>
       <c r="D21">
-        <v>0.3637569361406605</v>
+        <v>0.36125009586803</v>
       </c>
       <c r="E21">
-        <v>0.04426138629083454</v>
+        <v>0.04322396273588147</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>0</v>
+        <v>0.0007233204015478859</v>
       </c>
       <c r="H21">
-        <v>16.15468801214598</v>
+        <v>0</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>16.12203646371916</v>
       </c>
       <c r="J21">
-        <v>1.319181973742701</v>
+        <v>0</v>
       </c>
       <c r="K21">
-        <v>0.3940514814841407</v>
+        <v>1.301353186134364</v>
       </c>
       <c r="L21">
-        <v>1.12873936309019</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12">
+        <v>0.3918809464011588</v>
+      </c>
+      <c r="M21">
+        <v>1.118610565387129</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>3.625897288739964</v>
+        <v>3.568400253519371</v>
       </c>
       <c r="C22">
-        <v>2.812982798740336</v>
+        <v>2.783968876900644</v>
       </c>
       <c r="D22">
-        <v>0.3985020772233128</v>
+        <v>0.3956678980632091</v>
       </c>
       <c r="E22">
-        <v>0.04766457207329466</v>
+        <v>0.04661601749232602</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>0</v>
+        <v>0.0007098872238008391</v>
       </c>
       <c r="H22">
-        <v>17.55013777876343</v>
+        <v>0</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>17.50603059757685</v>
       </c>
       <c r="J22">
-        <v>1.453877969612392</v>
+        <v>0</v>
       </c>
       <c r="K22">
-        <v>0.4297585489761033</v>
+        <v>1.433730453106108</v>
       </c>
       <c r="L22">
-        <v>1.239972733746491</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12">
+        <v>0.4272816007688078</v>
+      </c>
+      <c r="M22">
+        <v>1.228383634188368</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>3.434511259926126</v>
+        <v>3.380548021479399</v>
       </c>
       <c r="C23">
-        <v>2.680773359682917</v>
+        <v>2.653709973055641</v>
       </c>
       <c r="D23">
-        <v>0.3797446534919118</v>
+        <v>0.3770897149348826</v>
       </c>
       <c r="E23">
-        <v>0.04582998822353801</v>
+        <v>0.04478779676961153</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>0</v>
+        <v>0.000717095831760832</v>
       </c>
       <c r="H23">
-        <v>16.79764635488993</v>
+        <v>0</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>16.75981377117682</v>
       </c>
       <c r="J23">
-        <v>1.380988455039258</v>
+        <v>0</v>
       </c>
       <c r="K23">
-        <v>0.4104981872653468</v>
+        <v>1.36210164688859</v>
       </c>
       <c r="L23">
-        <v>1.179833997622552</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12">
+        <v>0.4081887970768818</v>
+      </c>
+      <c r="M23">
+        <v>1.169040706715265</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>2.767165509436325</v>
+        <v>2.725334433130627</v>
       </c>
       <c r="C24">
-        <v>2.209698728309149</v>
+        <v>2.189355239758925</v>
       </c>
       <c r="D24">
-        <v>0.3128768851293984</v>
+        <v>0.3108154198727107</v>
       </c>
       <c r="E24">
-        <v>0.03924053437303066</v>
+        <v>0.03821430712002716</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>0</v>
+        <v>0.0007436812585827528</v>
       </c>
       <c r="H24">
-        <v>14.09859269759869</v>
+        <v>0</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>14.08149666135475</v>
       </c>
       <c r="J24">
-        <v>1.124457623418493</v>
+        <v>0</v>
       </c>
       <c r="K24">
-        <v>0.3415318556857088</v>
+        <v>1.109913678419545</v>
       </c>
       <c r="L24">
-        <v>0.9671676765605852</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12">
+        <v>0.3397813620584387</v>
+      </c>
+      <c r="M24">
+        <v>0.959081384435251</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>2.133226867958655</v>
+        <v>2.102887857148716</v>
       </c>
       <c r="C25">
-        <v>1.745910569216335</v>
+        <v>1.731950346163444</v>
       </c>
       <c r="D25">
-        <v>0.2470124559969378</v>
+        <v>0.2454769651306918</v>
       </c>
       <c r="E25">
-        <v>0.03268083785335563</v>
+        <v>0.03165991580025462</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>0</v>
+        <v>0.0007715651842631411</v>
       </c>
       <c r="H25">
-        <v>11.41312417353734</v>
+        <v>0</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>11.41432481801709</v>
       </c>
       <c r="J25">
-        <v>0.8769325804735928</v>
+        <v>0</v>
       </c>
       <c r="K25">
-        <v>0.2731663022781703</v>
+        <v>0.8665206110684096</v>
       </c>
       <c r="L25">
-        <v>0.7604991709287674</v>
+        <v>0.2719174590360467</v>
+      </c>
+      <c r="M25">
+        <v>0.7549347599031861</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_27/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_4_27/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M25"/>
+  <dimension ref="A1:O25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:15">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -409,989 +409,1139 @@
       <c r="M1" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" s="1">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.691429393381014</v>
+        <v>3.053019936958492</v>
       </c>
       <c r="C2">
-        <v>1.41921292993851</v>
+        <v>0.762925505583496</v>
       </c>
       <c r="D2">
-        <v>0.2007803175544325</v>
+        <v>0.2032176503108758</v>
       </c>
       <c r="E2">
-        <v>0.02713854355236656</v>
+        <v>0.1592508833772541</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>0.0007919506320501798</v>
+        <v>0.0007827526563051751</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>9.572403444133982</v>
+        <v>0</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>0.7032013698460702</v>
+        <v>0.860149111585983</v>
       </c>
       <c r="L2">
-        <v>0.2252772554759872</v>
+        <v>0</v>
       </c>
       <c r="M2">
-        <v>0.6171224141902201</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
+        <v>1.083593578223926</v>
+      </c>
+      <c r="N2">
+        <v>1.539953298748571</v>
+      </c>
+      <c r="O2">
+        <v>2.106232268468744</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.432690205821018</v>
+        <v>2.629569596260069</v>
       </c>
       <c r="C3">
-        <v>1.217474362969313</v>
+        <v>0.6545379930587956</v>
       </c>
       <c r="D3">
-        <v>0.1719405250655655</v>
+        <v>0.174899785691494</v>
       </c>
       <c r="E3">
-        <v>0.0242071916521347</v>
+        <v>0.1372515633802252</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>0.0008058691525602024</v>
+        <v>0.0007924885040407222</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>8.375119244992248</v>
+        <v>0</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0.5993169191280714</v>
+        <v>0.7398152124580122</v>
       </c>
       <c r="L3">
-        <v>0.1951021189971698</v>
+        <v>0</v>
       </c>
       <c r="M3">
-        <v>0.5291180512281528</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
+        <v>0.9321644607909434</v>
+      </c>
+      <c r="N3">
+        <v>1.515118531772998</v>
+      </c>
+      <c r="O3">
+        <v>1.887030735466411</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.281415629130549</v>
+        <v>2.374999684728948</v>
       </c>
       <c r="C4">
-        <v>1.097404506857799</v>
+        <v>0.5893721742816354</v>
       </c>
       <c r="D4">
-        <v>0.1547738484285617</v>
+        <v>0.1578861248353576</v>
       </c>
       <c r="E4">
-        <v>0.0224579135322891</v>
+        <v>0.1241145258344432</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>0.0008145162670328588</v>
+        <v>0.0007985984962264842</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>7.658625014426462</v>
+        <v>0</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0.5380872924871767</v>
+        <v>0.6674693358222257</v>
       </c>
       <c r="L4">
-        <v>0.1771144233822781</v>
+        <v>0</v>
       </c>
       <c r="M4">
-        <v>0.4771236675849693</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
+        <v>0.8412878211509565</v>
+      </c>
+      <c r="N4">
+        <v>1.502403319172473</v>
+      </c>
+      <c r="O4">
+        <v>1.757314021261223</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.221386744321961</v>
+        <v>2.272428557634953</v>
       </c>
       <c r="C5">
-        <v>1.04927413859366</v>
+        <v>0.5631103630620089</v>
       </c>
       <c r="D5">
-        <v>0.1478922238573261</v>
+        <v>0.1510332742065401</v>
       </c>
       <c r="E5">
-        <v>0.02175588876739809</v>
+        <v>0.118841089363535</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>0.0008180718195534613</v>
+        <v>0.0008011241328099966</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>7.370508678915797</v>
+        <v>0</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0.5136780355447996</v>
+        <v>0.6383178094816202</v>
       </c>
       <c r="L5">
-        <v>0.1698988694749985</v>
+        <v>0</v>
       </c>
       <c r="M5">
-        <v>0.4563705296462857</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>0.8047063938508074</v>
+      </c>
+      <c r="N5">
+        <v>1.497803007260075</v>
+      </c>
+      <c r="O5">
+        <v>1.705535675184805</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.211508866543511</v>
+        <v>2.25546185412901</v>
       </c>
       <c r="C6">
-        <v>1.041326224772547</v>
+        <v>0.5587658682455867</v>
       </c>
       <c r="D6">
-        <v>0.1467558259251689</v>
+        <v>0.149899844273591</v>
       </c>
       <c r="E6">
-        <v>0.02163992067414711</v>
+        <v>0.1179699117667923</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>0.0008186643064684736</v>
+        <v>0.0008015457426471752</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>7.322878223158853</v>
+        <v>0</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0.5096549796677721</v>
+        <v>0.6334955888705736</v>
       </c>
       <c r="L6">
-        <v>0.1687070850068544</v>
+        <v>0</v>
       </c>
       <c r="M6">
-        <v>0.4529486757641052</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>0.798657245292425</v>
+      </c>
+      <c r="N6">
+        <v>1.497072708025101</v>
+      </c>
+      <c r="O6">
+        <v>1.696999364807368</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.280599869017891</v>
+        <v>2.37361189137556</v>
       </c>
       <c r="C7">
-        <v>1.096752359362995</v>
+        <v>0.5890168766148918</v>
       </c>
       <c r="D7">
-        <v>0.154680606190027</v>
+        <v>0.1577933965520657</v>
       </c>
       <c r="E7">
-        <v>0.0224484043028248</v>
+        <v>0.1240430989050409</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>0.0008145640818074554</v>
+        <v>0.0007986324097747468</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>7.654724758763706</v>
+        <v>0</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0.5377560274118736</v>
+        <v>0.6670749233630389</v>
       </c>
       <c r="L7">
-        <v>0.1770166739749826</v>
+        <v>0</v>
       </c>
       <c r="M7">
-        <v>0.4768421177493352</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>0.8407927389788128</v>
+      </c>
+      <c r="N7">
+        <v>1.502338994038041</v>
+      </c>
+      <c r="O7">
+        <v>1.756611517403329</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.600450417591816</v>
+        <v>2.905761962772658</v>
       </c>
       <c r="C8">
-        <v>1.348764020466319</v>
+        <v>0.7252315676871035</v>
       </c>
       <c r="D8">
-        <v>0.1907097401397237</v>
+        <v>0.193367482341003</v>
       </c>
       <c r="E8">
-        <v>0.02611608908221541</v>
+        <v>0.1515802092411249</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>0.0007967328713150665</v>
+        <v>0.0007860837566816653</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>9.155176191156983</v>
+        <v>0</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>0.666786413687646</v>
+        <v>0.8183021500926912</v>
       </c>
       <c r="L8">
-        <v>0.2147471025468448</v>
+        <v>0</v>
       </c>
       <c r="M8">
-        <v>0.5863043385907503</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>1.03089582639025</v>
+      </c>
+      <c r="N8">
+        <v>1.530829028761275</v>
+      </c>
+      <c r="O8">
+        <v>2.02954903151732</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>2.303851225571009</v>
+        <v>4.002506170077709</v>
       </c>
       <c r="C9">
-        <v>1.881543319260629</v>
+        <v>1.006130758046112</v>
       </c>
       <c r="D9">
-        <v>0.2668507947872172</v>
+        <v>0.2667880989755673</v>
       </c>
       <c r="E9">
-        <v>0.03381159273664736</v>
+        <v>0.2091997393796206</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>0.0007622252082520608</v>
+        <v>0.0007623951181997741</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>12.2899384230314</v>
+        <v>0</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>0.9455513166244884</v>
+        <v>1.13000603274817</v>
       </c>
       <c r="L9">
-        <v>0.294160762963088</v>
+        <v>0</v>
       </c>
       <c r="M9">
-        <v>0.8213841092355167</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>1.424308962446361</v>
+      </c>
+      <c r="N9">
+        <v>1.609656743961452</v>
+      </c>
+      <c r="O9">
+        <v>2.610793641446975</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>2.895032846982986</v>
+        <v>4.857031152631237</v>
       </c>
       <c r="C10">
-        <v>2.311192041700224</v>
+        <v>1.225443601131417</v>
       </c>
       <c r="D10">
-        <v>0.328210660917847</v>
+        <v>0.3240808517839042</v>
       </c>
       <c r="E10">
-        <v>0.03994726741043131</v>
+        <v>0.2548402855733869</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>0.0007365589436370001</v>
+        <v>0.0007453441072383787</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>14.78700821745593</v>
+        <v>0</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>1.175598184766244</v>
+        <v>1.372984905440902</v>
       </c>
       <c r="L10">
-        <v>0.3577800858359197</v>
+        <v>0</v>
       </c>
       <c r="M10">
-        <v>1.013920736234333</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>1.73230579674933</v>
+      </c>
+      <c r="N10">
+        <v>1.686179727090575</v>
+      </c>
+      <c r="O10">
+        <v>3.077737357373309</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>3.18869204591789</v>
+        <v>5.260766498161104</v>
       </c>
       <c r="C11">
-        <v>2.519396888948165</v>
+        <v>1.329256479434036</v>
       </c>
       <c r="D11">
-        <v>0.3579270479583556</v>
+        <v>0.3511737366839611</v>
       </c>
       <c r="E11">
-        <v>0.04289529260047509</v>
+        <v>0.2766216103076857</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.0007246359156680392</v>
+        <v>0.0007376081941745105</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>15.9880511885226</v>
+        <v>0</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>1.288646236963459</v>
+        <v>1.487836658550606</v>
       </c>
       <c r="L11">
-        <v>0.3884562799633784</v>
+        <v>0</v>
       </c>
       <c r="M11">
-        <v>1.108050189221338</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>1.878268441838955</v>
+      </c>
+      <c r="N11">
+        <v>1.726283807846016</v>
+      </c>
+      <c r="O11">
+        <v>3.302033515472075</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>3.304422115141108</v>
+        <v>5.416251696444135</v>
       </c>
       <c r="C12">
-        <v>2.600573623227717</v>
+        <v>1.369274394902902</v>
       </c>
       <c r="D12">
-        <v>0.3695093984286189</v>
+        <v>0.361611480328321</v>
       </c>
       <c r="E12">
-        <v>0.04403997840487683</v>
+        <v>0.2850466587542329</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.0007200653726306688</v>
+        <v>0.000734676211040225</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>16.4547748172028</v>
+        <v>0</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>1.332992438394285</v>
+        <v>1.532078220699717</v>
       </c>
       <c r="L12">
-        <v>0.4003877470331716</v>
+        <v>0</v>
       </c>
       <c r="M12">
-        <v>1.14488738254262</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>1.934557177435323</v>
+      </c>
+      <c r="N12">
+        <v>1.74235815042411</v>
+      </c>
+      <c r="O12">
+        <v>3.389000700038906</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>3.279277653321287</v>
+        <v>5.38264171452289</v>
       </c>
       <c r="C13">
-        <v>2.58297745427177</v>
+        <v>1.360622190326694</v>
       </c>
       <c r="D13">
-        <v>0.3669989529392694</v>
+        <v>0.359355062035462</v>
       </c>
       <c r="E13">
-        <v>0.04379208078597863</v>
+        <v>0.2832237617423345</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.0007210525707952253</v>
+        <v>0.0007353078783015474</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>16.353679400212</v>
+        <v>0</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>1.323367032900379</v>
+        <v>1.522514375681482</v>
       </c>
       <c r="L13">
-        <v>0.3978028416493444</v>
+        <v>0</v>
       </c>
       <c r="M13">
-        <v>1.136896021970223</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>1.922386105669503</v>
+      </c>
+      <c r="N13">
+        <v>1.738854510359062</v>
+      </c>
+      <c r="O13">
+        <v>3.37017467984424</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>3.19811590985546</v>
+        <v>5.27350346234681</v>
       </c>
       <c r="C14">
-        <v>2.526025200758852</v>
+        <v>1.332533831728426</v>
       </c>
       <c r="D14">
-        <v>0.3588728618506707</v>
+        <v>0.3520286926331408</v>
       </c>
       <c r="E14">
-        <v>0.04298886010054481</v>
+        <v>0.2773110045432574</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>0.0007242611419995271</v>
+        <v>0.0007373670645334292</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>16.02619292340995</v>
+        <v>0</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>1.292261586863901</v>
+        <v>1.491460596785359</v>
       </c>
       <c r="L14">
-        <v>0.3894311353847471</v>
+        <v>0</v>
       </c>
       <c r="M14">
-        <v>1.11105521465074</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>1.882877883566863</v>
+      </c>
+      <c r="N14">
+        <v>1.727587655805166</v>
+      </c>
+      <c r="O14">
+        <v>3.309145602285881</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>3.149025247022507</v>
+        <v>5.20700604352885</v>
       </c>
       <c r="C15">
-        <v>2.491461486909429</v>
+        <v>1.315424941231015</v>
       </c>
       <c r="D15">
-        <v>0.3539407040682363</v>
+        <v>0.3475652756309131</v>
       </c>
       <c r="E15">
-        <v>0.04250075172977752</v>
+        <v>0.2737133063946331</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>0.0007262185624775846</v>
+        <v>0.0007386278618512465</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>15.82723715279798</v>
+        <v>0</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>1.273420198353975</v>
+        <v>1.472541089883748</v>
       </c>
       <c r="L15">
-        <v>0.3843465001642699</v>
+        <v>0</v>
       </c>
       <c r="M15">
-        <v>1.095390925590735</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>1.858815940047378</v>
+      </c>
+      <c r="N15">
+        <v>1.720806136411511</v>
+      </c>
+      <c r="O15">
+        <v>3.272038571232869</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>2.876416140019671</v>
+        <v>4.830984135035408</v>
       </c>
       <c r="C16">
-        <v>2.297881735157034</v>
+        <v>1.218750752672577</v>
       </c>
       <c r="D16">
-        <v>0.3263104841795581</v>
+        <v>0.3223334587373046</v>
       </c>
       <c r="E16">
-        <v>0.03975822379387139</v>
+        <v>0.2534398099879525</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>0.0007373315766081101</v>
+        <v>0.0007458496310556709</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>14.71003060374036</v>
+        <v>0</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>1.168405372945045</v>
+        <v>1.365576488538977</v>
       </c>
       <c r="L16">
-        <v>0.3558154602716144</v>
+        <v>0</v>
       </c>
       <c r="M16">
-        <v>1.007920796122605</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>1.722898791156425</v>
+      </c>
+      <c r="N16">
+        <v>1.68367568062277</v>
+      </c>
+      <c r="O16">
+        <v>3.063344492854881</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>2.716123544088362</v>
+        <v>4.604441983514619</v>
       </c>
       <c r="C17">
-        <v>2.182709064747542</v>
+        <v>1.160562545866242</v>
       </c>
       <c r="D17">
-        <v>0.3098663966174229</v>
+        <v>0.3071382993219629</v>
       </c>
       <c r="E17">
-        <v>0.03811961210768544</v>
+        <v>0.2412837071903411</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>0.000744073087849922</v>
+        <v>0.0007502815921651695</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>14.04295322961877</v>
+        <v>0</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>1.106340684406533</v>
+        <v>1.301148294505481</v>
       </c>
       <c r="L17">
-        <v>0.3387985513000942</v>
+        <v>0</v>
       </c>
       <c r="M17">
-        <v>0.9560952295448786</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>1.641132000373048</v>
+      </c>
+      <c r="N17">
+        <v>1.662336574142302</v>
+      </c>
+      <c r="O17">
+        <v>2.938573269598336</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>2.626183655202624</v>
+        <v>4.475523139152926</v>
       </c>
       <c r="C18">
-        <v>2.117628877326126</v>
+        <v>1.127466499081436</v>
       </c>
       <c r="D18">
-        <v>0.3005728331772275</v>
+        <v>0.2984933347176479</v>
       </c>
       <c r="E18">
-        <v>0.03719147285817215</v>
+        <v>0.2343856705338823</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>0.0007479288066078401</v>
+        <v>0.0007528330654327231</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>13.66521124682097</v>
+        <v>0</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>1.071409074218977</v>
+        <v>1.264488608759422</v>
       </c>
       <c r="L18">
-        <v>0.3291694606906503</v>
+        <v>0</v>
       </c>
       <c r="M18">
-        <v>0.926884068519243</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>1.594640835614825</v>
+      </c>
+      <c r="N18">
+        <v>1.650552388705137</v>
+      </c>
+      <c r="O18">
+        <v>2.867904236141939</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>2.596093645742201</v>
+        <v>4.432098564397847</v>
       </c>
       <c r="C19">
-        <v>2.095780653959935</v>
+        <v>1.116321237398608</v>
       </c>
       <c r="D19">
-        <v>0.2974526271258782</v>
+        <v>0.2955817573167394</v>
       </c>
       <c r="E19">
-        <v>0.03687953235366059</v>
+        <v>0.232065388707241</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>0.0007492310642294403</v>
+        <v>0.0007536975040534077</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>13.53826774625645</v>
+        <v>0</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>1.059704824192451</v>
+        <v>1.252141005216941</v>
       </c>
       <c r="L19">
-        <v>0.3259347252213374</v>
+        <v>0</v>
       </c>
       <c r="M19">
-        <v>0.9170896983200976</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>1.578987455878178</v>
+      </c>
+      <c r="N19">
+        <v>1.64664302588848</v>
+      </c>
+      <c r="O19">
+        <v>2.844156209220756</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>2.732947266006931</v>
+        <v>4.628411767306204</v>
       </c>
       <c r="C20">
-        <v>2.194845717052658</v>
+        <v>1.166717418550832</v>
       </c>
       <c r="D20">
-        <v>0.3115994094562211</v>
+        <v>0.3087458269462644</v>
       </c>
       <c r="E20">
-        <v>0.03829252314533882</v>
+        <v>0.242567830639949</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>0.0007433578287290669</v>
+        <v>0.0007498095986762642</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>14.11333326294084</v>
+        <v>0</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>1.112866158401417</v>
+        <v>1.307964762294205</v>
       </c>
       <c r="L20">
-        <v>0.3405931967307865</v>
+        <v>0</v>
       </c>
       <c r="M20">
-        <v>0.9615486993303293</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>1.649779270488537</v>
+      </c>
+      <c r="N20">
+        <v>1.664556648134408</v>
+      </c>
+      <c r="O20">
+        <v>2.951739776404921</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>3.221823047202747</v>
+        <v>5.305485567812184</v>
       </c>
       <c r="C21">
-        <v>2.542685423441526</v>
+        <v>1.340763794728787</v>
       </c>
       <c r="D21">
-        <v>0.36125009586803</v>
+        <v>0.3541755213160798</v>
       </c>
       <c r="E21">
-        <v>0.04322396273588147</v>
+        <v>0.2790426533646411</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>0.0007233204015478859</v>
+        <v>0.0007367623500358072</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>16.12203646371916</v>
+        <v>0</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>1.301353186134364</v>
+        <v>1.500560361318705</v>
       </c>
       <c r="L21">
-        <v>0.3918809464011588</v>
+        <v>0</v>
       </c>
       <c r="M21">
-        <v>1.118610565387129</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>1.894453295254408</v>
+      </c>
+      <c r="N21">
+        <v>1.730871789107539</v>
+      </c>
+      <c r="O21">
+        <v>3.327013346003127</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>3.568400253519371</v>
+        <v>5.763407134661691</v>
       </c>
       <c r="C22">
-        <v>2.783968876900644</v>
+        <v>1.458704406396805</v>
       </c>
       <c r="D22">
-        <v>0.3956678980632091</v>
+        <v>0.3849234008459916</v>
       </c>
       <c r="E22">
-        <v>0.04661601749232602</v>
+        <v>0.3039306720652917</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>0.0007098872238008391</v>
+        <v>0.0007282169967333425</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>17.50603059757685</v>
+        <v>0</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>1.433730453106108</v>
+        <v>1.630879427544457</v>
       </c>
       <c r="L22">
-        <v>0.4272816007688078</v>
+        <v>0</v>
       </c>
       <c r="M22">
-        <v>1.228383634188368</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>2.060387474844276</v>
+      </c>
+      <c r="N22">
+        <v>1.77946325036811</v>
+      </c>
+      <c r="O22">
+        <v>3.584308156176633</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>3.380548021479399</v>
+        <v>5.517428634839177</v>
       </c>
       <c r="C23">
-        <v>2.653709973055641</v>
+        <v>1.395326619636762</v>
       </c>
       <c r="D23">
-        <v>0.3770897149348826</v>
+        <v>0.3684046069361102</v>
       </c>
       <c r="E23">
-        <v>0.04478779676961153</v>
+        <v>0.2905398944152324</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>0.000717095831760832</v>
+        <v>0.0007327815673388027</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>16.75981377117682</v>
+        <v>0</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>1.36210164688859</v>
+        <v>1.560870201139934</v>
       </c>
       <c r="L23">
-        <v>0.4081887970768818</v>
+        <v>0</v>
       </c>
       <c r="M23">
-        <v>1.169040706715265</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>1.971208008720538</v>
+      </c>
+      <c r="N23">
+        <v>1.753000696058621</v>
+      </c>
+      <c r="O23">
+        <v>3.445762150395609</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>2.725334433130627</v>
+        <v>4.617570938689937</v>
       </c>
       <c r="C24">
-        <v>2.189355239758925</v>
+        <v>1.163933697315542</v>
       </c>
       <c r="D24">
-        <v>0.3108154198727107</v>
+        <v>0.3080187826665934</v>
       </c>
       <c r="E24">
-        <v>0.03821430712002716</v>
+        <v>0.2419869982309848</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>0.0007436812585827528</v>
+        <v>0.0007500229756719095</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>14.08149666135475</v>
+        <v>0</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>1.109913678419545</v>
+        <v>1.30488186006022</v>
       </c>
       <c r="L24">
-        <v>0.3397813620584387</v>
+        <v>0</v>
       </c>
       <c r="M24">
-        <v>0.959081384435251</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>1.6458682400214</v>
+      </c>
+      <c r="N24">
+        <v>1.663551454568733</v>
+      </c>
+      <c r="O24">
+        <v>2.945783909397605</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>2.102887857148716</v>
+        <v>3.698567208374357</v>
       </c>
       <c r="C25">
-        <v>1.731950346163444</v>
+        <v>0.9282363854487983</v>
       </c>
       <c r="D25">
-        <v>0.2454769651306918</v>
+        <v>0.2464279132510399</v>
       </c>
       <c r="E25">
-        <v>0.03165991580025462</v>
+        <v>0.1931207737055942</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>0.0007715651842631411</v>
+        <v>0.0007687248093957898</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>11.41432481801709</v>
+        <v>0</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>0.8665206110684096</v>
+        <v>1.043612033956563</v>
       </c>
       <c r="L25">
-        <v>0.2719174590360467</v>
+        <v>0</v>
       </c>
       <c r="M25">
-        <v>0.7549347599031861</v>
+        <v>1.315068889827174</v>
+      </c>
+      <c r="N25">
+        <v>1.585438015051977</v>
+      </c>
+      <c r="O25">
+        <v>2.447503968634692</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_27/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_4_27/res_line/pl_mw.xlsx
@@ -421,46 +421,46 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>3.053019936958492</v>
+        <v>2.759775232429718</v>
       </c>
       <c r="C2">
-        <v>0.762925505583496</v>
+        <v>0.8622321681622793</v>
       </c>
       <c r="D2">
-        <v>0.2032176503108758</v>
+        <v>0.5618942303244125</v>
       </c>
       <c r="E2">
-        <v>0.1592508833772541</v>
+        <v>0.2514268105190851</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>0.0007827526563051751</v>
+        <v>0.0007900674912153077</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>0.3216528643728722</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>0.1493771302034048</v>
       </c>
       <c r="K2">
-        <v>0.860149111585983</v>
+        <v>0</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>1.083593578223926</v>
+        <v>0</v>
       </c>
       <c r="N2">
-        <v>1.539953298748571</v>
+        <v>0.6520081621997136</v>
       </c>
       <c r="O2">
-        <v>2.106232268468744</v>
+        <v>2.651129072282174</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,46 +468,46 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.629569596260069</v>
+        <v>2.395745739870165</v>
       </c>
       <c r="C3">
-        <v>0.6545379930587956</v>
+        <v>0.7477387453596691</v>
       </c>
       <c r="D3">
-        <v>0.174899785691494</v>
+        <v>0.5052143398336568</v>
       </c>
       <c r="E3">
-        <v>0.1372515633802252</v>
+        <v>0.2247760205156695</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>0.0007924885040407222</v>
+        <v>0.000795535535255613</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>0.3145106548295793</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>0.1325728360576477</v>
       </c>
       <c r="K3">
-        <v>0.7398152124580122</v>
+        <v>0</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0.9321644607909434</v>
+        <v>0</v>
       </c>
       <c r="N3">
-        <v>1.515118531772998</v>
+        <v>0.677348116461161</v>
       </c>
       <c r="O3">
-        <v>1.887030735466411</v>
+        <v>2.457952672874654</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,46 +515,46 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.374999684728948</v>
+        <v>2.173242810364741</v>
       </c>
       <c r="C4">
-        <v>0.5893721742816354</v>
+        <v>0.6778313315478783</v>
       </c>
       <c r="D4">
-        <v>0.1578861248353576</v>
+        <v>0.471204442182966</v>
       </c>
       <c r="E4">
-        <v>0.1241145258344432</v>
+        <v>0.208776055156612</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>0.0007985984962264842</v>
+        <v>0.0007989965665375752</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>0.3111495414862979</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>0.1224779831583191</v>
       </c>
       <c r="K4">
-        <v>0.6674693358222257</v>
+        <v>0</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0.8412878211509565</v>
+        <v>0</v>
       </c>
       <c r="N4">
-        <v>1.502403319172473</v>
+        <v>0.6939710036806233</v>
       </c>
       <c r="O4">
-        <v>1.757314021261223</v>
+        <v>2.345770000322176</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,46 +562,46 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.272428557634953</v>
+        <v>2.082777168651148</v>
       </c>
       <c r="C5">
-        <v>0.5631103630620089</v>
+        <v>0.6494236815188685</v>
       </c>
       <c r="D5">
-        <v>0.1510332742065401</v>
+        <v>0.4575272076340866</v>
       </c>
       <c r="E5">
-        <v>0.118841089363535</v>
+        <v>0.2023391544901827</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>0.0008011241328099966</v>
+        <v>0.0008004337251297499</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>0.3100216224605035</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>0.1184149344024235</v>
       </c>
       <c r="K5">
-        <v>0.6383178094816202</v>
+        <v>0</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0.8047063938508074</v>
+        <v>0</v>
       </c>
       <c r="N5">
-        <v>1.497803007260075</v>
+        <v>0.7010035103078138</v>
       </c>
       <c r="O5">
-        <v>1.705535675184805</v>
+        <v>2.301552218814862</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,46 +609,46 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.25546185412901</v>
+        <v>2.067766510878016</v>
       </c>
       <c r="C6">
-        <v>0.5587658682455867</v>
+        <v>0.6447109431982483</v>
       </c>
       <c r="D6">
-        <v>0.149899844273591</v>
+        <v>0.4552666332160413</v>
       </c>
       <c r="E6">
-        <v>0.1179699117667923</v>
+        <v>0.2012751071035765</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>0.0008015457426471752</v>
+        <v>0.000800674000235798</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>0.309848490697938</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>0.1177431783583813</v>
       </c>
       <c r="K6">
-        <v>0.6334955888705736</v>
+        <v>0</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0.798657245292425</v>
+        <v>0</v>
       </c>
       <c r="N6">
-        <v>1.497072708025101</v>
+        <v>0.7021866153229368</v>
       </c>
       <c r="O6">
-        <v>1.696999364807368</v>
+        <v>2.294297004162843</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,46 +656,46 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.37361189137556</v>
+        <v>2.172021986287177</v>
       </c>
       <c r="C7">
-        <v>0.5890168766148918</v>
+        <v>0.6774479147252634</v>
       </c>
       <c r="D7">
-        <v>0.1577933965520657</v>
+        <v>0.471019270702925</v>
       </c>
       <c r="E7">
-        <v>0.1240430989050409</v>
+        <v>0.2086889184373106</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>0.0007986324097747468</v>
+        <v>0.0007990158393084162</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>0.311133371258375</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>0.1224229891182489</v>
       </c>
       <c r="K7">
-        <v>0.6670749233630389</v>
+        <v>0</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0.8407927389788128</v>
+        <v>0</v>
       </c>
       <c r="N7">
-        <v>1.502338994038041</v>
+        <v>0.6940648111815548</v>
       </c>
       <c r="O7">
-        <v>1.756611517403329</v>
+        <v>2.345167751976021</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,46 +703,46 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.905761962772658</v>
+        <v>2.634017318804069</v>
       </c>
       <c r="C8">
-        <v>0.7252315676871035</v>
+        <v>0.8226619641211528</v>
       </c>
       <c r="D8">
-        <v>0.193367482341003</v>
+        <v>0.5421760558833455</v>
       </c>
       <c r="E8">
-        <v>0.1515802092411249</v>
+        <v>0.2421569841341764</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>0.0007860837566816653</v>
+        <v>0.000791931799930207</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>0.3189678400730287</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>0.1435333454021048</v>
       </c>
       <c r="K8">
-        <v>0.8183021500926912</v>
+        <v>0</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>1.03089582639025</v>
+        <v>0</v>
       </c>
       <c r="N8">
-        <v>1.530829028761275</v>
+        <v>0.6605189289028885</v>
       </c>
       <c r="O8">
-        <v>2.02954903151732</v>
+        <v>2.583113631185654</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,46 +750,46 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>4.002506170077709</v>
+        <v>3.550434300768529</v>
       </c>
       <c r="C9">
-        <v>1.006130758046112</v>
+        <v>1.111449606366307</v>
       </c>
       <c r="D9">
-        <v>0.2667880989755673</v>
+        <v>0.6888309061549194</v>
       </c>
       <c r="E9">
-        <v>0.2091997393796206</v>
+        <v>0.3110780259680581</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>0.0007623951181997741</v>
+        <v>0.000778828236159379</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>0.3432230152443267</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>0.1869655031610904</v>
       </c>
       <c r="K9">
-        <v>1.13000603274817</v>
+        <v>0</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>1.424308962446361</v>
+        <v>0</v>
       </c>
       <c r="N9">
-        <v>1.609656743961452</v>
+        <v>0.6036137391556338</v>
       </c>
       <c r="O9">
-        <v>2.610793641446975</v>
+        <v>3.106521676262844</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,46 +797,46 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>4.857031152631237</v>
+        <v>4.233804005591765</v>
       </c>
       <c r="C10">
-        <v>1.225443601131417</v>
+        <v>1.327481235495725</v>
       </c>
       <c r="D10">
-        <v>0.3240808517839042</v>
+        <v>0.8021858966691013</v>
       </c>
       <c r="E10">
-        <v>0.2548402855733869</v>
+        <v>0.3643356918030634</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>0.0007453441072383787</v>
+        <v>0.0007696303028409419</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>0.3676157468176271</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>0.2205195114996457</v>
       </c>
       <c r="K10">
-        <v>1.372984905440902</v>
+        <v>0</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>1.73230579674933</v>
+        <v>0</v>
       </c>
       <c r="N10">
-        <v>1.686179727090575</v>
+        <v>0.567869892945339</v>
       </c>
       <c r="O10">
-        <v>3.077737357373309</v>
+        <v>3.534456041581052</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,46 +844,46 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>5.260766498161104</v>
+        <v>4.547793604038191</v>
       </c>
       <c r="C11">
-        <v>1.329256479434036</v>
+        <v>1.426947925305967</v>
       </c>
       <c r="D11">
-        <v>0.3511737366839611</v>
+        <v>0.8552848966743625</v>
       </c>
       <c r="E11">
-        <v>0.2766216103076857</v>
+        <v>0.3892853347704985</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.0007376081941745105</v>
+        <v>0.0007655266696136773</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>0.3804223421421185</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>0.2362412087760504</v>
       </c>
       <c r="K11">
-        <v>1.487836658550606</v>
+        <v>0</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>1.878268441838955</v>
+        <v>0</v>
       </c>
       <c r="N11">
-        <v>1.726283807846016</v>
+        <v>0.5530853571761867</v>
       </c>
       <c r="O11">
-        <v>3.302033515472075</v>
+        <v>3.740712647916325</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,46 +891,46 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>5.416251696444135</v>
+        <v>4.667225933323436</v>
       </c>
       <c r="C12">
-        <v>1.369274394902902</v>
+        <v>1.464817150496174</v>
       </c>
       <c r="D12">
-        <v>0.361611480328321</v>
+        <v>0.8756414242531321</v>
       </c>
       <c r="E12">
-        <v>0.2850466587542329</v>
+        <v>0.3988510386251889</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.000734676211040225</v>
+        <v>0.0007639831838049905</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>0.3855438943264744</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>0.242269689100695</v>
       </c>
       <c r="K12">
-        <v>1.532078220699717</v>
+        <v>0</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>1.934557177435323</v>
+        <v>0</v>
       </c>
       <c r="N12">
-        <v>1.74235815042411</v>
+        <v>0.5477137767260203</v>
       </c>
       <c r="O12">
-        <v>3.389000700038906</v>
+        <v>3.820682104030084</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,46 +938,46 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>5.38264171452289</v>
+        <v>4.641479014253321</v>
       </c>
       <c r="C13">
-        <v>1.360622190326694</v>
+        <v>1.456651748899333</v>
       </c>
       <c r="D13">
-        <v>0.359355062035462</v>
+        <v>0.871245717634082</v>
       </c>
       <c r="E13">
-        <v>0.2832237617423345</v>
+        <v>0.3967854165741755</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.0007353078783015474</v>
+        <v>0.0007643151542141772</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>0.3844283390599728</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>0.2409678554771517</v>
       </c>
       <c r="K13">
-        <v>1.522514375681482</v>
+        <v>0</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>1.922386105669503</v>
+        <v>0</v>
       </c>
       <c r="N13">
-        <v>1.738854510359062</v>
+        <v>0.5488602964359544</v>
       </c>
       <c r="O13">
-        <v>3.37017467984424</v>
+        <v>3.803372958351019</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,46 +985,46 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>5.27350346234681</v>
+        <v>4.557608224403168</v>
       </c>
       <c r="C14">
-        <v>1.332533831728426</v>
+        <v>1.430059179727948</v>
       </c>
       <c r="D14">
-        <v>0.3520286926331408</v>
+        <v>0.8569544743999131</v>
       </c>
       <c r="E14">
-        <v>0.2773110045432574</v>
+        <v>0.3900698650569439</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>0.0007373670645334292</v>
+        <v>0.0007653994829460386</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>0.3808380865769863</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>0.2367356161564658</v>
       </c>
       <c r="K14">
-        <v>1.491460596785359</v>
+        <v>0</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>1.882877883566863</v>
+        <v>0</v>
       </c>
       <c r="N14">
-        <v>1.727587655805166</v>
+        <v>0.5526387949211582</v>
       </c>
       <c r="O14">
-        <v>3.309145602285881</v>
+        <v>3.747253209736471</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,46 +1032,46 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>5.20700604352885</v>
+        <v>4.506306719202883</v>
       </c>
       <c r="C15">
-        <v>1.315424941231015</v>
+        <v>1.413797946129023</v>
       </c>
       <c r="D15">
-        <v>0.3475652756309131</v>
+        <v>0.8482340110521136</v>
       </c>
       <c r="E15">
-        <v>0.2737133063946331</v>
+        <v>0.385972175855045</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>0.0007386278618512465</v>
+        <v>0.0007660649946615897</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>0.3786751871997751</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>0.2341533048500395</v>
       </c>
       <c r="K15">
-        <v>1.472541089883748</v>
+        <v>0</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>1.858815940047378</v>
+        <v>0</v>
       </c>
       <c r="N15">
-        <v>1.720806136411511</v>
+        <v>0.554983259269541</v>
       </c>
       <c r="O15">
-        <v>3.272038571232869</v>
+        <v>3.713127278579464</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,46 +1079,46 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>4.830984135035408</v>
+        <v>4.213353719563031</v>
       </c>
       <c r="C16">
-        <v>1.218750752672577</v>
+        <v>1.321007502246118</v>
       </c>
       <c r="D16">
-        <v>0.3223334587373046</v>
+        <v>0.7987489877007761</v>
       </c>
       <c r="E16">
-        <v>0.2534398099879525</v>
+        <v>0.3627208712314598</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>0.0007458496310556709</v>
+        <v>0.0007699000130765015</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>0.3668153909095224</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>0.2195020380981703</v>
       </c>
       <c r="K16">
-        <v>1.365576488538977</v>
+        <v>0</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>1.722898791156425</v>
+        <v>0</v>
       </c>
       <c r="N16">
-        <v>1.68367568062277</v>
+        <v>0.5688670260173438</v>
       </c>
       <c r="O16">
-        <v>3.063344492854881</v>
+        <v>3.521226374037099</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,46 +1126,46 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>4.604441983514619</v>
+        <v>4.034492135533526</v>
       </c>
       <c r="C17">
-        <v>1.160562545866242</v>
+        <v>1.264410711365315</v>
       </c>
       <c r="D17">
-        <v>0.3071382993219629</v>
+        <v>0.768803726517632</v>
       </c>
       <c r="E17">
-        <v>0.2412837071903411</v>
+        <v>0.3486514745642992</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>0.0007502815921651695</v>
+        <v>0.0007722725436587873</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>0.359995595865648</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>0.2106374666642665</v>
       </c>
       <c r="K17">
-        <v>1.301148294505481</v>
+        <v>0</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>1.641132000373048</v>
+        <v>0</v>
       </c>
       <c r="N17">
-        <v>1.662336574142302</v>
+        <v>0.5777723262270982</v>
       </c>
       <c r="O17">
-        <v>2.938573269598336</v>
+        <v>3.406604365559133</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,46 +1173,46 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>4.475523139152926</v>
+        <v>3.931904079951323</v>
       </c>
       <c r="C18">
-        <v>1.127466499081436</v>
+        <v>1.231967918442649</v>
       </c>
       <c r="D18">
-        <v>0.2984933347176479</v>
+        <v>0.7517224512129985</v>
       </c>
       <c r="E18">
-        <v>0.2343856705338823</v>
+        <v>0.3406262205713659</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>0.0007528330654327231</v>
+        <v>0.0007736448147505045</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>0.3562323075020046</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>0.2055812896310698</v>
       </c>
       <c r="K18">
-        <v>1.264488608759422</v>
+        <v>0</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>1.594640835614825</v>
+        <v>0</v>
       </c>
       <c r="N18">
-        <v>1.650552388705137</v>
+        <v>0.5830323404345208</v>
       </c>
       <c r="O18">
-        <v>2.867904236141939</v>
+        <v>3.341754506575285</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,46 +1220,46 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>4.432098564397847</v>
+        <v>3.897216677453343</v>
       </c>
       <c r="C19">
-        <v>1.116321237398608</v>
+        <v>1.221001353288102</v>
       </c>
       <c r="D19">
-        <v>0.2955817573167394</v>
+        <v>0.7459626631654714</v>
       </c>
       <c r="E19">
-        <v>0.232065388707241</v>
+        <v>0.3379201280252886</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>0.0007536975040534077</v>
+        <v>0.0007741107890056419</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>0.3549847243056377</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>0.2038763875917198</v>
       </c>
       <c r="K19">
-        <v>1.252141005216941</v>
+        <v>0</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>1.578987455878178</v>
+        <v>0</v>
       </c>
       <c r="N19">
-        <v>1.64664302588848</v>
+        <v>0.5848365482356286</v>
       </c>
       <c r="O19">
-        <v>2.844156209220756</v>
+        <v>3.31997681450261</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,46 +1267,46 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>4.628411767306204</v>
+        <v>4.053501836945713</v>
       </c>
       <c r="C20">
-        <v>1.166717418550832</v>
+        <v>1.270423912553781</v>
       </c>
       <c r="D20">
-        <v>0.3087458269462644</v>
+        <v>0.771976509538149</v>
       </c>
       <c r="E20">
-        <v>0.242567830639949</v>
+        <v>0.3501421456680305</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>0.0007498095986762642</v>
+        <v>0.0007720191992546209</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>0.3607049091445234</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>0.2115766542625721</v>
       </c>
       <c r="K20">
-        <v>1.307964762294205</v>
+        <v>0</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>1.649779270488537</v>
+        <v>0</v>
       </c>
       <c r="N20">
-        <v>1.664556648134408</v>
+        <v>0.5768099642635605</v>
       </c>
       <c r="O20">
-        <v>2.951739776404921</v>
+        <v>3.418693160852001</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,46 +1314,46 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>5.305485567812184</v>
+        <v>4.582227991655031</v>
       </c>
       <c r="C21">
-        <v>1.340763794728787</v>
+        <v>1.437864272961633</v>
       </c>
       <c r="D21">
-        <v>0.3541755213160798</v>
+        <v>0.8611451567218467</v>
       </c>
       <c r="E21">
-        <v>0.2790426533646411</v>
+        <v>0.3920390699431522</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>0.0007367623500358072</v>
+        <v>0.0007650807144845202</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>0.3818850296271421</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>0.2379766137466675</v>
       </c>
       <c r="K21">
-        <v>1.500560361318705</v>
+        <v>0</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>1.894453295254408</v>
+        <v>0</v>
       </c>
       <c r="N21">
-        <v>1.730871789107539</v>
+        <v>0.5515226728196225</v>
       </c>
       <c r="O21">
-        <v>3.327013346003127</v>
+        <v>3.763684659978708</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,46 +1361,46 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>5.763407134661691</v>
+        <v>4.930922175570515</v>
       </c>
       <c r="C22">
-        <v>1.458704406396805</v>
+        <v>1.548498733381109</v>
       </c>
       <c r="D22">
-        <v>0.3849234008459916</v>
+        <v>0.9208892749430788</v>
       </c>
       <c r="E22">
-        <v>0.3039306720652917</v>
+        <v>0.4201153470283714</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>0.0007282169967333425</v>
+        <v>0.0007606064551135808</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>0.3973266513311629</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>0.2556727104112184</v>
       </c>
       <c r="K22">
-        <v>1.630879427544457</v>
+        <v>0</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>2.060387474844276</v>
+        <v>0</v>
       </c>
       <c r="N22">
-        <v>1.77946325036811</v>
+        <v>0.5363269670419442</v>
       </c>
       <c r="O22">
-        <v>3.584308156176633</v>
+        <v>4.000131000566114</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,46 +1408,46 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>5.517428634839177</v>
+        <v>4.744500685488163</v>
       </c>
       <c r="C23">
-        <v>1.395326619636762</v>
+        <v>1.4893296089719</v>
       </c>
       <c r="D23">
-        <v>0.3684046069361102</v>
+        <v>0.8888582542830932</v>
       </c>
       <c r="E23">
-        <v>0.2905398944152324</v>
+        <v>0.405062016035771</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>0.0007327815673388027</v>
+        <v>0.0007629893158235685</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>0.3889295748849051</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>0.2461842267968279</v>
       </c>
       <c r="K23">
-        <v>1.560870201139934</v>
+        <v>0</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>1.971208008720538</v>
+        <v>0</v>
       </c>
       <c r="N23">
-        <v>1.753000696058621</v>
+        <v>0.5443101641448393</v>
       </c>
       <c r="O23">
-        <v>3.445762150395609</v>
+        <v>3.872860281852923</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,46 +1455,46 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>4.617570938689937</v>
+        <v>4.044906803753634</v>
       </c>
       <c r="C24">
-        <v>1.163933697315542</v>
+        <v>1.267705049336371</v>
       </c>
       <c r="D24">
-        <v>0.3080187826665934</v>
+        <v>0.7705416770445481</v>
       </c>
       <c r="E24">
-        <v>0.2419869982309848</v>
+        <v>0.3494680167286219</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>0.0007500229756719095</v>
+        <v>0.0007721337104311133</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>0.3603837399643481</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>0.2111519230702754</v>
       </c>
       <c r="K24">
-        <v>1.30488186006022</v>
+        <v>0</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>1.6458682400214</v>
+        <v>0</v>
       </c>
       <c r="N24">
-        <v>1.663551454568733</v>
+        <v>0.5772446124008326</v>
       </c>
       <c r="O24">
-        <v>2.945783909397605</v>
+        <v>3.413224567405678</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,46 +1502,46 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>3.698567208374357</v>
+        <v>3.301037490364706</v>
       </c>
       <c r="C25">
-        <v>0.9282363854487983</v>
+        <v>1.032756710637869</v>
       </c>
       <c r="D25">
-        <v>0.2464279132510399</v>
+        <v>0.6482705762143723</v>
       </c>
       <c r="E25">
-        <v>0.1931207737055942</v>
+        <v>0.2920205052118163</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>0.0007687248093957898</v>
+        <v>0.0007822937697618813</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>0.3355962978575846</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>0.1749585712307393</v>
       </c>
       <c r="K25">
-        <v>1.043612033956563</v>
+        <v>0</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>1.315068889827174</v>
+        <v>0</v>
       </c>
       <c r="N25">
-        <v>1.585438015051977</v>
+        <v>0.6179935841178406</v>
       </c>
       <c r="O25">
-        <v>2.447503968634692</v>
+        <v>2.957985959031163</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_27/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_4_27/res_line/pl_mw.xlsx
@@ -421,31 +421,31 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.759775232429718</v>
+        <v>1.155304916976149</v>
       </c>
       <c r="C2">
-        <v>0.8622321681622793</v>
+        <v>0.3332793765544579</v>
       </c>
       <c r="D2">
-        <v>0.5618942303244125</v>
+        <v>0.6534534883497543</v>
       </c>
       <c r="E2">
-        <v>0.2514268105190851</v>
+        <v>0.266713030804496</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>0.0007900674912153077</v>
+        <v>0.002458208114749147</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0.3216528643728722</v>
+        <v>0.6592024247168169</v>
       </c>
       <c r="J2">
-        <v>0.1493771302034048</v>
+        <v>0.1389749154530335</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -457,10 +457,10 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0.6520081621997136</v>
+        <v>1.126150433234031</v>
       </c>
       <c r="O2">
-        <v>2.651129072282174</v>
+        <v>3.881021786178621</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,31 +468,31 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.395745739870165</v>
+        <v>1.051205908594852</v>
       </c>
       <c r="C3">
-        <v>0.7477387453596691</v>
+        <v>0.3007821263212804</v>
       </c>
       <c r="D3">
-        <v>0.5052143398336568</v>
+        <v>0.6430913444166606</v>
       </c>
       <c r="E3">
-        <v>0.2247760205156695</v>
+        <v>0.2616146409351572</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>0.000795535535255613</v>
+        <v>0.002461819266324869</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0.3145106548295793</v>
+        <v>0.6643088878418695</v>
       </c>
       <c r="J3">
-        <v>0.1325728360576477</v>
+        <v>0.1355858879814917</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -504,10 +504,10 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.677348116461161</v>
+        <v>1.137253137991898</v>
       </c>
       <c r="O3">
-        <v>2.457952672874654</v>
+        <v>3.869095063314603</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,31 +515,31 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.173242810364741</v>
+        <v>0.9874931661412347</v>
       </c>
       <c r="C4">
-        <v>0.6778313315478783</v>
+        <v>0.28087848649389</v>
       </c>
       <c r="D4">
-        <v>0.471204442182966</v>
+        <v>0.6370750702869259</v>
       </c>
       <c r="E4">
-        <v>0.208776055156612</v>
+        <v>0.2586319310252136</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>0.0007989965665375752</v>
+        <v>0.002464154742950964</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0.3111495414862979</v>
+        <v>0.6678949232929483</v>
       </c>
       <c r="J4">
-        <v>0.1224779831583191</v>
+        <v>0.133586503654108</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -551,10 +551,10 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.6939710036806233</v>
+        <v>1.144556362209549</v>
       </c>
       <c r="O4">
-        <v>2.345770000322176</v>
+        <v>3.864418989603877</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,31 +562,31 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.082777168651148</v>
+        <v>0.9615821670216746</v>
       </c>
       <c r="C5">
-        <v>0.6494236815188685</v>
+        <v>0.2727803032309737</v>
       </c>
       <c r="D5">
-        <v>0.4575272076340866</v>
+        <v>0.6347103933201481</v>
       </c>
       <c r="E5">
-        <v>0.2023391544901827</v>
+        <v>0.2574535599567582</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>0.0008004337251297499</v>
+        <v>0.002465136289064793</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0.3100216224605035</v>
+        <v>0.6694693286050502</v>
       </c>
       <c r="J5">
-        <v>0.1184149344024235</v>
+        <v>0.1327921874901037</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -598,10 +598,10 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.7010035103078138</v>
+        <v>1.147654766529683</v>
       </c>
       <c r="O5">
-        <v>2.301552218814862</v>
+        <v>3.863177587308883</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,31 +609,31 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.067766510878016</v>
+        <v>0.9572828648594509</v>
       </c>
       <c r="C6">
-        <v>0.6447109431982483</v>
+        <v>0.2714363794449071</v>
       </c>
       <c r="D6">
-        <v>0.4552666332160413</v>
+        <v>0.6343229944385484</v>
       </c>
       <c r="E6">
-        <v>0.2012751071035765</v>
+        <v>0.2572601324387591</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>0.000800674000235798</v>
+        <v>0.002465301077727984</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0.309848490697938</v>
+        <v>0.6697375790070801</v>
       </c>
       <c r="J6">
-        <v>0.1177431783583813</v>
+        <v>0.1326615257431314</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -645,10 +645,10 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.7021866153229368</v>
+        <v>1.148176641055379</v>
       </c>
       <c r="O6">
-        <v>2.294297004162843</v>
+        <v>3.863011522784035</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,31 +656,31 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.172021986287177</v>
+        <v>0.9871435075447152</v>
       </c>
       <c r="C7">
-        <v>0.6774479147252634</v>
+        <v>0.2807692198405505</v>
       </c>
       <c r="D7">
-        <v>0.471019270702925</v>
+        <v>0.6370428271915785</v>
       </c>
       <c r="E7">
-        <v>0.2086889184373106</v>
+        <v>0.2586158889038046</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>0.0007990158393084162</v>
+        <v>0.002464167859532477</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0.311133371258375</v>
+        <v>0.6679156988076862</v>
       </c>
       <c r="J7">
-        <v>0.1224229891182489</v>
+        <v>0.1335757084861413</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -692,10 +692,10 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>0.6940648111815548</v>
+        <v>1.144597653205928</v>
       </c>
       <c r="O7">
-        <v>2.345167751976021</v>
+        <v>3.864399560520411</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,31 +703,31 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.634017318804069</v>
+        <v>1.11936973276903</v>
       </c>
       <c r="C8">
-        <v>0.8226619641211528</v>
+        <v>0.3220640899215255</v>
       </c>
       <c r="D8">
-        <v>0.5421760558833455</v>
+        <v>0.6498087582681364</v>
       </c>
       <c r="E8">
-        <v>0.2421569841341764</v>
+        <v>0.2649244206084234</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>0.000791931799930207</v>
+        <v>0.002459428761075544</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0.3189678400730287</v>
+        <v>0.6608694491426341</v>
       </c>
       <c r="J8">
-        <v>0.1435333454021048</v>
+        <v>0.1377894378451714</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -739,10 +739,10 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>0.6605189289028885</v>
+        <v>1.129877776388206</v>
       </c>
       <c r="O8">
-        <v>2.583113631185654</v>
+        <v>3.87635916886083</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,31 +750,31 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3.550434300768529</v>
+        <v>1.380255089408251</v>
       </c>
       <c r="C9">
-        <v>1.111449606366307</v>
+        <v>0.4034343842626527</v>
       </c>
       <c r="D9">
-        <v>0.6888309061549194</v>
+        <v>0.6775927287813204</v>
       </c>
       <c r="E9">
-        <v>0.3110780259680581</v>
+        <v>0.2784702942494306</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>0.000778828236159379</v>
+        <v>0.00245106908422713</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0.3432230152443267</v>
+        <v>0.6506391650705581</v>
       </c>
       <c r="J9">
-        <v>0.1869655031610904</v>
+        <v>0.146701697608087</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -786,10 +786,10 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>0.6036137391556338</v>
+        <v>1.104867537884701</v>
       </c>
       <c r="O9">
-        <v>3.106521676262844</v>
+        <v>3.920888229640639</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,31 +797,31 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>4.233804005591765</v>
+        <v>1.572873822318115</v>
       </c>
       <c r="C10">
-        <v>1.327481235495725</v>
+        <v>0.4634565903135126</v>
       </c>
       <c r="D10">
-        <v>0.8021858966691013</v>
+        <v>0.699690410205875</v>
       </c>
       <c r="E10">
-        <v>0.3643356918030634</v>
+        <v>0.2891439575043435</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>0.0007696303028409419</v>
+        <v>0.00244549039683864</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0.3676157468176271</v>
+        <v>0.6453266611246917</v>
       </c>
       <c r="J10">
-        <v>0.2205195114996457</v>
+        <v>0.1536496900367581</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -833,10 +833,10 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>0.567869892945339</v>
+        <v>1.088840734150907</v>
       </c>
       <c r="O10">
-        <v>3.534456041581052</v>
+        <v>3.966565105610357</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,31 +844,31 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>4.547793604038191</v>
+        <v>1.660703020996777</v>
       </c>
       <c r="C11">
-        <v>1.426947925305967</v>
+        <v>0.4908148870325135</v>
       </c>
       <c r="D11">
-        <v>0.8552848966743625</v>
+        <v>0.710111077840935</v>
       </c>
       <c r="E11">
-        <v>0.3892853347704985</v>
+        <v>0.2941575942632326</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.0007655266696136773</v>
+        <v>0.002443073509957056</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0.3804223421421185</v>
+        <v>0.6433920359487075</v>
       </c>
       <c r="J11">
-        <v>0.2362412087760504</v>
+        <v>0.1568984150506196</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -880,10 +880,10 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>0.5530853571761867</v>
+        <v>1.082059304577513</v>
       </c>
       <c r="O11">
-        <v>3.740712647916325</v>
+        <v>3.990184249498725</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,31 +891,31 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>4.667225933323436</v>
+        <v>1.693990534274121</v>
       </c>
       <c r="C12">
-        <v>1.464817150496174</v>
+        <v>0.5011824268323721</v>
       </c>
       <c r="D12">
-        <v>0.8756414242531321</v>
+        <v>0.7141101796253508</v>
       </c>
       <c r="E12">
-        <v>0.3988510386251889</v>
+        <v>0.2960789394110179</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.0007639831838049905</v>
+        <v>0.002442175583298274</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>0.3855438943264744</v>
+        <v>0.6427290589558865</v>
       </c>
       <c r="J12">
-        <v>0.242269689100695</v>
+        <v>0.1581413482904281</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -927,10 +927,10 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>0.5477137767260203</v>
+        <v>1.079564580243229</v>
       </c>
       <c r="O12">
-        <v>3.820682104030084</v>
+        <v>3.999538522907812</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,31 +938,31 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>4.641479014253321</v>
+        <v>1.686820222746235</v>
       </c>
       <c r="C13">
-        <v>1.456651748899333</v>
+        <v>0.4989492592060856</v>
       </c>
       <c r="D13">
-        <v>0.871245717634082</v>
+        <v>0.7132465424461998</v>
       </c>
       <c r="E13">
-        <v>0.3967854165741755</v>
+        <v>0.2956641289668696</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.0007643151542141772</v>
+        <v>0.002442368200003336</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>0.3844283390599728</v>
+        <v>0.6428687415276784</v>
       </c>
       <c r="J13">
-        <v>0.2409678554771517</v>
+        <v>0.157873094219994</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -974,10 +974,10 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>0.5488602964359544</v>
+        <v>1.080098605187651</v>
       </c>
       <c r="O13">
-        <v>3.803372958351019</v>
+        <v>3.997505640204963</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,31 +985,31 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>4.557608224403168</v>
+        <v>1.663441039889619</v>
       </c>
       <c r="C14">
-        <v>1.430059179727948</v>
+        <v>0.4916676806804503</v>
       </c>
       <c r="D14">
-        <v>0.8569544743999131</v>
+        <v>0.7104390233963898</v>
       </c>
       <c r="E14">
-        <v>0.3900698650569439</v>
+        <v>0.2943152074535647</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>0.0007653994829460386</v>
+        <v>0.002442999290770742</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>0.3808380865769863</v>
+        <v>0.6433360953256297</v>
       </c>
       <c r="J14">
-        <v>0.2367356161564658</v>
+        <v>0.1570004168670636</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1021,10 +1021,10 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>0.5526387949211582</v>
+        <v>1.081852593769838</v>
       </c>
       <c r="O14">
-        <v>3.747253209736471</v>
+        <v>3.990945599763847</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,31 +1032,31 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>4.506306719202883</v>
+        <v>1.649124294140847</v>
       </c>
       <c r="C15">
-        <v>1.413797946129023</v>
+        <v>0.4872084803878352</v>
       </c>
       <c r="D15">
-        <v>0.8482340110521136</v>
+        <v>0.7087262435516664</v>
       </c>
       <c r="E15">
-        <v>0.385972175855045</v>
+        <v>0.2934919234796709</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>0.0007660649946615897</v>
+        <v>0.002443388101973735</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>0.3786751871997751</v>
+        <v>0.6436314391149125</v>
       </c>
       <c r="J15">
-        <v>0.2341533048500395</v>
+        <v>0.156467533717958</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1068,10 +1068,10 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>0.554983259269541</v>
+        <v>1.082936503415233</v>
       </c>
       <c r="O15">
-        <v>3.713127278579464</v>
+        <v>3.986980860124618</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,31 +1079,31 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>4.213353719563031</v>
+        <v>1.567138026634893</v>
       </c>
       <c r="C16">
-        <v>1.321007502246118</v>
+        <v>0.4616697283199755</v>
       </c>
       <c r="D16">
-        <v>0.7987489877007761</v>
+        <v>0.6990168114578239</v>
       </c>
       <c r="E16">
-        <v>0.3627208712314598</v>
+        <v>0.2888194908831352</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>0.0007699000130765015</v>
+        <v>0.00244565077131087</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>0.3668153909095224</v>
+        <v>0.6454628196506036</v>
       </c>
       <c r="J16">
-        <v>0.2195020380981703</v>
+        <v>0.1534391542647739</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1115,10 +1115,10 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>0.5688670260173438</v>
+        <v>1.089294165990211</v>
       </c>
       <c r="O16">
-        <v>3.521226374037099</v>
+        <v>3.965078846988717</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,31 +1126,31 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>4.034492135533526</v>
+        <v>1.516894063770678</v>
       </c>
       <c r="C17">
-        <v>1.264410711365315</v>
+        <v>0.4460161890715995</v>
       </c>
       <c r="D17">
-        <v>0.768803726517632</v>
+        <v>0.6931547651768426</v>
       </c>
       <c r="E17">
-        <v>0.3486514745642992</v>
+        <v>0.2859936421512401</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>0.0007722725436587873</v>
+        <v>0.002447069745228311</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>0.359995595865648</v>
+        <v>0.6467099951117277</v>
       </c>
       <c r="J17">
-        <v>0.2106374666642665</v>
+        <v>0.1516039284901041</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1162,10 +1162,10 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>0.5777723262270982</v>
+        <v>1.093324832959489</v>
       </c>
       <c r="O17">
-        <v>3.406604365559133</v>
+        <v>3.952371437822222</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,31 +1173,31 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3.931904079951323</v>
+        <v>1.488014518334182</v>
       </c>
       <c r="C18">
-        <v>1.231967918442649</v>
+        <v>0.4370177720597894</v>
       </c>
       <c r="D18">
-        <v>0.7517224512129985</v>
+        <v>0.6898177358400233</v>
       </c>
       <c r="E18">
-        <v>0.3406262205713659</v>
+        <v>0.2843831699442134</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>0.0007736448147505045</v>
+        <v>0.002447897284958917</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>0.3562323075020046</v>
+        <v>0.6474726928887335</v>
       </c>
       <c r="J18">
-        <v>0.2055812896310698</v>
+        <v>0.1505566396556617</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1209,10 +1209,10 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>0.5830323404345208</v>
+        <v>1.095691096378985</v>
       </c>
       <c r="O18">
-        <v>3.341754506575285</v>
+        <v>3.945329728132123</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,31 +1220,31 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3.897216677453343</v>
+        <v>1.478239775734892</v>
       </c>
       <c r="C19">
-        <v>1.221001353288102</v>
+        <v>0.4339719422260941</v>
       </c>
       <c r="D19">
-        <v>0.7459626631654714</v>
+        <v>0.6886938270276062</v>
       </c>
       <c r="E19">
-        <v>0.3379201280252886</v>
+        <v>0.2838404460772708</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>0.0007741107890056419</v>
+        <v>0.002448179433466208</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>0.3549847243056377</v>
+        <v>0.6477387098589347</v>
       </c>
       <c r="J19">
-        <v>0.2038763875917198</v>
+        <v>0.1502034669960608</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1256,10 +1256,10 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>0.5848365482356286</v>
+        <v>1.096500503886212</v>
       </c>
       <c r="O19">
-        <v>3.31997681450261</v>
+        <v>3.942991374426015</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,31 +1267,31 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>4.053501836945713</v>
+        <v>1.522240614183772</v>
       </c>
       <c r="C20">
-        <v>1.270423912553781</v>
+        <v>0.4476820102802321</v>
       </c>
       <c r="D20">
-        <v>0.771976509538149</v>
+        <v>0.6937752019473464</v>
       </c>
       <c r="E20">
-        <v>0.3501421456680305</v>
+        <v>0.2862929180602194</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>0.0007720191992546209</v>
+        <v>0.002446917515426552</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>0.3607049091445234</v>
+        <v>0.6465725348360394</v>
       </c>
       <c r="J20">
-        <v>0.2115766542625721</v>
+        <v>0.1517984336312708</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1303,10 +1303,10 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>0.5768099642635605</v>
+        <v>1.092890800782811</v>
       </c>
       <c r="O20">
-        <v>3.418693160852001</v>
+        <v>3.953696490533957</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,31 +1314,31 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>4.582227991655031</v>
+        <v>1.670307307932092</v>
       </c>
       <c r="C21">
-        <v>1.437864272961633</v>
+        <v>0.4938062535950962</v>
       </c>
       <c r="D21">
-        <v>0.8611451567218467</v>
+        <v>0.7112622203543992</v>
       </c>
       <c r="E21">
-        <v>0.3920390699431522</v>
+        <v>0.2947107994887048</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>0.0007650807144845202</v>
+        <v>0.002442813455419042</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>0.3818850296271421</v>
+        <v>0.6431969301916638</v>
       </c>
       <c r="J21">
-        <v>0.2379766137466675</v>
+        <v>0.1572563979668189</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1350,10 +1350,10 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>0.5515226728196225</v>
+        <v>1.081335416413758</v>
       </c>
       <c r="O21">
-        <v>3.763684659978708</v>
+        <v>3.992861295461864</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,31 +1361,31 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>4.930922175570515</v>
+        <v>1.767243071117377</v>
       </c>
       <c r="C22">
-        <v>1.548498733381109</v>
+        <v>0.5239950080525659</v>
       </c>
       <c r="D22">
-        <v>0.9208892749430788</v>
+        <v>0.7230000732983797</v>
       </c>
       <c r="E22">
-        <v>0.4201153470283714</v>
+        <v>0.3003452315588007</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>0.0007606064551135808</v>
+        <v>0.002440231989882585</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>0.3973266513311629</v>
+        <v>0.6413967391075133</v>
       </c>
       <c r="J22">
-        <v>0.2556727104112184</v>
+        <v>0.1608976098006991</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1397,10 +1397,10 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>0.5363269670419442</v>
+        <v>1.074210313162482</v>
       </c>
       <c r="O22">
-        <v>4.000131000566114</v>
+        <v>4.020849636439891</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,31 +1408,31 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>4.744500685488163</v>
+        <v>1.71549184223835</v>
       </c>
       <c r="C23">
-        <v>1.4893296089719</v>
+        <v>0.5078787516223997</v>
       </c>
       <c r="D23">
-        <v>0.8888582542830932</v>
+        <v>0.7167070604847652</v>
       </c>
       <c r="E23">
-        <v>0.405062016035771</v>
+        <v>0.2973258555666192</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>0.0007629893158235685</v>
+        <v>0.002441600574349832</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>0.3889295748849051</v>
+        <v>0.6423202885946608</v>
       </c>
       <c r="J23">
-        <v>0.2461842267968279</v>
+        <v>0.1589474280519454</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1444,10 +1444,10 @@
         <v>0</v>
       </c>
       <c r="N23">
-        <v>0.5443101641448393</v>
+        <v>1.07797403291756</v>
       </c>
       <c r="O23">
-        <v>3.872860281852923</v>
+        <v>4.005692292292281</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,31 +1455,31 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>4.044906803753634</v>
+        <v>1.519823418787951</v>
       </c>
       <c r="C24">
-        <v>1.267705049336371</v>
+        <v>0.4469288893510566</v>
       </c>
       <c r="D24">
-        <v>0.7705416770445481</v>
+        <v>0.6934945992658754</v>
       </c>
       <c r="E24">
-        <v>0.3494680167286219</v>
+        <v>0.2861575713646545</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>0.0007721337104311133</v>
+        <v>0.002446986301981311</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>0.3603837399643481</v>
+        <v>0.6466345383527283</v>
       </c>
       <c r="J24">
-        <v>0.2111519230702754</v>
+        <v>0.1517104735451369</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1491,10 +1491,10 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>0.5772446124008326</v>
+        <v>1.093086874155894</v>
       </c>
       <c r="O24">
-        <v>3.413224567405678</v>
+        <v>3.953096612118657</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,31 +1502,31 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>3.301037490364706</v>
+        <v>1.309510879680374</v>
       </c>
       <c r="C25">
-        <v>1.032756710637869</v>
+        <v>0.3813795952856367</v>
       </c>
       <c r="D25">
-        <v>0.6482705762143723</v>
+        <v>0.6697811684486226</v>
       </c>
       <c r="E25">
-        <v>0.2920205052118163</v>
+        <v>0.2746794568371129</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>0.0007822937697618813</v>
+        <v>0.00245323126693366</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>0.3355962978575846</v>
+        <v>0.653020951209065</v>
       </c>
       <c r="J25">
-        <v>0.1749585712307393</v>
+        <v>0.1442207448966712</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -1538,10 +1538,10 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>0.6179935841178406</v>
+        <v>1.111220969144533</v>
       </c>
       <c r="O25">
-        <v>2.957985959031163</v>
+        <v>3.906573969084377</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_27/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_4_27/res_line/pl_mw.xlsx
@@ -421,31 +421,31 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.155304916976149</v>
+        <v>2.759775232429604</v>
       </c>
       <c r="C2">
-        <v>0.3332793765544579</v>
+        <v>0.8622321681622225</v>
       </c>
       <c r="D2">
-        <v>0.6534534883497543</v>
+        <v>0.5618942303243841</v>
       </c>
       <c r="E2">
-        <v>0.266713030804496</v>
+        <v>0.2514268105190851</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>0.002458208114749147</v>
+        <v>0.0007900674912421378</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0.6592024247168169</v>
+        <v>0.3216528643728864</v>
       </c>
       <c r="J2">
-        <v>0.1389749154530335</v>
+        <v>0.149377130203483</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -457,10 +457,10 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1.126150433234031</v>
+        <v>0.6520081621996923</v>
       </c>
       <c r="O2">
-        <v>3.881021786178621</v>
+        <v>2.651129072282146</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,31 +468,31 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.051205908594852</v>
+        <v>2.395745739870392</v>
       </c>
       <c r="C3">
-        <v>0.3007821263212804</v>
+        <v>0.7477387453601239</v>
       </c>
       <c r="D3">
-        <v>0.6430913444166606</v>
+        <v>0.5052143398338274</v>
       </c>
       <c r="E3">
-        <v>0.2616146409351572</v>
+        <v>0.2247760205156908</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>0.002461819266324869</v>
+        <v>0.0007955355352555477</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0.6643088878418695</v>
+        <v>0.3145106548295686</v>
       </c>
       <c r="J3">
-        <v>0.1355858879814917</v>
+        <v>0.1325728360576974</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -504,10 +504,10 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>1.137253137991898</v>
+        <v>0.6773481164611965</v>
       </c>
       <c r="O3">
-        <v>3.869095063314603</v>
+        <v>2.457952672874683</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,31 +515,31 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.9874931661412347</v>
+        <v>2.173242810364684</v>
       </c>
       <c r="C4">
-        <v>0.28087848649389</v>
+        <v>0.6778313315478215</v>
       </c>
       <c r="D4">
-        <v>0.6370750702869259</v>
+        <v>0.4712044421830797</v>
       </c>
       <c r="E4">
-        <v>0.2586319310252136</v>
+        <v>0.208776055156612</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>0.002464154742950964</v>
+        <v>0.0007989965665083365</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0.6678949232929483</v>
+        <v>0.3111495414862944</v>
       </c>
       <c r="J4">
-        <v>0.133586503654108</v>
+        <v>0.1224779831582552</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -551,10 +551,10 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>1.144556362209549</v>
+        <v>0.693971003680609</v>
       </c>
       <c r="O4">
-        <v>3.864418989603877</v>
+        <v>2.345770000322233</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,31 +562,31 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.9615821670216746</v>
+        <v>2.082777168651262</v>
       </c>
       <c r="C5">
-        <v>0.2727803032309737</v>
+        <v>0.6494236815186127</v>
       </c>
       <c r="D5">
-        <v>0.6347103933201481</v>
+        <v>0.4575272076340298</v>
       </c>
       <c r="E5">
-        <v>0.2574535599567582</v>
+        <v>0.2023391544901969</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>0.002465136289064793</v>
+        <v>0.0008004337251293903</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0.6694693286050502</v>
+        <v>0.3100216224605248</v>
       </c>
       <c r="J5">
-        <v>0.1327921874901037</v>
+        <v>0.1184149344024235</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -598,10 +598,10 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>1.147654766529683</v>
+        <v>0.7010035103078138</v>
       </c>
       <c r="O5">
-        <v>3.863177587308883</v>
+        <v>2.301552218814919</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,31 +609,31 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.9572828648594509</v>
+        <v>2.06776651087813</v>
       </c>
       <c r="C6">
-        <v>0.2714363794449071</v>
+        <v>0.644710943198163</v>
       </c>
       <c r="D6">
-        <v>0.6343229944385484</v>
+        <v>0.4552666332161266</v>
       </c>
       <c r="E6">
-        <v>0.2572601324387591</v>
+        <v>0.2012751071035694</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>0.002465301077727984</v>
+        <v>0.0008006740002351977</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0.6697375790070801</v>
+        <v>0.3098484906979344</v>
       </c>
       <c r="J6">
-        <v>0.1326615257431314</v>
+        <v>0.1177431783584595</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -645,10 +645,10 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1.148176641055379</v>
+        <v>0.7021866153229297</v>
       </c>
       <c r="O6">
-        <v>3.863011522784035</v>
+        <v>2.294297004162843</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,31 +656,31 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.9871435075447152</v>
+        <v>2.172021986287291</v>
       </c>
       <c r="C7">
-        <v>0.2807692198405505</v>
+        <v>0.677447914725235</v>
       </c>
       <c r="D7">
-        <v>0.6370428271915785</v>
+        <v>0.471019270702925</v>
       </c>
       <c r="E7">
-        <v>0.2586158889038046</v>
+        <v>0.2086889184373319</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>0.002464167859532477</v>
+        <v>0.0007990158392792431</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0.6679156988076862</v>
+        <v>0.3111333712583573</v>
       </c>
       <c r="J7">
-        <v>0.1335757084861413</v>
+        <v>0.122422989118192</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -692,10 +692,10 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>1.144597653205928</v>
+        <v>0.694064811181498</v>
       </c>
       <c r="O7">
-        <v>3.864399560520411</v>
+        <v>2.345167751976049</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,31 +703,31 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.11936973276903</v>
+        <v>2.634017318804069</v>
       </c>
       <c r="C8">
-        <v>0.3220640899215255</v>
+        <v>0.8226619641207833</v>
       </c>
       <c r="D8">
-        <v>0.6498087582681364</v>
+        <v>0.5421760558833455</v>
       </c>
       <c r="E8">
-        <v>0.2649244206084234</v>
+        <v>0.2421569841341693</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>0.002459428761075544</v>
+        <v>0.0007919317999583517</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0.6608694491426341</v>
+        <v>0.3189678400730571</v>
       </c>
       <c r="J8">
-        <v>0.1377894378451714</v>
+        <v>0.1435333454020622</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -739,10 +739,10 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>1.129877776388206</v>
+        <v>0.6605189289028104</v>
       </c>
       <c r="O8">
-        <v>3.87635916886083</v>
+        <v>2.583113631185682</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,31 +750,31 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.380255089408251</v>
+        <v>3.550434300768416</v>
       </c>
       <c r="C9">
-        <v>0.4034343842626527</v>
+        <v>1.111449606366307</v>
       </c>
       <c r="D9">
-        <v>0.6775927287813204</v>
+        <v>0.6888309061548625</v>
       </c>
       <c r="E9">
-        <v>0.2784702942494306</v>
+        <v>0.3110780259680652</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>0.00245106908422713</v>
+        <v>0.0007788282361537013</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0.6506391650705581</v>
+        <v>0.3432230152443481</v>
       </c>
       <c r="J9">
-        <v>0.146701697608087</v>
+        <v>0.1869655031610904</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -786,10 +786,10 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>1.104867537884701</v>
+        <v>0.6036137391556338</v>
       </c>
       <c r="O9">
-        <v>3.920888229640639</v>
+        <v>3.106521676262815</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,31 +797,31 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.572873822318115</v>
+        <v>4.233804005591765</v>
       </c>
       <c r="C10">
-        <v>0.4634565903135126</v>
+        <v>1.327481235495554</v>
       </c>
       <c r="D10">
-        <v>0.699690410205875</v>
+        <v>0.8021858966691013</v>
       </c>
       <c r="E10">
-        <v>0.2891439575043435</v>
+        <v>0.3643356918030705</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>0.00244549039683864</v>
+        <v>0.0007696303029437577</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0.6453266611246917</v>
+        <v>0.36761574681762</v>
       </c>
       <c r="J10">
-        <v>0.1536496900367581</v>
+        <v>0.2205195114996457</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -833,10 +833,10 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>1.088840734150907</v>
+        <v>0.5678698929453532</v>
       </c>
       <c r="O10">
-        <v>3.966565105610357</v>
+        <v>3.534456041581052</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,31 +844,31 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.660703020996777</v>
+        <v>4.547793604038134</v>
       </c>
       <c r="C11">
-        <v>0.4908148870325135</v>
+        <v>1.426947925305569</v>
       </c>
       <c r="D11">
-        <v>0.710111077840935</v>
+        <v>0.8552848966742488</v>
       </c>
       <c r="E11">
-        <v>0.2941575942632326</v>
+        <v>0.3892853347705127</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.002443073509957056</v>
+        <v>0.0007655266696522138</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0.6433920359487075</v>
+        <v>0.3804223421421327</v>
       </c>
       <c r="J11">
-        <v>0.1568984150506196</v>
+        <v>0.236241208776093</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -880,10 +880,10 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>1.082059304577513</v>
+        <v>0.5530853571761867</v>
       </c>
       <c r="O11">
-        <v>3.990184249498725</v>
+        <v>3.740712647916268</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,31 +891,31 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.693990534274121</v>
+        <v>4.66722593332338</v>
       </c>
       <c r="C12">
-        <v>0.5011824268323721</v>
+        <v>1.464817150496458</v>
       </c>
       <c r="D12">
-        <v>0.7141101796253508</v>
+        <v>0.8756414242530468</v>
       </c>
       <c r="E12">
-        <v>0.2960789394110179</v>
+        <v>0.3988510386251818</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.002442175583298274</v>
+        <v>0.0007639831837654144</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>0.6427290589558865</v>
+        <v>0.3855438943264744</v>
       </c>
       <c r="J12">
-        <v>0.1581413482904281</v>
+        <v>0.2422696891008371</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -927,10 +927,10 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>1.079564580243229</v>
+        <v>0.5477137767260132</v>
       </c>
       <c r="O12">
-        <v>3.999538522907812</v>
+        <v>3.820682104030197</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,31 +938,31 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.686820222746235</v>
+        <v>4.641479014253548</v>
       </c>
       <c r="C13">
-        <v>0.4989492592060856</v>
+        <v>1.456651748899048</v>
       </c>
       <c r="D13">
-        <v>0.7132465424461998</v>
+        <v>0.8712457176337409</v>
       </c>
       <c r="E13">
-        <v>0.2956641289668696</v>
+        <v>0.3967854165741542</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.002442368200003336</v>
+        <v>0.0007643151541466757</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>0.6428687415276784</v>
+        <v>0.3844283390599514</v>
       </c>
       <c r="J13">
-        <v>0.157873094219994</v>
+        <v>0.2409678554771659</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -974,10 +974,10 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>1.080098605187651</v>
+        <v>0.5488602964360112</v>
       </c>
       <c r="O13">
-        <v>3.997505640204963</v>
+        <v>3.803372958351076</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,31 +985,31 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.663441039889619</v>
+        <v>4.557608224403282</v>
       </c>
       <c r="C14">
-        <v>0.4916676806804503</v>
+        <v>1.430059179727948</v>
       </c>
       <c r="D14">
-        <v>0.7104390233963898</v>
+        <v>0.8569544744000268</v>
       </c>
       <c r="E14">
-        <v>0.2943152074535647</v>
+        <v>0.3900698650569723</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>0.002442999290770742</v>
+        <v>0.0007653994829838401</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>0.6433360953256297</v>
+        <v>0.3808380865769792</v>
       </c>
       <c r="J14">
-        <v>0.1570004168670636</v>
+        <v>0.2367356161563521</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1021,10 +1021,10 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>1.081852593769838</v>
+        <v>0.5526387949212008</v>
       </c>
       <c r="O14">
-        <v>3.990945599763847</v>
+        <v>3.747253209736414</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,31 +1032,31 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.649124294140847</v>
+        <v>4.506306719202996</v>
       </c>
       <c r="C15">
-        <v>0.4872084803878352</v>
+        <v>1.413797946128909</v>
       </c>
       <c r="D15">
-        <v>0.7087262435516664</v>
+        <v>0.8482340110521136</v>
       </c>
       <c r="E15">
-        <v>0.2934919234796709</v>
+        <v>0.3859721758550023</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>0.002443388101973735</v>
+        <v>0.0007660649946228677</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>0.6436314391149125</v>
+        <v>0.3786751871997751</v>
       </c>
       <c r="J15">
-        <v>0.156467533717958</v>
+        <v>0.2341533048499826</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1068,10 +1068,10 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>1.082936503415233</v>
+        <v>0.5549832592695978</v>
       </c>
       <c r="O15">
-        <v>3.986980860124618</v>
+        <v>3.71312727857952</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,31 +1079,31 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.567138026634893</v>
+        <v>4.213353719563031</v>
       </c>
       <c r="C16">
-        <v>0.4616697283199755</v>
+        <v>1.321007502246573</v>
       </c>
       <c r="D16">
-        <v>0.6990168114578239</v>
+        <v>0.7987489877008329</v>
       </c>
       <c r="E16">
-        <v>0.2888194908831352</v>
+        <v>0.3627208712315095</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>0.00244565077131087</v>
+        <v>0.0007699000131402054</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>0.6454628196506036</v>
+        <v>0.3668153909095437</v>
       </c>
       <c r="J16">
-        <v>0.1534391542647739</v>
+        <v>0.2195020380980566</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1115,10 +1115,10 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>1.089294165990211</v>
+        <v>0.5688670260173225</v>
       </c>
       <c r="O16">
-        <v>3.965078846988717</v>
+        <v>3.521226374037099</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,31 +1126,31 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.516894063770678</v>
+        <v>4.03449213553364</v>
       </c>
       <c r="C17">
-        <v>0.4460161890715995</v>
+        <v>1.264410711365429</v>
       </c>
       <c r="D17">
-        <v>0.6931547651768426</v>
+        <v>0.7688037265177172</v>
       </c>
       <c r="E17">
-        <v>0.2859936421512401</v>
+        <v>0.3486514745642992</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>0.002447069745228311</v>
+        <v>0.0007722725436504781</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>0.6467099951117277</v>
+        <v>0.3599955958656622</v>
       </c>
       <c r="J17">
-        <v>0.1516039284901041</v>
+        <v>0.2106374666643234</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1162,10 +1162,10 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>1.093324832959489</v>
+        <v>0.5777723262271053</v>
       </c>
       <c r="O17">
-        <v>3.952371437822222</v>
+        <v>3.40660436555919</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,31 +1173,31 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.488014518334182</v>
+        <v>3.931904079951494</v>
       </c>
       <c r="C18">
-        <v>0.4370177720597894</v>
+        <v>1.231967918442479</v>
       </c>
       <c r="D18">
-        <v>0.6898177358400233</v>
+        <v>0.7517224512127711</v>
       </c>
       <c r="E18">
-        <v>0.2843831699442134</v>
+        <v>0.3406262205713588</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>0.002447897284958917</v>
+        <v>0.0007736448147217037</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>0.6474726928887335</v>
+        <v>0.3562323075020117</v>
       </c>
       <c r="J18">
-        <v>0.1505566396556617</v>
+        <v>0.2055812896310698</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1209,10 +1209,10 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>1.095691096378985</v>
+        <v>0.583032340434535</v>
       </c>
       <c r="O18">
-        <v>3.945329728132123</v>
+        <v>3.34175450657537</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,31 +1220,31 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.478239775734892</v>
+        <v>3.8972166774534</v>
       </c>
       <c r="C19">
-        <v>0.4339719422260941</v>
+        <v>1.221001353287932</v>
       </c>
       <c r="D19">
-        <v>0.6886938270276062</v>
+        <v>0.7459626631654714</v>
       </c>
       <c r="E19">
-        <v>0.2838404460772708</v>
+        <v>0.3379201280252602</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>0.002448179433466208</v>
+        <v>0.0007741107890417037</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>0.6477387098589347</v>
+        <v>0.3549847243056306</v>
       </c>
       <c r="J19">
-        <v>0.1502034669960608</v>
+        <v>0.2038763875917482</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1256,10 +1256,10 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>1.096500503886212</v>
+        <v>0.5848365482356215</v>
       </c>
       <c r="O19">
-        <v>3.942991374426015</v>
+        <v>3.31997681450261</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,31 +1267,31 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.522240614183772</v>
+        <v>4.05350183694577</v>
       </c>
       <c r="C20">
-        <v>0.4476820102802321</v>
+        <v>1.270423912553838</v>
       </c>
       <c r="D20">
-        <v>0.6937752019473464</v>
+        <v>0.7719765095381206</v>
       </c>
       <c r="E20">
-        <v>0.2862929180602194</v>
+        <v>0.3501421456680589</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>0.002446917515426552</v>
+        <v>0.0007720191992832343</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>0.6465725348360394</v>
+        <v>0.3607049091445305</v>
       </c>
       <c r="J20">
-        <v>0.1517984336312708</v>
+        <v>0.2115766542626289</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1303,10 +1303,10 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>1.092890800782811</v>
+        <v>0.5768099642635605</v>
       </c>
       <c r="O20">
-        <v>3.953696490533957</v>
+        <v>3.418693160852001</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,31 +1314,31 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.670307307932092</v>
+        <v>4.582227991654804</v>
       </c>
       <c r="C21">
-        <v>0.4938062535950962</v>
+        <v>1.437864272961235</v>
       </c>
       <c r="D21">
-        <v>0.7112622203543992</v>
+        <v>0.8611451567218182</v>
       </c>
       <c r="E21">
-        <v>0.2947107994887048</v>
+        <v>0.3920390699430953</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>0.002442813455419042</v>
+        <v>0.0007650807145218655</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>0.6431969301916638</v>
+        <v>0.3818850296271421</v>
       </c>
       <c r="J21">
-        <v>0.1572563979668189</v>
+        <v>0.2379766137467101</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1350,10 +1350,10 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>1.081335416413758</v>
+        <v>0.5515226728196225</v>
       </c>
       <c r="O21">
-        <v>3.992861295461864</v>
+        <v>3.763684659978708</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,31 +1361,31 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.767243071117377</v>
+        <v>4.930922175570572</v>
       </c>
       <c r="C22">
-        <v>0.5239950080525659</v>
+        <v>1.548498733381052</v>
       </c>
       <c r="D22">
-        <v>0.7230000732983797</v>
+        <v>0.9208892749429936</v>
       </c>
       <c r="E22">
-        <v>0.3003452315588007</v>
+        <v>0.4201153470283856</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>0.002440231989882585</v>
+        <v>0.0007606064551131682</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>0.6413967391075133</v>
+        <v>0.3973266513311557</v>
       </c>
       <c r="J22">
-        <v>0.1608976098006991</v>
+        <v>0.2556727104111616</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1397,10 +1397,10 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>1.074210313162482</v>
+        <v>0.5363269670419868</v>
       </c>
       <c r="O22">
-        <v>4.020849636439891</v>
+        <v>4.000131000566</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,31 +1408,31 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.71549184223835</v>
+        <v>4.744500685487992</v>
       </c>
       <c r="C23">
-        <v>0.5078787516223997</v>
+        <v>1.489329608971502</v>
       </c>
       <c r="D23">
-        <v>0.7167070604847652</v>
+        <v>0.8888582542831784</v>
       </c>
       <c r="E23">
-        <v>0.2973258555666192</v>
+        <v>0.4050620160357425</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>0.002441600574349832</v>
+        <v>0.0007629893158329841</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>0.6423202885946608</v>
+        <v>0.388929574884898</v>
       </c>
       <c r="J23">
-        <v>0.1589474280519454</v>
+        <v>0.2461842267968706</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1444,10 +1444,10 @@
         <v>0</v>
       </c>
       <c r="N23">
-        <v>1.07797403291756</v>
+        <v>0.5443101641447683</v>
       </c>
       <c r="O23">
-        <v>4.005692292292281</v>
+        <v>3.872860281852866</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,31 +1455,31 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.519823418787951</v>
+        <v>4.044906803753577</v>
       </c>
       <c r="C24">
-        <v>0.4469288893510566</v>
+        <v>1.267705049336257</v>
       </c>
       <c r="D24">
-        <v>0.6934945992658754</v>
+        <v>0.7705416770444913</v>
       </c>
       <c r="E24">
-        <v>0.2861575713646545</v>
+        <v>0.3494680167286219</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>0.002446986301981311</v>
+        <v>0.0007721337103943672</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>0.6466345383527283</v>
+        <v>0.3603837399643623</v>
       </c>
       <c r="J24">
-        <v>0.1517104735451369</v>
+        <v>0.2111519230703891</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1491,10 +1491,10 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>1.093086874155894</v>
+        <v>0.5772446124008184</v>
       </c>
       <c r="O24">
-        <v>3.953096612118657</v>
+        <v>3.413224567405734</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,31 +1502,31 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.309510879680374</v>
+        <v>3.301037490364649</v>
       </c>
       <c r="C25">
-        <v>0.3813795952856367</v>
+        <v>1.032756710637756</v>
       </c>
       <c r="D25">
-        <v>0.6697811684486226</v>
+        <v>0.6482705762145144</v>
       </c>
       <c r="E25">
-        <v>0.2746794568371129</v>
+        <v>0.2920205052118092</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>0.00245323126693366</v>
+        <v>0.0007822937697281363</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>0.653020951209065</v>
+        <v>0.3355962978575704</v>
       </c>
       <c r="J25">
-        <v>0.1442207448966712</v>
+        <v>0.1749585712307749</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -1538,10 +1538,10 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>1.111220969144533</v>
+        <v>0.6179935841178334</v>
       </c>
       <c r="O25">
-        <v>3.906573969084377</v>
+        <v>2.957985959031191</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_27/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_4_27/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,1133 +415,1283 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.759775232429604</v>
+        <v>0.7496263988654732</v>
       </c>
       <c r="C2">
-        <v>0.8622321681622225</v>
+        <v>0.1662266661506777</v>
       </c>
       <c r="D2">
-        <v>0.5618942303243841</v>
+        <v>0.1974574784973129</v>
       </c>
       <c r="E2">
-        <v>0.2514268105190851</v>
+        <v>0.3777740778031173</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>0.0007900674912421378</v>
+        <v>0.3597361078010763</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>0.0002457339348680421</v>
       </c>
       <c r="I2">
-        <v>0.3216528643728864</v>
+        <v>0.0006268008419700877</v>
       </c>
       <c r="J2">
-        <v>0.149377130203483</v>
+        <v>0.3084959272629888</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>0.2872882246665398</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>0.8523146769232994</v>
       </c>
       <c r="N2">
-        <v>0.6520081621996923</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>2.651129072282146</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+        <v>0.5819614374363553</v>
+      </c>
+      <c r="P2">
+        <v>0.7782622907321093</v>
+      </c>
+      <c r="Q2">
+        <v>1.356748082977745</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.395745739870392</v>
+        <v>0.653192419549697</v>
       </c>
       <c r="C3">
-        <v>0.7477387453601239</v>
+        <v>0.1487762793512957</v>
       </c>
       <c r="D3">
-        <v>0.5052143398338274</v>
+        <v>0.1716097451417085</v>
       </c>
       <c r="E3">
-        <v>0.2247760205156908</v>
+        <v>0.3332030034360756</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>0.0007955355352555477</v>
+        <v>0.3424980767250432</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>1.108640676084072E-05</v>
       </c>
       <c r="I3">
-        <v>0.3145106548295686</v>
+        <v>0.000424881109145403</v>
       </c>
       <c r="J3">
-        <v>0.1325728360576974</v>
+        <v>0.3042513781633289</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>0.2852070564473266</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>0.7453381239865422</v>
       </c>
       <c r="N3">
-        <v>0.6773481164611965</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>2.457952672874683</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+        <v>0.5071626630405319</v>
+      </c>
+      <c r="P3">
+        <v>0.8045199877631801</v>
+      </c>
+      <c r="Q3">
+        <v>1.311049700854142</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.173242810364684</v>
+        <v>0.5936371155880522</v>
       </c>
       <c r="C4">
-        <v>0.6778313315478215</v>
+        <v>0.1381742814838276</v>
       </c>
       <c r="D4">
-        <v>0.4712044421830797</v>
+        <v>0.1558375533522423</v>
       </c>
       <c r="E4">
-        <v>0.208776055156612</v>
+        <v>0.3058079168464687</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>0.0007989965665083365</v>
+        <v>0.3322086682651033</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>2.057938388588809E-05</v>
       </c>
       <c r="I4">
-        <v>0.3111495414862944</v>
+        <v>0.0004409117672317109</v>
       </c>
       <c r="J4">
-        <v>0.1224779831582552</v>
+        <v>0.3018598119473737</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>0.2840953022585211</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>0.6795414433516527</v>
       </c>
       <c r="N4">
-        <v>0.693971003680609</v>
+        <v>0</v>
       </c>
       <c r="O4">
-        <v>2.345770000322233</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+        <v>0.461230870879568</v>
+      </c>
+      <c r="P4">
+        <v>0.8211552116870413</v>
+      </c>
+      <c r="Q4">
+        <v>1.28405761178864</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.082777168651262</v>
+        <v>0.5686864907042946</v>
       </c>
       <c r="C5">
-        <v>0.6494236815186127</v>
+        <v>0.1341959657452492</v>
       </c>
       <c r="D5">
-        <v>0.4575272076340298</v>
+        <v>0.149431413021972</v>
       </c>
       <c r="E5">
-        <v>0.2023391544901969</v>
+        <v>0.2946245271319938</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>0.0008004337251293903</v>
+        <v>0.3277446634335845</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>6.121307274686849E-05</v>
       </c>
       <c r="I5">
-        <v>0.3100216224605248</v>
+        <v>0.0005469106449811356</v>
       </c>
       <c r="J5">
-        <v>0.1184149344024235</v>
+        <v>0.3007613449283397</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>0.2833977774816709</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>0.652695816633198</v>
       </c>
       <c r="N5">
-        <v>0.7010035103078138</v>
+        <v>0</v>
       </c>
       <c r="O5">
-        <v>2.301552218814919</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+        <v>0.4425076751312673</v>
+      </c>
+      <c r="P5">
+        <v>0.8279833996962815</v>
+      </c>
+      <c r="Q5">
+        <v>1.272222152926048</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.06776651087813</v>
+        <v>0.5638113799457471</v>
       </c>
       <c r="C6">
-        <v>0.644710943198163</v>
+        <v>0.1339256362006012</v>
       </c>
       <c r="D6">
-        <v>0.4552666332161266</v>
+        <v>0.1483679894479906</v>
       </c>
       <c r="E6">
-        <v>0.2012751071035694</v>
+        <v>0.2927551382395635</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>0.0008006740002351977</v>
+        <v>0.3265906672765411</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>7.031711806138041E-05</v>
       </c>
       <c r="I6">
-        <v>0.3098484906979344</v>
+        <v>0.0006544948843929532</v>
       </c>
       <c r="J6">
-        <v>0.1177431783584595</v>
+        <v>0.3003667578538582</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>0.2829365057336091</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>0.648235725171844</v>
       </c>
       <c r="N6">
-        <v>0.7021866153229297</v>
+        <v>0</v>
       </c>
       <c r="O6">
-        <v>2.294297004162843</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+        <v>0.4393977331369925</v>
+      </c>
+      <c r="P6">
+        <v>0.8290323911614452</v>
+      </c>
+      <c r="Q6">
+        <v>1.268937217188608</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.172021986287291</v>
+        <v>0.5913088467479497</v>
       </c>
       <c r="C7">
-        <v>0.677447914725235</v>
+        <v>0.1391845674765904</v>
       </c>
       <c r="D7">
-        <v>0.471019270702925</v>
+        <v>0.1557484094841044</v>
       </c>
       <c r="E7">
-        <v>0.2086889184373319</v>
+        <v>0.3056253575300119</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>0.0007990158392792431</v>
+        <v>0.3310093375228504</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>2.126134457314244E-05</v>
       </c>
       <c r="I7">
-        <v>0.3111333712583573</v>
+        <v>0.0006675245293177312</v>
       </c>
       <c r="J7">
-        <v>0.122422989118192</v>
+        <v>0.3012574346823556</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>0.2831361919201321</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>0.6791784486314612</v>
       </c>
       <c r="N7">
-        <v>0.694064811181498</v>
+        <v>0</v>
       </c>
       <c r="O7">
-        <v>2.345167751976049</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+        <v>0.460976710180141</v>
+      </c>
+      <c r="P7">
+        <v>0.821005074159229</v>
+      </c>
+      <c r="Q7">
+        <v>1.280252204005237</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.634017318804069</v>
+        <v>0.7137832421947792</v>
       </c>
       <c r="C8">
-        <v>0.8226619641207833</v>
+        <v>0.161606435217962</v>
       </c>
       <c r="D8">
-        <v>0.5421760558833455</v>
+        <v>0.1885189267630665</v>
       </c>
       <c r="E8">
-        <v>0.2421569841341693</v>
+        <v>0.3623686887077611</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>0.0007919317999583517</v>
+        <v>0.3522218719406851</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>0.000130863140305193</v>
       </c>
       <c r="I8">
-        <v>0.3189678400730571</v>
+        <v>0.0007971425522539377</v>
       </c>
       <c r="J8">
-        <v>0.1435333454020622</v>
+        <v>0.3062128557944774</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>0.2852833976258182</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>0.8154470614926197</v>
       </c>
       <c r="N8">
-        <v>0.6605189289028104</v>
+        <v>0</v>
       </c>
       <c r="O8">
-        <v>2.583113631185682</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+        <v>0.5561663310791474</v>
+      </c>
+      <c r="P8">
+        <v>0.7869353089692885</v>
+      </c>
+      <c r="Q8">
+        <v>1.335946655376802</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3.550434300768416</v>
+        <v>0.9548878074944298</v>
       </c>
       <c r="C9">
-        <v>1.111449606366307</v>
+        <v>0.2046797041285657</v>
       </c>
       <c r="D9">
-        <v>0.6888309061548625</v>
+        <v>0.2537042062396324</v>
       </c>
       <c r="E9">
-        <v>0.3110780259680652</v>
+        <v>0.4736176270081884</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>0.0007788282361537013</v>
+        <v>0.3983976088276648</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>0.001659755459876511</v>
       </c>
       <c r="I9">
-        <v>0.3432230152443481</v>
+        <v>0.001902883732360472</v>
       </c>
       <c r="J9">
-        <v>0.1869655031610904</v>
+        <v>0.3187637746975156</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>0.2925748314108603</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>1.082000974077289</v>
       </c>
       <c r="N9">
-        <v>0.6036137391556338</v>
+        <v>0</v>
       </c>
       <c r="O9">
-        <v>3.106521676262815</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
+        <v>0.7429898989790829</v>
+      </c>
+      <c r="P9">
+        <v>0.7246901110213186</v>
+      </c>
+      <c r="Q9">
+        <v>1.460743423812659</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>4.233804005591765</v>
+        <v>1.13051021264846</v>
       </c>
       <c r="C10">
-        <v>1.327481235495554</v>
+        <v>0.2369904411328747</v>
       </c>
       <c r="D10">
-        <v>0.8021858966691013</v>
+        <v>0.3023203784124462</v>
       </c>
       <c r="E10">
-        <v>0.3643356918030705</v>
+        <v>0.5220393664070073</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>0.0007696303029437577</v>
+        <v>0.4278624108353739</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>0.003669086784202413</v>
       </c>
       <c r="I10">
-        <v>0.36761574681762</v>
+        <v>0.003636626040514734</v>
       </c>
       <c r="J10">
-        <v>0.2205195114996457</v>
+        <v>0.3260429821293371</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>0.29536881762197</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>1.27765174523762</v>
       </c>
       <c r="N10">
-        <v>0.5678698929453532</v>
+        <v>0</v>
       </c>
       <c r="O10">
-        <v>3.534456041581052</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
+        <v>0.849417517833011</v>
+      </c>
+      <c r="P10">
+        <v>0.6814727080829819</v>
+      </c>
+      <c r="Q10">
+        <v>1.538871067485161</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>4.547793604038134</v>
+        <v>1.21601194252051</v>
       </c>
       <c r="C11">
-        <v>1.426947925305569</v>
+        <v>0.2475575799787322</v>
       </c>
       <c r="D11">
-        <v>0.8552848966742488</v>
+        <v>0.3243591200187694</v>
       </c>
       <c r="E11">
-        <v>0.3892853347705127</v>
+        <v>0.2961838514659689</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.0007655266696522138</v>
+        <v>0.3910519220526822</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>0.02151587380847886</v>
       </c>
       <c r="I11">
-        <v>0.3804223421421327</v>
+        <v>0.004675191482364838</v>
       </c>
       <c r="J11">
-        <v>0.236241208776093</v>
+        <v>0.3041732182982031</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>0.2696555379725432</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>1.365840280124445</v>
       </c>
       <c r="N11">
-        <v>0.5530853571761867</v>
+        <v>0</v>
       </c>
       <c r="O11">
-        <v>3.740712647916268</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
+        <v>0.6458918336156998</v>
+      </c>
+      <c r="P11">
+        <v>0.6653179141871881</v>
+      </c>
+      <c r="Q11">
+        <v>1.415203374931366</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>4.66722593332338</v>
+        <v>1.254927103090097</v>
       </c>
       <c r="C12">
-        <v>1.464817150496458</v>
+        <v>0.2478870296964004</v>
       </c>
       <c r="D12">
-        <v>0.8756414242530468</v>
+        <v>0.332634347860548</v>
       </c>
       <c r="E12">
-        <v>0.3988510386251818</v>
+        <v>0.1527343666664862</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.0007639831837654144</v>
+        <v>0.3564218122833012</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>0.05957568326488882</v>
       </c>
       <c r="I12">
-        <v>0.3855438943264744</v>
+        <v>0.004789697879034271</v>
       </c>
       <c r="J12">
-        <v>0.2422696891008371</v>
+        <v>0.2853132329388472</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>0.2494877507290774</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>1.399143712647543</v>
       </c>
       <c r="N12">
-        <v>0.5477137767260132</v>
+        <v>0</v>
       </c>
       <c r="O12">
-        <v>3.820682104030197</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
+        <v>0.4770570798467872</v>
+      </c>
+      <c r="P12">
+        <v>0.6662323499555782</v>
+      </c>
+      <c r="Q12">
+        <v>1.302354948460192</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>4.641479014253548</v>
+        <v>1.256715537544324</v>
       </c>
       <c r="C13">
-        <v>1.456651748899048</v>
+        <v>0.2420528865613818</v>
       </c>
       <c r="D13">
-        <v>0.8712457176337409</v>
+        <v>0.3306507699087575</v>
       </c>
       <c r="E13">
-        <v>0.3967854165741542</v>
+        <v>0.06385813904650739</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.0007643151541466757</v>
+        <v>0.3196309999571696</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>0.1147247378534644</v>
       </c>
       <c r="I13">
-        <v>0.3844283390599514</v>
+        <v>0.004509145441455864</v>
       </c>
       <c r="J13">
-        <v>0.2409678554771659</v>
+        <v>0.2666988930761534</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>0.2308635323401624</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>1.39182219458317</v>
       </c>
       <c r="N13">
-        <v>0.5488602964360112</v>
+        <v>0</v>
       </c>
       <c r="O13">
-        <v>3.803372958351076</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
+        <v>0.3258994211661488</v>
+      </c>
+      <c r="P13">
+        <v>0.67918147873009</v>
+      </c>
+      <c r="Q13">
+        <v>1.185361943854488</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>4.557608224403282</v>
+        <v>1.24049602210755</v>
       </c>
       <c r="C14">
-        <v>1.430059179727948</v>
+        <v>0.2355516606542807</v>
       </c>
       <c r="D14">
-        <v>0.8569544744000268</v>
+        <v>0.3246179151636426</v>
       </c>
       <c r="E14">
-        <v>0.3900698650569723</v>
+        <v>0.03396378743332651</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>0.0007653994829838401</v>
+        <v>0.2929468564267523</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>0.1636864360688435</v>
       </c>
       <c r="I14">
-        <v>0.3808380865769792</v>
+        <v>0.004222307908196221</v>
       </c>
       <c r="J14">
-        <v>0.2367356161563521</v>
+        <v>0.2537602516279804</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>0.2184702847619029</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>1.368319306809866</v>
       </c>
       <c r="N14">
-        <v>0.5526387949212008</v>
+        <v>0</v>
       </c>
       <c r="O14">
-        <v>3.747253209736414</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
+        <v>0.2323455631755493</v>
+      </c>
+      <c r="P14">
+        <v>0.6941231725441348</v>
+      </c>
+      <c r="Q14">
+        <v>1.101649729940021</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>4.506306719202996</v>
+        <v>1.227671002303055</v>
       </c>
       <c r="C15">
-        <v>1.413797946128909</v>
+        <v>0.2330958676791965</v>
       </c>
       <c r="D15">
-        <v>0.8482340110521136</v>
+        <v>0.3209627367094328</v>
       </c>
       <c r="E15">
-        <v>0.3859721758550023</v>
+        <v>0.03090317634840956</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>0.0007660649946228677</v>
+        <v>0.2855586021202399</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>0.1760594350331388</v>
       </c>
       <c r="I15">
-        <v>0.3786751871997751</v>
+        <v>0.0041749933312758</v>
       </c>
       <c r="J15">
-        <v>0.2341533048499826</v>
+        <v>0.2504635649323319</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>0.2154346850748503</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>1.35389773709511</v>
       </c>
       <c r="N15">
-        <v>0.5549832592695978</v>
+        <v>0</v>
       </c>
       <c r="O15">
-        <v>3.71312727857952</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
+        <v>0.2102856106949815</v>
+      </c>
+      <c r="P15">
+        <v>0.6997211130220649</v>
+      </c>
+      <c r="Q15">
+        <v>1.079053496838014</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>4.213353719563031</v>
+        <v>1.150067842540807</v>
       </c>
       <c r="C16">
-        <v>1.321007502246573</v>
+        <v>0.2210815585721662</v>
       </c>
       <c r="D16">
-        <v>0.7987489877008329</v>
+        <v>0.3002051549731277</v>
       </c>
       <c r="E16">
-        <v>0.3627208712315095</v>
+        <v>0.03097282896343545</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>0.0007699000131402054</v>
+        <v>0.2799358905302753</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>0.1627470040893115</v>
       </c>
       <c r="I16">
-        <v>0.3668153909095437</v>
+        <v>0.00355944977581224</v>
       </c>
       <c r="J16">
-        <v>0.2195020380980566</v>
+        <v>0.2507376926442006</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>0.217421133800066</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>1.27093152444192</v>
       </c>
       <c r="N16">
-        <v>0.5688670260173225</v>
+        <v>0</v>
       </c>
       <c r="O16">
-        <v>3.521226374037099</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15">
+        <v>0.2002079149586464</v>
+      </c>
+      <c r="P16">
+        <v>0.7131859246199603</v>
+      </c>
+      <c r="Q16">
+        <v>1.067531238255697</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>4.03449213553364</v>
+        <v>1.099220251289807</v>
       </c>
       <c r="C17">
-        <v>1.264410711365429</v>
+        <v>0.2153762924669138</v>
       </c>
       <c r="D17">
-        <v>0.7688037265177172</v>
+        <v>0.2875666174545159</v>
       </c>
       <c r="E17">
-        <v>0.3486514745642992</v>
+        <v>0.04143432856653728</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>0.0007722725436504781</v>
+        <v>0.2896751859620039</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>0.1247058873849198</v>
       </c>
       <c r="I17">
-        <v>0.3599955958656622</v>
+        <v>0.0032759432415288</v>
       </c>
       <c r="J17">
-        <v>0.2106374666643234</v>
+        <v>0.2578099048869689</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>0.2254663978369607</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>1.219925953140688</v>
       </c>
       <c r="N17">
-        <v>0.5777723262271053</v>
+        <v>0</v>
       </c>
       <c r="O17">
-        <v>3.40660436555919</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15">
+        <v>0.2390656567817793</v>
+      </c>
+      <c r="P17">
+        <v>0.7156565872334433</v>
+      </c>
+      <c r="Q17">
+        <v>1.102877892422327</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3.931904079951494</v>
+        <v>1.067490415720243</v>
       </c>
       <c r="C18">
-        <v>1.231967918442479</v>
+        <v>0.2135208881672952</v>
       </c>
       <c r="D18">
-        <v>0.7517224512127711</v>
+        <v>0.2803887447050215</v>
       </c>
       <c r="E18">
-        <v>0.3406262205713588</v>
+        <v>0.08975977628518805</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>0.0007736448147217037</v>
+        <v>0.3150718898828586</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>0.07193693868329376</v>
       </c>
       <c r="I18">
-        <v>0.3562323075020117</v>
+        <v>0.002953433196529964</v>
       </c>
       <c r="J18">
-        <v>0.2055812896310698</v>
+        <v>0.272113825728816</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>0.2406446415269592</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>1.190562628923828</v>
       </c>
       <c r="N18">
-        <v>0.583032340434535</v>
+        <v>0</v>
       </c>
       <c r="O18">
-        <v>3.34175450657537</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15">
+        <v>0.3373231776247394</v>
+      </c>
+      <c r="P18">
+        <v>0.7110237931844132</v>
+      </c>
+      <c r="Q18">
+        <v>1.186611016127188</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3.8972166774534</v>
+        <v>1.049605153980082</v>
       </c>
       <c r="C19">
-        <v>1.221001353287932</v>
+        <v>0.2170396088016986</v>
       </c>
       <c r="D19">
-        <v>0.7459626631654714</v>
+        <v>0.2780766809848814</v>
       </c>
       <c r="E19">
-        <v>0.3379201280252602</v>
+        <v>0.2069667788525607</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>0.0007741107890417037</v>
+        <v>0.3505164934194269</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>0.02717750613519598</v>
       </c>
       <c r="I19">
-        <v>0.3549847243056306</v>
+        <v>0.003131859768071621</v>
       </c>
       <c r="J19">
-        <v>0.2038763875917482</v>
+        <v>0.2906637935248924</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>0.2597283349335804</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>1.180792427623373</v>
       </c>
       <c r="N19">
-        <v>0.5848365482356215</v>
+        <v>0</v>
       </c>
       <c r="O19">
-        <v>3.31997681450261</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15">
+        <v>0.4964515699268475</v>
+      </c>
+      <c r="P19">
+        <v>0.7050211921884006</v>
+      </c>
+      <c r="Q19">
+        <v>1.300585080823879</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>4.05350183694577</v>
+        <v>1.078133581428148</v>
       </c>
       <c r="C20">
-        <v>1.270423912553838</v>
+        <v>0.2318600585817876</v>
       </c>
       <c r="D20">
-        <v>0.7719765095381206</v>
+        <v>0.2894811275409523</v>
       </c>
       <c r="E20">
-        <v>0.3501421456680589</v>
+        <v>0.5078084572852006</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>0.0007720191992832343</v>
+        <v>0.4162265067686519</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>0.003046410848462688</v>
       </c>
       <c r="I20">
-        <v>0.3607049091445305</v>
+        <v>0.003830222985919285</v>
       </c>
       <c r="J20">
-        <v>0.2115766542626289</v>
+        <v>0.322126715325993</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>0.2915403522137296</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>1.22625358061768</v>
       </c>
       <c r="N20">
-        <v>0.5768099642635605</v>
+        <v>0</v>
       </c>
       <c r="O20">
-        <v>3.418693160852001</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15">
+        <v>0.8201568111493458</v>
+      </c>
+      <c r="P20">
+        <v>0.6922332765808861</v>
+      </c>
+      <c r="Q20">
+        <v>1.505894163849547</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>4.582227991654804</v>
+        <v>1.212176509059333</v>
       </c>
       <c r="C21">
-        <v>1.437864272961235</v>
+        <v>0.2573528099873386</v>
       </c>
       <c r="D21">
-        <v>0.8611451567218182</v>
+        <v>0.3271338196246205</v>
       </c>
       <c r="E21">
-        <v>0.3920390699430953</v>
+        <v>0.5968517179299369</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>0.0007650807145218655</v>
+        <v>0.4491394332863621</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>0.005011429736159312</v>
       </c>
       <c r="I21">
-        <v>0.3818850296271421</v>
+        <v>0.005361045989918267</v>
       </c>
       <c r="J21">
-        <v>0.2379766137467101</v>
+        <v>0.3329651941572394</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>0.2993657319152128</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>1.376624166049709</v>
       </c>
       <c r="N21">
-        <v>0.5515226728196225</v>
+        <v>0</v>
       </c>
       <c r="O21">
-        <v>3.763684659978708</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15">
+        <v>0.9502527176067801</v>
+      </c>
+      <c r="P21">
+        <v>0.6604916407436656</v>
+      </c>
+      <c r="Q21">
+        <v>1.598681061859025</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>4.930922175570572</v>
+        <v>1.302733536088965</v>
       </c>
       <c r="C22">
-        <v>1.548498733381052</v>
+        <v>0.2724274503200519</v>
       </c>
       <c r="D22">
-        <v>0.9208892749429936</v>
+        <v>0.3519351698987521</v>
       </c>
       <c r="E22">
-        <v>0.4201153470283856</v>
+        <v>0.6381403124555618</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>0.0007606064551131682</v>
+        <v>0.469637905029515</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>0.006479761981000531</v>
       </c>
       <c r="I22">
-        <v>0.3973266513311557</v>
+        <v>0.006251524193581659</v>
       </c>
       <c r="J22">
-        <v>0.2556727104111616</v>
+        <v>0.3395988983879192</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>0.3043451177487846</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>1.474954718546712</v>
       </c>
       <c r="N22">
-        <v>0.5363269670419868</v>
+        <v>0</v>
       </c>
       <c r="O22">
-        <v>4.000131000566</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15">
+        <v>1.019578854634929</v>
+      </c>
+      <c r="P22">
+        <v>0.6403426209802907</v>
+      </c>
+      <c r="Q22">
+        <v>1.656227362900893</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>4.744500685487992</v>
+        <v>1.256855403738854</v>
       </c>
       <c r="C23">
-        <v>1.489329608971502</v>
+        <v>0.2630489199969617</v>
       </c>
       <c r="D23">
-        <v>0.8888582542831784</v>
+        <v>0.3386839460586657</v>
       </c>
       <c r="E23">
-        <v>0.4050620160357425</v>
+        <v>0.6161290382026081</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>0.0007629893158329841</v>
+        <v>0.4599930603812936</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>0.005679902039446239</v>
       </c>
       <c r="I23">
-        <v>0.388929574884898</v>
+        <v>0.005486628347154188</v>
       </c>
       <c r="J23">
-        <v>0.2461842267968706</v>
+        <v>0.3367132797059611</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>0.3027646085414659</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>1.422470489474193</v>
       </c>
       <c r="N23">
-        <v>0.5443101641447683</v>
+        <v>0</v>
       </c>
       <c r="O23">
-        <v>3.872860281852866</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15">
+        <v>0.9825675089172066</v>
+      </c>
+      <c r="P23">
+        <v>0.6511620184996252</v>
+      </c>
+      <c r="Q23">
+        <v>1.629632290609692</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>4.044906803753577</v>
+        <v>1.0788479606301</v>
       </c>
       <c r="C24">
-        <v>1.267705049336257</v>
+        <v>0.2299990935166392</v>
       </c>
       <c r="D24">
-        <v>0.7705416770444913</v>
+        <v>0.2889013494794597</v>
       </c>
       <c r="E24">
-        <v>0.3494680167286219</v>
+        <v>0.5329147492594544</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>0.0007721337103943672</v>
+        <v>0.4222800059638274</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>0.003074501361264526</v>
       </c>
       <c r="I24">
-        <v>0.3603837399643623</v>
+        <v>0.003386785172216911</v>
       </c>
       <c r="J24">
-        <v>0.2111519230703891</v>
+        <v>0.3252686063578238</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>0.2955093902173189</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>1.223895426293865</v>
       </c>
       <c r="N24">
-        <v>0.5772446124008184</v>
+        <v>0</v>
       </c>
       <c r="O24">
-        <v>3.413224567405734</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15">
+        <v>0.8427204133962363</v>
+      </c>
+      <c r="P24">
+        <v>0.6931361822454001</v>
+      </c>
+      <c r="Q24">
+        <v>1.525303732856173</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>3.301037490364649</v>
+        <v>0.886260396513137</v>
       </c>
       <c r="C25">
-        <v>1.032756710637756</v>
+        <v>0.1948704241322901</v>
       </c>
       <c r="D25">
-        <v>0.6482705762145144</v>
+        <v>0.2359449217625667</v>
       </c>
       <c r="E25">
-        <v>0.2920205052118092</v>
+        <v>0.4434533977735526</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>0.0007822937697281363</v>
+        <v>0.3835488279111132</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>0.0010888434025913</v>
       </c>
       <c r="I25">
-        <v>0.3355962978575704</v>
+        <v>0.001852554238665149</v>
       </c>
       <c r="J25">
-        <v>0.1749585712307749</v>
+        <v>0.3141134499796294</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>0.2887449359115273</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>1.009922156341929</v>
       </c>
       <c r="N25">
-        <v>0.6179935841178334</v>
+        <v>0</v>
       </c>
       <c r="O25">
-        <v>2.957985959031191</v>
+        <v>0.6923974887381377</v>
+      </c>
+      <c r="P25">
+        <v>0.7407679400221943</v>
+      </c>
+      <c r="Q25">
+        <v>1.419363758623319</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_27/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_4_27/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1277 +421,1427 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.7496263988654732</v>
+        <v>0.7186860962804644</v>
       </c>
       <c r="C2">
-        <v>0.1662266661506777</v>
+        <v>0.1775599350429076</v>
       </c>
       <c r="D2">
-        <v>0.1974574784973129</v>
+        <v>0.1975116360171256</v>
       </c>
       <c r="E2">
-        <v>0.3777740778031173</v>
+        <v>0.378073544910059</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>0.3597361078010763</v>
+        <v>0.3194329787093366</v>
       </c>
       <c r="H2">
-        <v>0.0002457339348680421</v>
+        <v>0.0002648932198376919</v>
       </c>
       <c r="I2">
-        <v>0.0006268008419700877</v>
+        <v>0.0008497098608595266</v>
       </c>
       <c r="J2">
-        <v>0.3084959272629888</v>
+        <v>0.3315132503348437</v>
       </c>
       <c r="K2">
-        <v>0.2872882246665398</v>
+        <v>0.2643590233566719</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>0.1466571319434316</v>
       </c>
       <c r="M2">
-        <v>0.8523146769232994</v>
+        <v>0.06247648040500309</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>0.5819614374363553</v>
+        <v>0.8525550891453122</v>
       </c>
       <c r="P2">
-        <v>0.7782622907321093</v>
+        <v>0</v>
       </c>
       <c r="Q2">
-        <v>1.356748082977745</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>0.5823947005494503</v>
+      </c>
+      <c r="R2">
+        <v>0.765417741642457</v>
+      </c>
+      <c r="S2">
+        <v>1.284323850424883</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.653192419549697</v>
+        <v>0.6300418066552425</v>
       </c>
       <c r="C3">
-        <v>0.1487762793512957</v>
+        <v>0.1555744149121239</v>
       </c>
       <c r="D3">
-        <v>0.1716097451417085</v>
+        <v>0.1716930140916446</v>
       </c>
       <c r="E3">
-        <v>0.3332030034360756</v>
+        <v>0.3338589471765019</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>0.3424980767250432</v>
+        <v>0.3059518009564499</v>
       </c>
       <c r="H3">
-        <v>1.108640676084072E-05</v>
+        <v>1.847617422412462E-05</v>
       </c>
       <c r="I3">
-        <v>0.000424881109145403</v>
+        <v>0.0005714647660508554</v>
       </c>
       <c r="J3">
-        <v>0.3042513781633289</v>
+        <v>0.326562586317479</v>
       </c>
       <c r="K3">
-        <v>0.2852070564473266</v>
+        <v>0.2642795792871055</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>0.1508452668254598</v>
       </c>
       <c r="M3">
-        <v>0.7453381239865422</v>
+        <v>0.05955654855689652</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>0.5071626630405319</v>
+        <v>0.7459520000673052</v>
       </c>
       <c r="P3">
-        <v>0.8045199877631801</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>1.311049700854142</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>0.5076645076373865</v>
+      </c>
+      <c r="R3">
+        <v>0.7896905451264216</v>
+      </c>
+      <c r="S3">
+        <v>1.248073994207289</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.5936371155880522</v>
+        <v>0.5751306057297825</v>
       </c>
       <c r="C4">
-        <v>0.1381742814838276</v>
+        <v>0.142286434099347</v>
       </c>
       <c r="D4">
-        <v>0.1558375533522423</v>
+        <v>0.1559333757072068</v>
       </c>
       <c r="E4">
-        <v>0.3058079168464687</v>
+        <v>0.306678775905695</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>0.3322086682651033</v>
+        <v>0.2979623767241293</v>
       </c>
       <c r="H4">
-        <v>2.057938388588809E-05</v>
+        <v>1.112029254590752E-05</v>
       </c>
       <c r="I4">
-        <v>0.0004409117672317109</v>
+        <v>0.0005195309216676769</v>
       </c>
       <c r="J4">
-        <v>0.3018598119473737</v>
+        <v>0.3235812062889423</v>
       </c>
       <c r="K4">
-        <v>0.2840953022585211</v>
+        <v>0.2643271995119356</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>0.1535008768302966</v>
       </c>
       <c r="M4">
-        <v>0.6795414433516527</v>
+        <v>0.05825644363296867</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>0.461230870879568</v>
+        <v>0.6803599092842347</v>
       </c>
       <c r="P4">
-        <v>0.8211552116870413</v>
+        <v>0</v>
       </c>
       <c r="Q4">
-        <v>1.28405761178864</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>0.4617640266151497</v>
+      </c>
+      <c r="R4">
+        <v>0.8051154798106044</v>
+      </c>
+      <c r="S4">
+        <v>1.22658479392193</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.5686864907042946</v>
+        <v>0.5520493898320069</v>
       </c>
       <c r="C5">
-        <v>0.1341959657452492</v>
+        <v>0.1372630232666552</v>
       </c>
       <c r="D5">
-        <v>0.149431413021972</v>
+        <v>0.1495312082182778</v>
       </c>
       <c r="E5">
-        <v>0.2946245271319938</v>
+        <v>0.2955824078922902</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>0.3277446634335845</v>
+        <v>0.2944475181520545</v>
       </c>
       <c r="H5">
-        <v>6.121307274686849E-05</v>
+        <v>4.257860512901779E-05</v>
       </c>
       <c r="I5">
-        <v>0.0005469106449811356</v>
+        <v>0.0006051859238009882</v>
       </c>
       <c r="J5">
-        <v>0.3007613449283397</v>
+        <v>0.322201215417941</v>
       </c>
       <c r="K5">
-        <v>0.2833977774816709</v>
+        <v>0.2641004595979091</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>0.1544633928460257</v>
       </c>
       <c r="M5">
-        <v>0.652695816633198</v>
+        <v>0.05778646081466299</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>0.4425076751312673</v>
+        <v>0.6535928422521522</v>
       </c>
       <c r="P5">
-        <v>0.8279833996962815</v>
+        <v>0</v>
       </c>
       <c r="Q5">
-        <v>1.272222152926048</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>0.4430513134464178</v>
+      </c>
+      <c r="R5">
+        <v>0.8114759021806561</v>
+      </c>
+      <c r="S5">
+        <v>1.216948391616754</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.5638113799457471</v>
+        <v>0.5474962297712125</v>
       </c>
       <c r="C6">
-        <v>0.1339256362006012</v>
+        <v>0.136851631769062</v>
       </c>
       <c r="D6">
-        <v>0.1483679894479906</v>
+        <v>0.1484684118787527</v>
       </c>
       <c r="E6">
-        <v>0.2927551382395635</v>
+        <v>0.293727712321143</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>0.3265906672765411</v>
+        <v>0.2934682466021101</v>
       </c>
       <c r="H6">
-        <v>7.031711806138041E-05</v>
+        <v>4.998901728026084E-05</v>
       </c>
       <c r="I6">
-        <v>0.0006544948843929532</v>
+        <v>0.0007257343512039327</v>
       </c>
       <c r="J6">
-        <v>0.3003667578538582</v>
+        <v>0.3217539883681653</v>
       </c>
       <c r="K6">
-        <v>0.2829365057336091</v>
+        <v>0.2637354818300786</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>0.154453209343032</v>
       </c>
       <c r="M6">
-        <v>0.648235725171844</v>
+        <v>0.05763766302222351</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.4393977331369925</v>
+        <v>0.649146220351966</v>
       </c>
       <c r="P6">
-        <v>0.8290323911614452</v>
+        <v>0</v>
       </c>
       <c r="Q6">
-        <v>1.268937217188608</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>0.4399430820011432</v>
+      </c>
+      <c r="R6">
+        <v>0.8124760033767968</v>
+      </c>
+      <c r="S6">
+        <v>1.21406093415716</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.5913088467479497</v>
+        <v>0.5725403968602336</v>
       </c>
       <c r="C7">
-        <v>0.1391845674765904</v>
+        <v>0.1430915191720175</v>
       </c>
       <c r="D7">
-        <v>0.1557484094841044</v>
+        <v>0.1558423436166549</v>
       </c>
       <c r="E7">
-        <v>0.3056253575300119</v>
+        <v>0.3065616465112555</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>0.3310093375228504</v>
+        <v>0.2993859833355685</v>
       </c>
       <c r="H7">
-        <v>2.126134457314244E-05</v>
+        <v>1.175601965419659E-05</v>
       </c>
       <c r="I7">
-        <v>0.0006675245293177312</v>
+        <v>0.0007887767210084107</v>
       </c>
       <c r="J7">
-        <v>0.3012574346823556</v>
+        <v>0.3191387040774956</v>
       </c>
       <c r="K7">
-        <v>0.2831361919201321</v>
+        <v>0.2631045965914396</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>0.1528951973230157</v>
       </c>
       <c r="M7">
-        <v>0.6791784486314612</v>
+        <v>0.057942335289205</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.460976710180141</v>
+        <v>0.6793181894319531</v>
       </c>
       <c r="P7">
-        <v>0.821005074159229</v>
+        <v>0</v>
       </c>
       <c r="Q7">
-        <v>1.280252204005237</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>0.4613522817838032</v>
+      </c>
+      <c r="R7">
+        <v>0.8049856922659888</v>
+      </c>
+      <c r="S7">
+        <v>1.220668003201794</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.7137832421947792</v>
+        <v>0.6845264682078493</v>
       </c>
       <c r="C8">
-        <v>0.161606435217962</v>
+        <v>0.1705435020179493</v>
       </c>
       <c r="D8">
-        <v>0.1885189267630665</v>
+        <v>0.1885767578597921</v>
       </c>
       <c r="E8">
-        <v>0.3623686887077611</v>
+        <v>0.3630093768023173</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>0.3522218719406851</v>
+        <v>0.321871654274851</v>
       </c>
       <c r="H8">
-        <v>0.000130863140305193</v>
+        <v>0.0001463916193660264</v>
       </c>
       <c r="I8">
-        <v>0.0007971425522539377</v>
+        <v>0.001049297184858133</v>
       </c>
       <c r="J8">
-        <v>0.3062128557944774</v>
+        <v>0.3165459869140435</v>
       </c>
       <c r="K8">
-        <v>0.2852833976258182</v>
+        <v>0.2620813987066555</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>0.1470554838286979</v>
       </c>
       <c r="M8">
-        <v>0.8154470614926197</v>
+        <v>0.06070234704637123</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.5561663310791474</v>
+        <v>0.8135372781308945</v>
       </c>
       <c r="P8">
-        <v>0.7869353089692885</v>
+        <v>0</v>
       </c>
       <c r="Q8">
-        <v>1.335946655376802</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>0.5560949126272234</v>
+      </c>
+      <c r="R8">
+        <v>0.7734246126174549</v>
+      </c>
+      <c r="S8">
+        <v>1.259580904654484</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.9548878074944298</v>
+        <v>0.9050186029808174</v>
       </c>
       <c r="C9">
-        <v>0.2046797041285657</v>
+        <v>0.2251142990251225</v>
       </c>
       <c r="D9">
-        <v>0.2537042062396324</v>
+        <v>0.2536474339877657</v>
       </c>
       <c r="E9">
-        <v>0.4736176270081884</v>
+        <v>0.4734040149596979</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>0.3983976088276648</v>
+        <v>0.361004697231607</v>
       </c>
       <c r="H9">
-        <v>0.001659755459876511</v>
+        <v>0.001640204550533042</v>
       </c>
       <c r="I9">
-        <v>0.001902883732360472</v>
+        <v>0.00215848625245485</v>
       </c>
       <c r="J9">
-        <v>0.3187637746975156</v>
+        <v>0.3265271955086178</v>
       </c>
       <c r="K9">
-        <v>0.2925748314108603</v>
+        <v>0.2636446901954521</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>0.1375860142683862</v>
       </c>
       <c r="M9">
-        <v>1.082000974077289</v>
+        <v>0.07082617471430908</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.7429898989790829</v>
+        <v>1.078306354021976</v>
       </c>
       <c r="P9">
-        <v>0.7246901110213186</v>
+        <v>0</v>
       </c>
       <c r="Q9">
-        <v>1.460743423812659</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>0.7425113999712707</v>
+      </c>
+      <c r="R9">
+        <v>0.7161821890560667</v>
+      </c>
+      <c r="S9">
+        <v>1.35691903557165</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.13051021264846</v>
+        <v>1.063385034531336</v>
       </c>
       <c r="C10">
-        <v>0.2369904411328747</v>
+        <v>0.2643054082320333</v>
       </c>
       <c r="D10">
-        <v>0.3023203784124462</v>
+        <v>0.3021202754584493</v>
       </c>
       <c r="E10">
-        <v>0.5220393664070073</v>
+        <v>0.5215698931057702</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>0.4278624108353739</v>
+        <v>0.401367195715153</v>
       </c>
       <c r="H10">
-        <v>0.003669086784202413</v>
+        <v>0.00355658766736866</v>
       </c>
       <c r="I10">
-        <v>0.003636626040514734</v>
+        <v>0.003771902302297292</v>
       </c>
       <c r="J10">
-        <v>0.3260429821293371</v>
+        <v>0.3109380602878531</v>
       </c>
       <c r="K10">
-        <v>0.29536881762197</v>
+        <v>0.2606701269473142</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>0.1293867642825859</v>
       </c>
       <c r="M10">
-        <v>1.27765174523762</v>
+        <v>0.07878047883509254</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.849417517833011</v>
+        <v>1.268329269840308</v>
       </c>
       <c r="P10">
-        <v>0.6814727080829819</v>
+        <v>0</v>
       </c>
       <c r="Q10">
-        <v>1.538871067485161</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>0.8476297717707908</v>
+      </c>
+      <c r="R10">
+        <v>0.6776218486261332</v>
+      </c>
+      <c r="S10">
+        <v>1.402487549677375</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.21601194252051</v>
+        <v>1.142602222211394</v>
       </c>
       <c r="C11">
-        <v>0.2475575799787322</v>
+        <v>0.2716164628337197</v>
       </c>
       <c r="D11">
-        <v>0.3243591200187694</v>
+        <v>0.3240710303969934</v>
       </c>
       <c r="E11">
-        <v>0.2961838514659689</v>
+        <v>0.2960843719826372</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.3910519220526822</v>
+        <v>0.399636389017445</v>
       </c>
       <c r="H11">
-        <v>0.02151587380847886</v>
+        <v>0.0213788249772584</v>
       </c>
       <c r="I11">
-        <v>0.004675191482364838</v>
+        <v>0.004815444998027552</v>
       </c>
       <c r="J11">
-        <v>0.3041732182982031</v>
+        <v>0.2552679536893407</v>
       </c>
       <c r="K11">
-        <v>0.2696555379725432</v>
+        <v>0.2346015228300686</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>0.1174209792274521</v>
       </c>
       <c r="M11">
-        <v>1.365840280124445</v>
+        <v>0.07232751564221118</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>0.6458918336156998</v>
+        <v>1.346716080566864</v>
       </c>
       <c r="P11">
-        <v>0.6653179141871881</v>
+        <v>0</v>
       </c>
       <c r="Q11">
-        <v>1.415203374931366</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>0.6425495686667873</v>
+      </c>
+      <c r="R11">
+        <v>0.6717244286998287</v>
+      </c>
+      <c r="S11">
+        <v>1.262025158521425</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.254927103090097</v>
+        <v>1.181122330954054</v>
       </c>
       <c r="C12">
-        <v>0.2478870296964004</v>
+        <v>0.2685826935267528</v>
       </c>
       <c r="D12">
-        <v>0.332634347860548</v>
+        <v>0.3323160519963295</v>
       </c>
       <c r="E12">
-        <v>0.1527343666664862</v>
+        <v>0.1525038315575493</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.3564218122833012</v>
+        <v>0.3811168261413229</v>
       </c>
       <c r="H12">
-        <v>0.05957568326488882</v>
+        <v>0.05944544098309734</v>
       </c>
       <c r="I12">
-        <v>0.004789697879034271</v>
+        <v>0.004899033480733728</v>
       </c>
       <c r="J12">
-        <v>0.2853132329388472</v>
+        <v>0.2281694624495714</v>
       </c>
       <c r="K12">
-        <v>0.2494877507290774</v>
+        <v>0.216475418049356</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>0.110420570486399</v>
       </c>
       <c r="M12">
-        <v>1.399143712647543</v>
+        <v>0.06615644977838997</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>0.4770570798467872</v>
+        <v>1.375394116522926</v>
       </c>
       <c r="P12">
-        <v>0.6662323499555782</v>
+        <v>0</v>
       </c>
       <c r="Q12">
-        <v>1.302354948460192</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>0.4735232092452719</v>
+      </c>
+      <c r="R12">
+        <v>0.6803992750871721</v>
+      </c>
+      <c r="S12">
+        <v>1.150737713762865</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.256715537544324</v>
+        <v>1.188190018273588</v>
       </c>
       <c r="C13">
-        <v>0.2420528865613818</v>
+        <v>0.2600440211522539</v>
       </c>
       <c r="D13">
-        <v>0.3306507699087575</v>
+        <v>0.3303571415651874</v>
       </c>
       <c r="E13">
-        <v>0.06385813904650739</v>
+        <v>0.06326926173267999</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.3196309999571696</v>
+        <v>0.3409333959380376</v>
       </c>
       <c r="H13">
-        <v>0.1147247378534644</v>
+        <v>0.1146224300211998</v>
       </c>
       <c r="I13">
-        <v>0.004509145441455864</v>
+        <v>0.004647521205241922</v>
       </c>
       <c r="J13">
-        <v>0.2666988930761534</v>
+        <v>0.2201630700943795</v>
       </c>
       <c r="K13">
-        <v>0.2308635323401624</v>
+        <v>0.202286471231691</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>0.1059657448964124</v>
       </c>
       <c r="M13">
-        <v>1.39182219458317</v>
+        <v>0.05970793566113741</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>0.3258994211661488</v>
+        <v>1.3692112000289</v>
       </c>
       <c r="P13">
-        <v>0.67918147873009</v>
+        <v>0</v>
       </c>
       <c r="Q13">
-        <v>1.185361943854488</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>0.3231687048613097</v>
+      </c>
+      <c r="R13">
+        <v>0.6979468681447685</v>
+      </c>
+      <c r="S13">
+        <v>1.052852635679443</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.24049602210755</v>
+        <v>1.178228165616133</v>
       </c>
       <c r="C14">
-        <v>0.2355516606542807</v>
+        <v>0.251936089904973</v>
       </c>
       <c r="D14">
-        <v>0.3246179151636426</v>
+        <v>0.324365004649664</v>
       </c>
       <c r="E14">
-        <v>0.03396378743332651</v>
+        <v>0.03317014079888825</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>0.2929468564267523</v>
+        <v>0.304551796190772</v>
       </c>
       <c r="H14">
-        <v>0.1636864360688435</v>
+        <v>0.1636084915682687</v>
       </c>
       <c r="I14">
-        <v>0.004222307908196221</v>
+        <v>0.00441958396615405</v>
       </c>
       <c r="J14">
-        <v>0.2537602516279804</v>
+        <v>0.2212895218650104</v>
       </c>
       <c r="K14">
-        <v>0.2184702847619029</v>
+        <v>0.1938338393678087</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>0.1037578163236255</v>
       </c>
       <c r="M14">
-        <v>1.368319306809866</v>
+        <v>0.05509127909707523</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>0.2323455631755493</v>
+        <v>1.349042335695515</v>
       </c>
       <c r="P14">
-        <v>0.6941231725441348</v>
+        <v>0</v>
       </c>
       <c r="Q14">
-        <v>1.101649729940021</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>0.2304175762233953</v>
+      </c>
+      <c r="R14">
+        <v>0.7140445224199112</v>
+      </c>
+      <c r="S14">
+        <v>0.9890158802085125</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.227671002303055</v>
+        <v>1.168064496407339</v>
       </c>
       <c r="C15">
-        <v>0.2330958676791965</v>
+        <v>0.2492017328718816</v>
       </c>
       <c r="D15">
-        <v>0.3209627367094328</v>
+        <v>0.3207305116233385</v>
       </c>
       <c r="E15">
-        <v>0.03090317634840956</v>
+        <v>0.03009832533349677</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>0.2855586021202399</v>
+        <v>0.2918801216879885</v>
       </c>
       <c r="H15">
-        <v>0.1760594350331388</v>
+        <v>0.1759911794914757</v>
       </c>
       <c r="I15">
-        <v>0.0041749933312758</v>
+        <v>0.004420170322169348</v>
       </c>
       <c r="J15">
-        <v>0.2504635649323319</v>
+        <v>0.2244072685048408</v>
       </c>
       <c r="K15">
-        <v>0.2154346850748503</v>
+        <v>0.1921573144654722</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>0.1035297474143242</v>
       </c>
       <c r="M15">
-        <v>1.35389773709511</v>
+        <v>0.05380149583083771</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0.2102856106949815</v>
+        <v>1.336520173037854</v>
       </c>
       <c r="P15">
-        <v>0.6997211130220649</v>
+        <v>0</v>
       </c>
       <c r="Q15">
-        <v>1.079053496838014</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>0.2086480770577701</v>
+      </c>
+      <c r="R15">
+        <v>0.7191063799362141</v>
+      </c>
+      <c r="S15">
+        <v>0.9741371480343872</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.150067842540807</v>
+        <v>1.100180284670472</v>
       </c>
       <c r="C16">
-        <v>0.2210815585721662</v>
+        <v>0.2375225799729463</v>
       </c>
       <c r="D16">
-        <v>0.3002051549731277</v>
+        <v>0.3000671350955031</v>
       </c>
       <c r="E16">
-        <v>0.03097282896343545</v>
+        <v>0.03041206758387949</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>0.2799358905302753</v>
+        <v>0.2624176243913539</v>
       </c>
       <c r="H16">
-        <v>0.1627470040893115</v>
+        <v>0.1627152245800261</v>
       </c>
       <c r="I16">
-        <v>0.00355944977581224</v>
+        <v>0.003923262160155261</v>
       </c>
       <c r="J16">
-        <v>0.2507376926442006</v>
+        <v>0.2520212768165848</v>
       </c>
       <c r="K16">
-        <v>0.217421133800066</v>
+        <v>0.1974695512327429</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>0.1072036275814945</v>
       </c>
       <c r="M16">
-        <v>1.27093152444192</v>
+        <v>0.05286827415195638</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0.2002079149586464</v>
+        <v>1.262489289924076</v>
       </c>
       <c r="P16">
-        <v>0.7131859246199603</v>
+        <v>0</v>
       </c>
       <c r="Q16">
-        <v>1.067531238255697</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>0.1995084327823911</v>
+      </c>
+      <c r="R16">
+        <v>0.7258825076770776</v>
+      </c>
+      <c r="S16">
+        <v>0.987210264087139</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.099220251289807</v>
+        <v>1.052803365316919</v>
       </c>
       <c r="C17">
-        <v>0.2153762924669138</v>
+        <v>0.232486303991891</v>
       </c>
       <c r="D17">
-        <v>0.2875666174545159</v>
+        <v>0.2874717885937486</v>
       </c>
       <c r="E17">
-        <v>0.04143432856653728</v>
+        <v>0.04100646029706834</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>0.2896751859620039</v>
+        <v>0.2616174120309438</v>
       </c>
       <c r="H17">
-        <v>0.1247058873849198</v>
+        <v>0.1246873077860471</v>
       </c>
       <c r="I17">
-        <v>0.0032759432415288</v>
+        <v>0.003693530396462918</v>
       </c>
       <c r="J17">
-        <v>0.2578099048869689</v>
+        <v>0.2713042634847085</v>
       </c>
       <c r="K17">
-        <v>0.2254663978369607</v>
+        <v>0.2058616831283118</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>0.1113909564461064</v>
       </c>
       <c r="M17">
-        <v>1.219925953140688</v>
+        <v>0.05437481500658947</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0.2390656567817793</v>
+        <v>1.215318074569723</v>
       </c>
       <c r="P17">
-        <v>0.7156565872334433</v>
+        <v>0</v>
       </c>
       <c r="Q17">
-        <v>1.102877892422327</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>0.238735571858296</v>
+      </c>
+      <c r="R17">
+        <v>0.7239426186128881</v>
+      </c>
+      <c r="S17">
+        <v>1.029342470698609</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.067490415720243</v>
+        <v>1.020468846007532</v>
       </c>
       <c r="C18">
-        <v>0.2135208881672952</v>
+        <v>0.2322189968348596</v>
       </c>
       <c r="D18">
-        <v>0.2803887447050215</v>
+        <v>0.2803089355208641</v>
       </c>
       <c r="E18">
-        <v>0.08975977628518805</v>
+        <v>0.08934714155555668</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>0.3150718898828586</v>
+        <v>0.2805339631711661</v>
       </c>
       <c r="H18">
-        <v>0.07193693868329376</v>
+        <v>0.0719204610723807</v>
       </c>
       <c r="I18">
-        <v>0.002953433196529964</v>
+        <v>0.003339603227241028</v>
       </c>
       <c r="J18">
-        <v>0.272113825728816</v>
+        <v>0.2901180419589124</v>
       </c>
       <c r="K18">
-        <v>0.2406446415269592</v>
+        <v>0.2193132892025389</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>0.1170736637008556</v>
       </c>
       <c r="M18">
-        <v>1.190562628923828</v>
+        <v>0.05855365193512441</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0.3373231776247394</v>
+        <v>1.187553070492271</v>
       </c>
       <c r="P18">
-        <v>0.7110237931844132</v>
+        <v>0</v>
       </c>
       <c r="Q18">
-        <v>1.186611016127188</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>0.3371499858197495</v>
+      </c>
+      <c r="R18">
+        <v>0.715371444499862</v>
+      </c>
+      <c r="S18">
+        <v>1.109323093859913</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.049605153980082</v>
+        <v>0.9992780314061918</v>
       </c>
       <c r="C19">
-        <v>0.2170396088016986</v>
+        <v>0.23842468017817</v>
       </c>
       <c r="D19">
-        <v>0.2780766809848814</v>
+        <v>0.2779917717223128</v>
       </c>
       <c r="E19">
-        <v>0.2069667788525607</v>
+        <v>0.2064781661155664</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>0.3505164934194269</v>
+        <v>0.311151965751634</v>
       </c>
       <c r="H19">
-        <v>0.02717750613519598</v>
+        <v>0.02715376338959885</v>
       </c>
       <c r="I19">
-        <v>0.003131859768071621</v>
+        <v>0.003536839088948085</v>
       </c>
       <c r="J19">
-        <v>0.2906637935248924</v>
+        <v>0.3086853069236852</v>
       </c>
       <c r="K19">
-        <v>0.2597283349335804</v>
+        <v>0.2353171071328433</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>0.1233114636053916</v>
       </c>
       <c r="M19">
-        <v>1.180792427623373</v>
+        <v>0.06435928528484602</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>0.4964515699268475</v>
+        <v>1.178165868414396</v>
       </c>
       <c r="P19">
-        <v>0.7050211921884006</v>
+        <v>0</v>
       </c>
       <c r="Q19">
-        <v>1.300585080823879</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>0.4962963019828663</v>
+      </c>
+      <c r="R19">
+        <v>0.7055076174139003</v>
+      </c>
+      <c r="S19">
+        <v>1.212717520447626</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.078133581428148</v>
+        <v>1.017034282718811</v>
       </c>
       <c r="C20">
-        <v>0.2318600585817876</v>
+        <v>0.2587681903378467</v>
       </c>
       <c r="D20">
-        <v>0.2894811275409523</v>
+        <v>0.2893344664003337</v>
       </c>
       <c r="E20">
-        <v>0.5078084572852006</v>
+        <v>0.5071738443967817</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>0.4162265067686519</v>
+        <v>0.3774628809979816</v>
       </c>
       <c r="H20">
-        <v>0.003046410848462688</v>
+        <v>0.002970275026416225</v>
       </c>
       <c r="I20">
-        <v>0.003830222985919285</v>
+        <v>0.004179034321269981</v>
       </c>
       <c r="J20">
-        <v>0.322126715325993</v>
+        <v>0.3257725333087009</v>
       </c>
       <c r="K20">
-        <v>0.2915403522137296</v>
+        <v>0.2597891688717766</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>0.1308863715901509</v>
       </c>
       <c r="M20">
-        <v>1.22625358061768</v>
+        <v>0.07592281350027363</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>0.8201568111493458</v>
+        <v>1.220982005873964</v>
       </c>
       <c r="P20">
-        <v>0.6922332765808861</v>
+        <v>0</v>
       </c>
       <c r="Q20">
-        <v>1.505894163849547</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>0.8193055096000137</v>
+      </c>
+      <c r="R20">
+        <v>0.6874949297864656</v>
+      </c>
+      <c r="S20">
+        <v>1.386779171002132</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.212176509059333</v>
+        <v>1.130228762128723</v>
       </c>
       <c r="C21">
-        <v>0.2573528099873386</v>
+        <v>0.2845833294692</v>
       </c>
       <c r="D21">
-        <v>0.3271338196246205</v>
+        <v>0.3267935119387886</v>
       </c>
       <c r="E21">
-        <v>0.5968517179299369</v>
+        <v>0.5973344446806976</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>0.4491394332863621</v>
+        <v>0.4711699135951619</v>
       </c>
       <c r="H21">
-        <v>0.005011429736159312</v>
+        <v>0.004790734641685224</v>
       </c>
       <c r="I21">
-        <v>0.005361045989918267</v>
+        <v>0.005467467942526838</v>
       </c>
       <c r="J21">
-        <v>0.3329651941572394</v>
+        <v>0.2595268790800702</v>
       </c>
       <c r="K21">
-        <v>0.2993657319152128</v>
+        <v>0.2563545397860345</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>0.1244899906554693</v>
       </c>
       <c r="M21">
-        <v>1.376624166049709</v>
+        <v>0.0820244327311066</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>0.9502527176067801</v>
+        <v>1.353410880736618</v>
       </c>
       <c r="P21">
-        <v>0.6604916407436656</v>
+        <v>0</v>
       </c>
       <c r="Q21">
-        <v>1.598681061859025</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>0.9451290036850679</v>
+      </c>
+      <c r="R21">
+        <v>0.658934194306191</v>
+      </c>
+      <c r="S21">
+        <v>1.408815594734989</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.302733536088965</v>
+        <v>1.206550562798981</v>
       </c>
       <c r="C22">
-        <v>0.2724274503200519</v>
+        <v>0.2990972015399365</v>
       </c>
       <c r="D22">
-        <v>0.3519351698987521</v>
+        <v>0.3514494305132843</v>
       </c>
       <c r="E22">
-        <v>0.6381403124555618</v>
+        <v>0.6395275791680035</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>0.469637905029515</v>
+        <v>0.5403430690243027</v>
       </c>
       <c r="H22">
-        <v>0.006479761981000531</v>
+        <v>0.006141846137321938</v>
       </c>
       <c r="I22">
-        <v>0.006251524193581659</v>
+        <v>0.006086866616186626</v>
       </c>
       <c r="J22">
-        <v>0.3395988983879192</v>
+        <v>0.2213608792017254</v>
       </c>
       <c r="K22">
-        <v>0.3043451177487846</v>
+        <v>0.2535502539670844</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>0.1202959038242088</v>
       </c>
       <c r="M22">
-        <v>1.474954718546712</v>
+        <v>0.08603647935892411</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>1.019578854634929</v>
+        <v>1.438645360249211</v>
       </c>
       <c r="P22">
-        <v>0.6403426209802907</v>
+        <v>0</v>
       </c>
       <c r="Q22">
-        <v>1.656227362900893</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>1.011319828894109</v>
+      </c>
+      <c r="R22">
+        <v>0.641436397629592</v>
+      </c>
+      <c r="S22">
+        <v>1.416769498872554</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.256855403738854</v>
+        <v>1.169105848681909</v>
       </c>
       <c r="C23">
-        <v>0.2630489199969617</v>
+        <v>0.2906747808627301</v>
       </c>
       <c r="D23">
-        <v>0.3386839460586657</v>
+        <v>0.338285066964275</v>
       </c>
       <c r="E23">
-        <v>0.6161290382026081</v>
+        <v>0.6168309878172309</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>0.4599930603812936</v>
+        <v>0.4964147936408381</v>
       </c>
       <c r="H23">
-        <v>0.005679902039446239</v>
+        <v>0.005411952355377392</v>
       </c>
       <c r="I23">
-        <v>0.005486628347154188</v>
+        <v>0.005415210783202618</v>
       </c>
       <c r="J23">
-        <v>0.3367132797059611</v>
+        <v>0.2477915446087593</v>
       </c>
       <c r="K23">
-        <v>0.3027646085414659</v>
+        <v>0.2567993083661264</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>0.1230953822576826</v>
       </c>
       <c r="M23">
-        <v>1.422470489474193</v>
+        <v>0.08462444205762765</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>0.9825675089172066</v>
+        <v>1.3950643492295</v>
       </c>
       <c r="P23">
-        <v>0.6511620184996252</v>
+        <v>0</v>
       </c>
       <c r="Q23">
-        <v>1.629632290609692</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>0.9764366866748375</v>
+      </c>
+      <c r="R23">
+        <v>0.6504488728000606</v>
+      </c>
+      <c r="S23">
+        <v>1.422203070198435</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.0788479606301</v>
+        <v>1.01744624470399</v>
       </c>
       <c r="C24">
-        <v>0.2299990935166392</v>
+        <v>0.256956203403746</v>
       </c>
       <c r="D24">
-        <v>0.2889013494794597</v>
+        <v>0.2887546739850961</v>
       </c>
       <c r="E24">
-        <v>0.5329147492594544</v>
+        <v>0.532258538829538</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>0.4222800059638274</v>
+        <v>0.3825559632384028</v>
       </c>
       <c r="H24">
-        <v>0.003074501361264526</v>
+        <v>0.002996230254266763</v>
       </c>
       <c r="I24">
-        <v>0.003386785172216911</v>
+        <v>0.003634847883484227</v>
       </c>
       <c r="J24">
-        <v>0.3252686063578238</v>
+        <v>0.329311505676344</v>
       </c>
       <c r="K24">
-        <v>0.2955093902173189</v>
+        <v>0.2632825603029225</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>0.1322515187974602</v>
       </c>
       <c r="M24">
-        <v>1.223895426293865</v>
+        <v>0.07718574150233337</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>0.8427204133962363</v>
+        <v>1.218764201290583</v>
       </c>
       <c r="P24">
-        <v>0.6931361822454001</v>
+        <v>0</v>
       </c>
       <c r="Q24">
-        <v>1.525303732856173</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>0.8418849504909716</v>
+      </c>
+      <c r="R24">
+        <v>0.6875597496435528</v>
+      </c>
+      <c r="S24">
+        <v>1.404976761161919</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.886260396513137</v>
+        <v>0.8426744589272346</v>
       </c>
       <c r="C25">
-        <v>0.1948704241322901</v>
+        <v>0.2127270381853776</v>
       </c>
       <c r="D25">
-        <v>0.2359449217625667</v>
+        <v>0.2359299922752314</v>
       </c>
       <c r="E25">
-        <v>0.4434533977735526</v>
+        <v>0.4433838954556251</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>0.3835488279111132</v>
+        <v>0.3444250818373646</v>
       </c>
       <c r="H25">
-        <v>0.0010888434025913</v>
+        <v>0.001090627943678424</v>
       </c>
       <c r="I25">
-        <v>0.001852554238665149</v>
+        <v>0.002215946634643196</v>
       </c>
       <c r="J25">
-        <v>0.3141134499796294</v>
+        <v>0.3280153276171305</v>
       </c>
       <c r="K25">
-        <v>0.2887449359115273</v>
+        <v>0.2620219034221911</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>0.1396261819697173</v>
       </c>
       <c r="M25">
-        <v>1.009922156341929</v>
+        <v>0.06727375495029086</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>0.6923974887381377</v>
+        <v>1.007740019416048</v>
       </c>
       <c r="P25">
-        <v>0.7407679400221943</v>
+        <v>0</v>
       </c>
       <c r="Q25">
-        <v>1.419363758623319</v>
+        <v>0.6922750999011953</v>
+      </c>
+      <c r="R25">
+        <v>0.7311278571553625</v>
+      </c>
+      <c r="S25">
+        <v>1.32672249383694</v>
       </c>
     </row>
   </sheetData>
